--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19230" windowHeight="12600" tabRatio="310" activeTab="1"/>
@@ -20,7 +20,7 @@
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
     <definedName name="result" localSheetId="5">Sheet1!$A$1:$D$63</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2631,8 +2631,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,7 +2847,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2933,7 +2933,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2944,25 +2943,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3266,9 +3265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3306,7 +3305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3340,6 +3339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3374,9 +3374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3549,19 +3550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:C23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>352</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>259</v>
       </c>
@@ -3593,17 +3594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="3" width="21.42578125" customWidth="1"/>
@@ -3614,7 +3614,7 @@
     <col min="9" max="9" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>342</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>343</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatiePijlpunt</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>343</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLijn</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>343</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/AnnotatieTypeValue/annotatieLabel</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>343</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>343</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>343</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>343</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>343</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/algemeen</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>343</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/eisVoorzorgsmaatregel</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>343</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BijlageTypeValue/nietBetrokken</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>343</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>343</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>343</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>343</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>343</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>343</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/bovenkant</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>343</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/DiepteAangrijpingspuntValue/binnenonderkantBuis</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>343</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/aansluiting</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>343</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="H23" s="9"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>343</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/profielschets</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>343</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraDetailInfoTypeValue/overig</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>343</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>343</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ExtraTopografieTypeValue/ontwerp</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="43" customFormat="1">
+    <row r="28" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>343</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/PartyRoleExtendedValue/eigenaar</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="43" customFormat="1">
+    <row r="29" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>343</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/PartyRoleExtendedValue/exploitant</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>343</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>343</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>343</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>343</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>343</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>343</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>343</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="84" customHeight="1">
+    <row r="39" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>343</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/datatransport</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" customHeight="1">
+    <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>343</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasLageDruk</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12" customHeight="1">
+    <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>343</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/gasHogeDruk</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>343</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/petrochemie</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>343</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12" customHeight="1">
+    <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>343</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/hoogspanning</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12" customHeight="1">
+    <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>343</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/laagspanning</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>343</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/middenspanning</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>343</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolVrijverval</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>343</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/rioolOnderDruk</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>343</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/warmte</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>343</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/water</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>343</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/wees</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>343</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/Thema/overig</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>343</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>343</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>343</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>343</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>343</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>343</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>343</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>343</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>343</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>343</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>343</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>343</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="18" t="s">
         <v>714</v>
@@ -5550,7 +5550,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/EffectScenarionType/brandbaar</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
         <v>714</v>
@@ -5575,7 +5575,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/EffectScenarionType/explosief</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
         <v>714</v>
@@ -5600,7 +5600,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/EffectScenarionType/toxisch</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
         <v>714</v>
@@ -5625,7 +5625,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/EffectScenarionType/scherfwerking</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="60">
+    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>343</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/toren</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>343</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/mast</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>343</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/mangat</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>343</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/kast</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>343</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ContainerLeidingElementTypeValue/technischGebouw</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>343</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/BuisleidingenType/overig</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="45">
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>343</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>343</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>506</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>506</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>506</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="39" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>506</v>
       </c>
@@ -5957,13 +5957,13 @@
       <c r="D81" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G81" s="46" t="s">
+      <c r="G81" s="45" t="s">
         <v>216</v>
       </c>
       <c r="H81" s="42" t="s">
@@ -5974,7 +5974,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="82" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>506</v>
       </c>
@@ -5987,13 +5987,13 @@
       <c r="D82" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" t="s">
         <v>351</v>
       </c>
-      <c r="F82" s="39" t="s">
+      <c r="F82" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G82" t="s">
         <v>497</v>
       </c>
       <c r="H82" s="39" t="s">
@@ -6004,7 +6004,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="83" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>506</v>
       </c>
@@ -6017,13 +6017,13 @@
       <c r="D83" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" t="s">
         <v>269</v>
       </c>
-      <c r="F83" s="39" t="s">
+      <c r="F83" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="39" t="s">
+      <c r="G83" t="s">
         <v>500</v>
       </c>
       <c r="H83" s="39" t="s">
@@ -6034,7 +6034,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="84" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>506</v>
       </c>
@@ -6047,13 +6047,13 @@
       <c r="D84" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E84" s="45" t="s">
+      <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F84" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="39" t="s">
+      <c r="G84" t="s">
         <v>511</v>
       </c>
       <c r="H84" s="39" t="s">
@@ -6064,7 +6064,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="85" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>506</v>
       </c>
@@ -6077,13 +6077,13 @@
       <c r="D85" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E85" s="45" t="s">
+      <c r="E85" t="s">
         <v>266</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F85" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" t="s">
         <v>514</v>
       </c>
       <c r="H85" s="39" t="s">
@@ -6094,7 +6094,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="86" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>506</v>
       </c>
@@ -6107,13 +6107,13 @@
       <c r="D86" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" t="s">
         <v>267</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="39" t="s">
+      <c r="G86" t="s">
         <v>518</v>
       </c>
       <c r="H86" s="39" t="s">
@@ -6124,7 +6124,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="87" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>506</v>
       </c>
@@ -6137,13 +6137,13 @@
       <c r="D87" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" t="s">
         <v>270</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" t="s">
         <v>26</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" t="s">
         <v>544</v>
       </c>
       <c r="H87" s="39" t="s">
@@ -6154,7 +6154,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="88" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>506</v>
       </c>
@@ -6167,13 +6167,13 @@
       <c r="D88" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E88" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="39" t="s">
+      <c r="F88" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="39" t="s">
+      <c r="G88" t="s">
         <v>545</v>
       </c>
       <c r="H88" s="39" t="s">
@@ -6184,7 +6184,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>506</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="45" hidden="1">
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>506</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>506</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>506</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>506</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>506</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>344</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>344</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>344</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>344</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="99" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
         <v>344</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>344</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>344</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="102" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
         <v>344</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>344</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>344</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>344</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/coaxial</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>344</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>344</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>450</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>450</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>450</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>450</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>450</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>450</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>450</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>450</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>450</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>450</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>450</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>450</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>450</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>450</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>450</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>450</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>450</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>450</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>450</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>450</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>450</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>450</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>450</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>450</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>450</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>450</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>450</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>450</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>450</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>450</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="E139" t="s">
         <v>304</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" t="s">
         <v>773</v>
       </c>
       <c r="G139" t="s">
@@ -7711,7 +7711,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -7727,7 +7727,7 @@
       <c r="E140" t="s">
         <v>347</v>
       </c>
-      <c r="F140" s="29" t="s">
+      <c r="F140" t="s">
         <v>565</v>
       </c>
       <c r="G140" t="s">
@@ -7741,7 +7741,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>450</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>450</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>450</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>450</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>450</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>450</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>450</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>450</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>450</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>450</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>450</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>450</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>450</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>450</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>450</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>450</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>450</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>450</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>450</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>450</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>450</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>450</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>450</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>450</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>450</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>450</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>450</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>450</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>450</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>450</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>450</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>450</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>450</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>450</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>450</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>450</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>450</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>450</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>450</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>450</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>107</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>107</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>107</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>107</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>107</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>107</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>107</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>107</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>107</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>107</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>107</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>107</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>107</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>107</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>107</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>107</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>107</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>107</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>107</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>107</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>107</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>107</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="207" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>107</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>107</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>107</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>107</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>107</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>107</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="213" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>107</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>345</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/aansluitleiding</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>345</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/bergbezinkleiding</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="216" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>345</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/bergingsleiding</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="217" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>345</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/gemengdRiool</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="218" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>345</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/hemelwaterriool</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="219" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>345</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/overstortleiding</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>345</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/stuwrioolleiding</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="221" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>345</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/doorlatendeleiding</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>345</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/vuilwaterriool</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="223" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>345</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/transportrioolleiding</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>345</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/zinker</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>345</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/RioolleidingTypeValue/openLeiding</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>345</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>345</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>345</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+    <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>345</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>345</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>345</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>345</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>345</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>345</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>345</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>345</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>345</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>345</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>345</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>345</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>345</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>345</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>345</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>345</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>345</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>345</v>
       </c>
@@ -10916,8 +10916,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A247" s="47" t="s">
+    <row r="247" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B247" s="39" t="s">
@@ -10929,13 +10929,13 @@
       <c r="D247" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E247" s="48" t="s">
+      <c r="E247" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="F247" s="48" t="s">
+      <c r="F247" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="G247" s="48" t="s">
+      <c r="G247" s="47" t="s">
         <v>198</v>
       </c>
       <c r="H247" s="42" t="s">
@@ -10946,8 +10946,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A248" s="47" t="s">
+    <row r="248" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B248" s="39" t="s">
@@ -10959,13 +10959,13 @@
       <c r="D248" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E248" s="48" t="s">
+      <c r="E248" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="F248" s="48" t="s">
+      <c r="F248" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="G248" s="48" t="s">
+      <c r="G248" s="47" t="s">
         <v>202</v>
       </c>
       <c r="H248" s="42" t="s">
@@ -10976,8 +10976,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A249" s="47" t="s">
+    <row r="249" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B249" s="39" t="s">
@@ -10989,13 +10989,13 @@
       <c r="D249" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E249" s="48" t="s">
+      <c r="E249" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="F249" s="48" t="s">
+      <c r="F249" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="G249" s="48" t="s">
+      <c r="G249" s="47" t="s">
         <v>417</v>
       </c>
       <c r="H249" s="42" t="s">
@@ -11006,8 +11006,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/put</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A250" s="47" t="s">
+    <row r="250" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B250" s="39" t="s">
@@ -11019,13 +11019,13 @@
       <c r="D250" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E250" s="48" t="s">
+      <c r="E250" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F250" s="48" t="s">
+      <c r="F250" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G250" s="48" t="s">
+      <c r="G250" s="47" t="s">
         <v>56</v>
       </c>
       <c r="H250" s="42" t="s">
@@ -11036,8 +11036,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A251" s="47" t="s">
+    <row r="251" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B251" s="39" t="s">
@@ -11049,13 +11049,13 @@
       <c r="D251" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E251" s="48" t="s">
+      <c r="E251" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F251" s="48" t="s">
+      <c r="F251" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="G251" s="48" t="s">
+      <c r="G251" s="47" t="s">
         <v>204</v>
       </c>
       <c r="H251" s="42" t="s">
@@ -11066,8 +11066,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A252" s="47" t="s">
+    <row r="252" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B252" s="39" t="s">
@@ -11079,13 +11079,13 @@
       <c r="D252" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E252" s="48" t="s">
+      <c r="E252" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="F252" s="48" t="s">
+      <c r="F252" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="G252" s="48" t="s">
+      <c r="G252" s="47" t="s">
         <v>199</v>
       </c>
       <c r="H252" s="42" t="s">
@@ -11096,8 +11096,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="39" customFormat="1" ht="30" hidden="1">
-      <c r="A253" s="47" t="s">
+    <row r="253" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B253" s="39" t="s">
@@ -11109,13 +11109,13 @@
       <c r="D253" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E253" s="49" t="s">
+      <c r="E253" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="F253" s="49" t="s">
+      <c r="F253" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="G253" s="49" t="s">
+      <c r="G253" s="48" t="s">
         <v>200</v>
       </c>
       <c r="H253" s="42" t="s">
@@ -11126,8 +11126,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A254" s="47" t="s">
+    <row r="254" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B254" s="39" t="s">
@@ -11139,13 +11139,13 @@
       <c r="D254" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E254" s="48" t="s">
+      <c r="E254" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="F254" s="48" t="s">
+      <c r="F254" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G254" s="48" t="s">
+      <c r="G254" s="47" t="s">
         <v>201</v>
       </c>
       <c r="H254" s="42" t="s">
@@ -11156,8 +11156,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A255" s="47" t="s">
+    <row r="255" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B255" s="39" t="s">
@@ -11169,13 +11169,13 @@
       <c r="D255" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="E255" s="48" t="s">
+      <c r="E255" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F255" s="48" t="s">
+      <c r="F255" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G255" s="48" t="s">
+      <c r="G255" s="47" t="s">
         <v>203</v>
       </c>
       <c r="H255" s="42" t="s">
@@ -11186,8 +11186,8 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="39" customFormat="1" hidden="1">
-      <c r="A256" s="47" t="s">
+    <row r="256" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B256" s="39" t="s">
@@ -11202,7 +11202,7 @@
       <c r="E256" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="F256" s="48" t="s">
+      <c r="F256" s="47" t="s">
         <v>21</v>
       </c>
       <c r="G256" s="42" t="s">
@@ -11216,7 +11216,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/def/ThermalAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>343</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>343</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>343</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>343</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>343</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>343</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>343</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>343</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>343</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>343</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>343</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>343</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>343</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>343</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>343</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>343</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>343</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>343</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>343</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>343</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>343</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>343</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>343</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>343</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>343</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>343</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>343</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>343</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>343</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>343</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>343</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>343</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>343</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>343</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>343</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>343</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>343</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>343</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>343</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>343</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>343</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>343</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>343</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>343</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>343</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>343</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>343</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>343</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>343</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>343</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>343</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>343</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>343</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>343</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>343</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>343</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>343</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>343</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>343</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>343</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>343</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>343</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>343</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>343</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>343</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>450</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>450</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>450</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>450</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>450</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>450</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>450</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>343</v>
       </c>
@@ -13004,14 +13004,14 @@
       <c r="F333" t="s">
         <v>419</v>
       </c>
-      <c r="G333" s="29" t="s">
+      <c r="G333" t="s">
         <v>764</v>
       </c>
       <c r="H333" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
@@ -13030,14 +13030,14 @@
       <c r="F334" t="s">
         <v>420</v>
       </c>
-      <c r="G334" s="29" t="s">
+      <c r="G334" t="s">
         <v>742</v>
       </c>
       <c r="H334" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>343</v>
       </c>
@@ -13056,14 +13056,14 @@
       <c r="F335" t="s">
         <v>421</v>
       </c>
-      <c r="G335" s="29" t="s">
+      <c r="G335" t="s">
         <v>743</v>
       </c>
       <c r="H335" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>343</v>
       </c>
@@ -13082,14 +13082,14 @@
       <c r="F336" t="s">
         <v>422</v>
       </c>
-      <c r="G336" s="29" t="s">
+      <c r="G336" t="s">
         <v>744</v>
       </c>
       <c r="H336" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>343</v>
       </c>
@@ -13108,14 +13108,14 @@
       <c r="F337" t="s">
         <v>423</v>
       </c>
-      <c r="G337" s="29" t="s">
+      <c r="G337" t="s">
         <v>745</v>
       </c>
       <c r="H337" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>343</v>
       </c>
@@ -13134,14 +13134,14 @@
       <c r="F338" t="s">
         <v>424</v>
       </c>
-      <c r="G338" s="29" t="s">
+      <c r="G338" t="s">
         <v>746</v>
       </c>
       <c r="H338" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="339" spans="1:8" s="39" customFormat="1">
+    <row r="339" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="43" t="s">
         <v>343</v>
       </c>
@@ -13160,14 +13160,14 @@
       <c r="F339" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="G339" s="45" t="s">
+      <c r="G339" t="s">
         <v>767</v>
       </c>
       <c r="H339" s="44" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>343</v>
       </c>
@@ -13186,14 +13186,14 @@
       <c r="F340" t="s">
         <v>425</v>
       </c>
-      <c r="G340" s="29" t="s">
+      <c r="G340" t="s">
         <v>747</v>
       </c>
       <c r="H340" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
@@ -13212,14 +13212,14 @@
       <c r="F341" t="s">
         <v>426</v>
       </c>
-      <c r="G341" s="29" t="s">
+      <c r="G341" t="s">
         <v>748</v>
       </c>
       <c r="H341" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
@@ -13238,14 +13238,14 @@
       <c r="F342" t="s">
         <v>427</v>
       </c>
-      <c r="G342" s="29" t="s">
+      <c r="G342" t="s">
         <v>749</v>
       </c>
       <c r="H342" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
@@ -13264,14 +13264,14 @@
       <c r="F343" t="s">
         <v>428</v>
       </c>
-      <c r="G343" s="29" t="s">
+      <c r="G343" t="s">
         <v>750</v>
       </c>
       <c r="H343" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
@@ -13290,14 +13290,14 @@
       <c r="F344" t="s">
         <v>429</v>
       </c>
-      <c r="G344" s="29" t="s">
+      <c r="G344" t="s">
         <v>751</v>
       </c>
       <c r="H344" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -13316,14 +13316,14 @@
       <c r="F345" t="s">
         <v>430</v>
       </c>
-      <c r="G345" s="29" t="s">
+      <c r="G345" t="s">
         <v>752</v>
       </c>
       <c r="H345" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>343</v>
       </c>
@@ -13342,14 +13342,14 @@
       <c r="F346" t="s">
         <v>431</v>
       </c>
-      <c r="G346" s="29" t="s">
+      <c r="G346" t="s">
         <v>753</v>
       </c>
       <c r="H346" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>343</v>
       </c>
@@ -13368,14 +13368,14 @@
       <c r="F347" t="s">
         <v>432</v>
       </c>
-      <c r="G347" s="29" t="s">
+      <c r="G347" t="s">
         <v>754</v>
       </c>
       <c r="H347" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>343</v>
       </c>
@@ -13394,14 +13394,14 @@
       <c r="F348" t="s">
         <v>433</v>
       </c>
-      <c r="G348" s="29" t="s">
+      <c r="G348" t="s">
         <v>755</v>
       </c>
       <c r="H348" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>343</v>
       </c>
@@ -13420,14 +13420,14 @@
       <c r="F349" t="s">
         <v>190</v>
       </c>
-      <c r="G349" s="29" t="s">
+      <c r="G349" t="s">
         <v>756</v>
       </c>
       <c r="H349" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>343</v>
       </c>
@@ -13446,14 +13446,14 @@
       <c r="F350" t="s">
         <v>434</v>
       </c>
-      <c r="G350" s="29" t="s">
+      <c r="G350" t="s">
         <v>757</v>
       </c>
       <c r="H350" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>343</v>
       </c>
@@ -13472,14 +13472,14 @@
       <c r="F351" t="s">
         <v>435</v>
       </c>
-      <c r="G351" s="29" t="s">
+      <c r="G351" t="s">
         <v>758</v>
       </c>
       <c r="H351" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>343</v>
       </c>
@@ -13498,14 +13498,14 @@
       <c r="F352" t="s">
         <v>436</v>
       </c>
-      <c r="G352" s="29" t="s">
+      <c r="G352" t="s">
         <v>759</v>
       </c>
       <c r="H352" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>343</v>
       </c>
@@ -13524,14 +13524,14 @@
       <c r="F353" t="s">
         <v>437</v>
       </c>
-      <c r="G353" s="29" t="s">
+      <c r="G353" t="s">
         <v>760</v>
       </c>
       <c r="H353" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>343</v>
       </c>
@@ -13550,14 +13550,14 @@
       <c r="F354" t="s">
         <v>438</v>
       </c>
-      <c r="G354" s="29" t="s">
+      <c r="G354" t="s">
         <v>761</v>
       </c>
       <c r="H354" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>343</v>
       </c>
@@ -13576,14 +13576,14 @@
       <c r="F355" t="s">
         <v>439</v>
       </c>
-      <c r="G355" s="29" t="s">
+      <c r="G355" t="s">
         <v>762</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>343</v>
       </c>
@@ -13602,14 +13602,14 @@
       <c r="F356" t="s">
         <v>440</v>
       </c>
-      <c r="G356" s="29" t="s">
+      <c r="G356" t="s">
         <v>763</v>
       </c>
       <c r="H356" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>343</v>
       </c>
@@ -13628,14 +13628,14 @@
       <c r="F357" t="s">
         <v>441</v>
       </c>
-      <c r="G357" s="29" t="s">
+      <c r="G357" t="s">
         <v>740</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>343</v>
       </c>
@@ -13654,14 +13654,14 @@
       <c r="F358" t="s">
         <v>442</v>
       </c>
-      <c r="G358" s="29" t="s">
+      <c r="G358" t="s">
         <v>739</v>
       </c>
       <c r="H358" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>343</v>
       </c>
@@ -13680,14 +13680,14 @@
       <c r="F359" t="s">
         <v>443</v>
       </c>
-      <c r="G359" s="29" t="s">
+      <c r="G359" t="s">
         <v>738</v>
       </c>
       <c r="H359" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>343</v>
       </c>
@@ -13706,14 +13706,14 @@
       <c r="F360" t="s">
         <v>444</v>
       </c>
-      <c r="G360" s="29" t="s">
+      <c r="G360" t="s">
         <v>735</v>
       </c>
       <c r="H360" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>343</v>
       </c>
@@ -13732,14 +13732,14 @@
       <c r="F361" t="s">
         <v>445</v>
       </c>
-      <c r="G361" s="29" t="s">
+      <c r="G361" t="s">
         <v>736</v>
       </c>
       <c r="H361" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>343</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="F362" t="s">
         <v>192</v>
       </c>
-      <c r="G362" s="29" t="s">
+      <c r="G362" t="s">
         <v>737</v>
       </c>
       <c r="H362" s="9" t="s">
@@ -13767,150 +13767,14 @@
       <c r="I362" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I362">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="algemeen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I362"/>
   <sortState ref="B2:G62">
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1"/>
-    <hyperlink ref="E55" r:id="rId2"/>
-    <hyperlink ref="E56" r:id="rId3"/>
-    <hyperlink ref="E53" r:id="rId4"/>
-    <hyperlink ref="E82" r:id="rId5"/>
-    <hyperlink ref="E83" r:id="rId6"/>
-    <hyperlink ref="E84" r:id="rId7"/>
-    <hyperlink ref="E85" r:id="rId8"/>
-    <hyperlink ref="E86" r:id="rId9"/>
-    <hyperlink ref="E87" r:id="rId10"/>
-    <hyperlink ref="E88" r:id="rId11"/>
-    <hyperlink ref="G82" r:id="rId12" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
-    <hyperlink ref="G83" r:id="rId13" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
-    <hyperlink ref="G84" r:id="rId14" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
-    <hyperlink ref="G85" r:id="rId15" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
-    <hyperlink ref="G86" r:id="rId16" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
-    <hyperlink ref="G87" r:id="rId17" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
-    <hyperlink ref="G88" r:id="rId18" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
-    <hyperlink ref="G138" r:id="rId19" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation"/>
-    <hyperlink ref="G139" r:id="rId20" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/node"/>
-    <hyperlink ref="G140" r:id="rId21" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker"/>
-    <hyperlink ref="G146" r:id="rId22" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage"/>
-    <hyperlink ref="G143" r:id="rId23" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump"/>
-    <hyperlink ref="G144" r:id="rId24" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation"/>
-    <hyperlink ref="G145" r:id="rId25" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion"/>
-    <hyperlink ref="G142" r:id="rId26" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal"/>
-    <hyperlink ref="G190" r:id="rId27" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve"/>
-    <hyperlink ref="G191" r:id="rId28" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint"/>
-    <hyperlink ref="G192" r:id="rId29" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint"/>
-    <hyperlink ref="G193" r:id="rId30" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode"/>
-    <hyperlink ref="G194" r:id="rId31" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant"/>
-    <hyperlink ref="G195" r:id="rId32" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well"/>
-    <hyperlink ref="G196" r:id="rId33" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve"/>
-    <hyperlink ref="G197" r:id="rId34" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController"/>
-    <hyperlink ref="G198" r:id="rId35" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction"/>
-    <hyperlink ref="G199" r:id="rId36" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint"/>
-    <hyperlink ref="G200" r:id="rId37" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation"/>
-    <hyperlink ref="G201" r:id="rId38" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter"/>
-    <hyperlink ref="G202" r:id="rId39" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve"/>
-    <hyperlink ref="G203" r:id="rId40" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility"/>
-    <hyperlink ref="G204" r:id="rId41" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation"/>
-    <hyperlink ref="G205" r:id="rId42" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint"/>
-    <hyperlink ref="G206" r:id="rId43" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant"/>
-    <hyperlink ref="G233" r:id="rId44" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection"/>
-    <hyperlink ref="G234" r:id="rId45" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut"/>
-    <hyperlink ref="G241" r:id="rId46" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure"/>
-    <hyperlink ref="G235" r:id="rId47" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel"/>
-    <hyperlink ref="G236" r:id="rId48" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin"/>
-    <hyperlink ref="G238" r:id="rId49" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure"/>
-    <hyperlink ref="G239" r:id="rId50" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection"/>
-    <hyperlink ref="G240" r:id="rId51" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate"/>
-    <hyperlink ref="G237" r:id="rId52" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber"/>
-    <hyperlink ref="F54" r:id="rId53" display="distribution"/>
-    <hyperlink ref="F55" r:id="rId54" display="private"/>
-    <hyperlink ref="F56" r:id="rId55" display="transport"/>
-    <hyperlink ref="F53" r:id="rId56" display="collection"/>
-    <hyperlink ref="F233" r:id="rId57" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection"/>
-    <hyperlink ref="F234" r:id="rId58" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut"/>
-    <hyperlink ref="F241" r:id="rId59" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure"/>
-    <hyperlink ref="F235" r:id="rId60" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel"/>
-    <hyperlink ref="F236" r:id="rId61" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin"/>
-    <hyperlink ref="F238" r:id="rId62" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure"/>
-    <hyperlink ref="F239" r:id="rId63" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection"/>
-    <hyperlink ref="F240" r:id="rId64" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate"/>
-    <hyperlink ref="F237" r:id="rId65" display="http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber"/>
-    <hyperlink ref="F190" r:id="rId66" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve"/>
-    <hyperlink ref="F191" r:id="rId67" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint"/>
-    <hyperlink ref="F192" r:id="rId68" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint"/>
-    <hyperlink ref="F193" r:id="rId69" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode"/>
-    <hyperlink ref="F194" r:id="rId70" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant"/>
-    <hyperlink ref="F195" r:id="rId71" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well"/>
-    <hyperlink ref="F196" r:id="rId72" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve"/>
-    <hyperlink ref="F197" r:id="rId73" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController"/>
-    <hyperlink ref="F198" r:id="rId74" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction"/>
-    <hyperlink ref="F199" r:id="rId75" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint"/>
-    <hyperlink ref="F200" r:id="rId76" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation"/>
-    <hyperlink ref="F201" r:id="rId77" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter"/>
-    <hyperlink ref="F202" r:id="rId78" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve"/>
-    <hyperlink ref="F203" r:id="rId79" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility"/>
-    <hyperlink ref="F204" r:id="rId80" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation"/>
-    <hyperlink ref="F205" r:id="rId81" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint"/>
-    <hyperlink ref="F206" r:id="rId82" display="http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant"/>
-    <hyperlink ref="F138" r:id="rId83" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation"/>
-    <hyperlink ref="F139" r:id="rId84"/>
-    <hyperlink ref="F140" r:id="rId85"/>
-    <hyperlink ref="F146" r:id="rId86" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage"/>
-    <hyperlink ref="F143" r:id="rId87" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump"/>
-    <hyperlink ref="F144" r:id="rId88" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation"/>
-    <hyperlink ref="F145" r:id="rId89" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion"/>
-    <hyperlink ref="F142" r:id="rId90" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal"/>
-    <hyperlink ref="F82" r:id="rId91" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
-    <hyperlink ref="F83" r:id="rId92" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation"/>
-    <hyperlink ref="F84" r:id="rId93" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator"/>
-    <hyperlink ref="F85" r:id="rId94" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation"/>
-    <hyperlink ref="F86" r:id="rId95" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation"/>
-    <hyperlink ref="F87" r:id="rId96" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint"/>
-    <hyperlink ref="F88" r:id="rId97" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight"/>
-    <hyperlink ref="G141" r:id="rId98" display="http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/node"/>
-    <hyperlink ref="G362" r:id="rId99"/>
-    <hyperlink ref="G334" r:id="rId100"/>
-    <hyperlink ref="G335" r:id="rId101"/>
-    <hyperlink ref="G336" r:id="rId102"/>
-    <hyperlink ref="G337" r:id="rId103"/>
-    <hyperlink ref="G338" r:id="rId104"/>
-    <hyperlink ref="G339" r:id="rId105"/>
-    <hyperlink ref="G340" r:id="rId106"/>
-    <hyperlink ref="G341" r:id="rId107"/>
-    <hyperlink ref="G342" r:id="rId108"/>
-    <hyperlink ref="G343" r:id="rId109"/>
-    <hyperlink ref="G344" r:id="rId110"/>
-    <hyperlink ref="G345" r:id="rId111"/>
-    <hyperlink ref="G346" r:id="rId112"/>
-    <hyperlink ref="G347" r:id="rId113"/>
-    <hyperlink ref="G348" r:id="rId114"/>
-    <hyperlink ref="G349" r:id="rId115"/>
-    <hyperlink ref="G350" r:id="rId116"/>
-    <hyperlink ref="G351" r:id="rId117"/>
-    <hyperlink ref="G352" r:id="rId118"/>
-    <hyperlink ref="G353" r:id="rId119"/>
-    <hyperlink ref="G354" r:id="rId120"/>
-    <hyperlink ref="G355" r:id="rId121"/>
-    <hyperlink ref="G356" r:id="rId122"/>
-    <hyperlink ref="G357" r:id="rId123"/>
-    <hyperlink ref="G358" r:id="rId124"/>
-    <hyperlink ref="G359" r:id="rId125"/>
-    <hyperlink ref="G360" r:id="rId126"/>
-    <hyperlink ref="G361" r:id="rId127"/>
-    <hyperlink ref="G333" r:id="rId128"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId129"/>
-  <legacyDrawing r:id="rId130"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13920,14 +13784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
@@ -13935,7 +13799,7 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -13952,7 +13816,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13963,7 +13827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -13974,7 +13838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -13985,7 +13849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -13996,7 +13860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -14007,7 +13871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14018,7 +13882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14029,7 +13893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -14040,7 +13904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14051,7 +13915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14062,7 +13926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -14073,7 +13937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -14084,7 +13948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14095,7 +13959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14106,7 +13970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14117,7 +13981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14128,7 +13992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14139,7 +14003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14150,7 +14014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14161,7 +14025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14172,7 +14036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14183,7 +14047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14194,7 +14058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14205,7 +14069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14216,7 +14080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14227,7 +14091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -14238,12 +14102,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -14254,7 +14118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -14265,12 +14129,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
@@ -14310,14 +14174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -14326,7 +14190,7 @@
     <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -14346,7 +14210,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -14363,7 +14227,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -14380,7 +14244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -14397,7 +14261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -14414,7 +14278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -14431,7 +14295,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -14448,7 +14312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -14465,7 +14329,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -14482,7 +14346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -14499,7 +14363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -14516,7 +14380,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -14533,7 +14397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -14550,7 +14414,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>196</v>
       </c>
@@ -14567,7 +14431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>196</v>
       </c>
@@ -14584,7 +14448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -14601,7 +14465,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -14612,7 +14476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -14623,7 +14487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -14634,7 +14498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -14645,7 +14509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -14656,7 +14520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -14667,7 +14531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -14678,7 +14542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -14689,7 +14553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -14700,7 +14564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -14711,7 +14575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -14722,7 +14586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -14733,7 +14597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -14744,7 +14608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -14755,7 +14619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -14766,7 +14630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -14777,7 +14641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -14788,7 +14652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -14799,7 +14663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -14810,7 +14674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -14821,7 +14685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -14832,7 +14696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -14843,7 +14707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -14854,7 +14718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -14865,7 +14729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -14876,7 +14740,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -14887,7 +14751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -14898,7 +14762,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -14909,7 +14773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -14920,7 +14784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -14931,7 +14795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -14942,7 +14806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -14953,7 +14817,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -14964,7 +14828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -14975,7 +14839,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -14986,7 +14850,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -14997,7 +14861,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -15008,7 +14872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -15019,7 +14883,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -15030,7 +14894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -15041,7 +14905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -15052,7 +14916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -15063,7 +14927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -15074,7 +14938,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -15085,7 +14949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -15096,7 +14960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -15107,7 +14971,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -15118,7 +14982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -15129,7 +14993,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -15140,7 +15004,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -15151,7 +15015,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -15162,7 +15026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -15173,7 +15037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -15184,7 +15048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -15195,7 +15059,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -15206,7 +15070,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -15217,7 +15081,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -15228,7 +15092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -15239,7 +15103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -15250,7 +15114,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -15261,7 +15125,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -15272,7 +15136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -15283,21 +15147,21 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
@@ -15332,14 +15196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
@@ -15347,7 +15211,7 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -15364,7 +15228,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -15375,7 +15239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -15386,7 +15250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -15397,7 +15261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -15408,7 +15272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -15419,7 +15283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -15430,7 +15294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -15441,7 +15305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15452,7 +15316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -15463,7 +15327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -15474,7 +15338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -15485,7 +15349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -15496,12 +15360,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -15512,7 +15376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -15523,7 +15387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -15534,7 +15398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -15545,7 +15409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -15556,7 +15420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -15567,7 +15431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -15578,7 +15442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -15589,7 +15453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -15600,7 +15464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -15611,7 +15475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -15622,7 +15486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -15633,7 +15497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -15644,12 +15508,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -15660,7 +15524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -15671,7 +15535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -15682,7 +15546,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -15693,7 +15557,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -15704,7 +15568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -15715,7 +15579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -15726,7 +15590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -15737,7 +15601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -15748,7 +15612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -15759,7 +15623,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -15770,7 +15634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -15781,7 +15645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -15792,7 +15656,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -15803,7 +15667,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -15814,7 +15678,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -15825,7 +15689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -15836,7 +15700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -15847,7 +15711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -15858,7 +15722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -15869,7 +15733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -15880,7 +15744,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -15891,7 +15755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -15902,7 +15766,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -15913,7 +15777,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -15924,7 +15788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -15935,7 +15799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -15946,7 +15810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -15957,7 +15821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -15968,7 +15832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -15979,7 +15843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -15990,7 +15854,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -16001,7 +15865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -16012,7 +15876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -16023,7 +15887,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -16034,7 +15898,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -16045,7 +15909,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -16056,7 +15920,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -16093,14 +15957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
@@ -16108,7 +15972,7 @@
     <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>351</v>
       </c>
@@ -16122,7 +15986,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -16136,7 +16000,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16150,7 +16014,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -16164,7 +16028,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -16178,7 +16042,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -16192,7 +16056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -16206,7 +16070,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -16220,7 +16084,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -16234,7 +16098,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -16248,7 +16112,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>307</v>
       </c>
@@ -16262,7 +16126,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -16276,7 +16140,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -16290,7 +16154,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>308</v>
       </c>
@@ -16304,7 +16168,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -16318,7 +16182,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -16332,7 +16196,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -16346,7 +16210,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -16360,7 +16224,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>314</v>
       </c>
@@ -16374,7 +16238,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -16388,7 +16252,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -16402,7 +16266,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>318</v>
       </c>
@@ -16416,7 +16280,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -16430,7 +16294,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -16444,7 +16308,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -16458,7 +16322,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -16472,7 +16336,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -16486,7 +16350,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -16500,7 +16364,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -16514,7 +16378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -16528,7 +16392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -16542,7 +16406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -16556,7 +16420,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -16570,7 +16434,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -16584,7 +16448,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>346</v>
       </c>
@@ -16598,7 +16462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -16612,7 +16476,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -16626,7 +16490,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -16640,7 +16504,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -16654,7 +16518,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -16668,7 +16532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -16682,7 +16546,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -16696,7 +16560,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>281</v>
       </c>
@@ -16710,7 +16574,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -16724,7 +16588,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>271</v>
       </c>
@@ -16738,7 +16602,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>276</v>
       </c>
@@ -16752,7 +16616,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>274</v>
       </c>
@@ -16766,7 +16630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>278</v>
       </c>
@@ -16780,7 +16644,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -16794,7 +16658,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -16808,7 +16672,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>277</v>
       </c>
@@ -16822,7 +16686,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -16836,7 +16700,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -16850,7 +16714,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>282</v>
       </c>
@@ -16864,7 +16728,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>284</v>
       </c>
@@ -16878,7 +16742,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -16892,7 +16756,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -16906,7 +16770,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -16920,7 +16784,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -16934,7 +16798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -16948,7 +16812,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -16962,7 +16826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -16976,7 +16840,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>171</v>
       </c>

--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -3622,13 +3622,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34:G38"/>
+      <selection pane="bottomLeft" activeCell="I326" sqref="I326:I334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5616,7 +5615,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
         <v>703</v>
@@ -5641,7 +5640,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/brandbaar</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
         <v>703</v>
@@ -5666,7 +5665,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/explosief</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
         <v>703</v>
@@ -5691,7 +5690,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/toxisch</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
         <v>703</v>
@@ -5923,7 +5922,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28">
+    <row r="78" spans="1:9" ht="29" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>338</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="79" spans="1:9" ht="15" thickBot="1">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="80" spans="1:9" ht="15" thickBot="1">
       <c r="A80" t="s">
         <v>496</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="81" spans="1:9" ht="15" thickBot="1">
       <c r="A81" t="s">
         <v>496</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="82" spans="1:9" s="39" customFormat="1" ht="15" thickBot="1">
       <c r="A82" t="s">
         <v>496</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="83" spans="1:9" s="39" customFormat="1">
       <c r="A83" t="s">
         <v>496</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="84" spans="1:9" s="39" customFormat="1">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="85" spans="1:9" s="39" customFormat="1">
       <c r="A85" t="s">
         <v>496</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="86" spans="1:9" s="39" customFormat="1">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="87" spans="1:9" s="39" customFormat="1">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="88" spans="1:9" s="39" customFormat="1">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="89" spans="1:9" s="39" customFormat="1">
       <c r="A89" t="s">
         <v>496</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="90" spans="1:9" ht="15" thickBot="1">
       <c r="A90" t="s">
         <v>496</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="28" hidden="1">
+    <row r="91" spans="1:9" ht="28">
       <c r="A91" t="s">
         <v>496</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>496</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>496</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>496</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>339</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>339</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>339</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>339</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="100" spans="1:9" s="39" customFormat="1">
       <c r="A100" s="39" t="s">
         <v>339</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>339</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>339</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="103" spans="1:9" s="39" customFormat="1">
       <c r="A103" s="39" t="s">
         <v>339</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>339</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>339</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="106" spans="1:9" ht="15" thickBot="1">
       <c r="A106" t="s">
         <v>339</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>339</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/coaxial</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>339</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9" ht="15" thickBot="1">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="110" spans="1:9" ht="15" thickBot="1">
       <c r="A110" t="s">
         <v>442</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="111" spans="1:9" ht="15" thickBot="1">
       <c r="A111" t="s">
         <v>442</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="112" spans="1:9" ht="15" thickBot="1">
       <c r="A112" t="s">
         <v>442</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="113" spans="1:9" ht="15" thickBot="1">
       <c r="A113" t="s">
         <v>442</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="114" spans="1:9" ht="15" thickBot="1">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="115" spans="1:9" ht="15" thickBot="1">
       <c r="A115" t="s">
         <v>442</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="116" spans="1:9" ht="15" thickBot="1">
       <c r="A116" t="s">
         <v>442</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="117" spans="1:9" ht="15" thickBot="1">
       <c r="A117" t="s">
         <v>442</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="118" spans="1:9" ht="15" thickBot="1">
       <c r="A118" t="s">
         <v>442</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
         <v>442</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="120" spans="1:9" ht="15" thickBot="1">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="121" spans="1:9" ht="15" thickBot="1">
       <c r="A121" t="s">
         <v>442</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>442</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1">
+    <row r="123" spans="1:9" ht="15" thickBot="1">
       <c r="A123" t="s">
         <v>442</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="124" spans="1:9" ht="15" thickBot="1">
       <c r="A124" t="s">
         <v>442</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="125" spans="1:9" ht="15" thickBot="1">
       <c r="A125" t="s">
         <v>442</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>442</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>442</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>442</v>
       </c>
@@ -7450,7 +7449,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>442</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>442</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>442</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>442</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>442</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>442</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>442</v>
       </c>
@@ -7660,7 +7659,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>442</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>442</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>442</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>442</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>442</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>442</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>442</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>442</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>442</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>442</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>442</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>442</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>442</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>442</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>442</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>442</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>442</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>442</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>442</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>442</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>442</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>442</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>442</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>442</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>442</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>442</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>442</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>442</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>442</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>442</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>442</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>442</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>442</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>442</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>442</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>442</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>442</v>
       </c>
@@ -9040,7 +9039,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>442</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>442</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>442</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9" ht="15" thickBot="1">
       <c r="A185" t="s">
         <v>442</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" s="4" t="s">
         <v>105</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="187" spans="1:9" ht="15" thickBot="1">
       <c r="A187" s="4" t="s">
         <v>105</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="188" spans="1:9" ht="15" thickBot="1">
       <c r="A188" s="4" t="s">
         <v>105</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="189" spans="1:9" ht="15" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>105</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="190" spans="1:9" ht="15" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>105</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="4" t="s">
         <v>105</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="4" t="s">
         <v>105</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" s="4" t="s">
         <v>105</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" s="4" t="s">
         <v>105</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" s="4" t="s">
         <v>105</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" s="4" t="s">
         <v>105</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9">
       <c r="A197" s="4" t="s">
         <v>105</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9">
       <c r="A198" s="4" t="s">
         <v>105</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" s="4" t="s">
         <v>105</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9">
       <c r="A200" s="4" t="s">
         <v>105</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9">
       <c r="A201" s="4" t="s">
         <v>105</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9">
       <c r="A202" s="4" t="s">
         <v>105</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:9">
       <c r="A203" s="4" t="s">
         <v>105</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:9">
       <c r="A204" s="4" t="s">
         <v>105</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:9">
       <c r="A205" s="4" t="s">
         <v>105</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:9">
       <c r="A206" s="4" t="s">
         <v>105</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" s="4" t="s">
         <v>105</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="208" spans="1:9" ht="15" thickBot="1">
       <c r="A208" s="4" t="s">
         <v>105</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="209" spans="1:9" ht="15" thickBot="1">
       <c r="A209" s="4" t="s">
         <v>105</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9">
       <c r="A210" s="4" t="s">
         <v>105</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:9">
       <c r="A211" s="4" t="s">
         <v>105</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:9">
       <c r="A212" s="4" t="s">
         <v>105</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:9">
       <c r="A213" s="4" t="s">
         <v>105</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="214" spans="1:9" ht="15" thickBot="1">
       <c r="A214" s="4" t="s">
         <v>105</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="215" spans="1:9" ht="15" thickBot="1">
       <c r="A215" s="4" t="s">
         <v>340</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/aansluitleiding</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="216" spans="1:9" ht="15" thickBot="1">
       <c r="A216" s="4" t="s">
         <v>340</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergbezinkleiding</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="217" spans="1:9" ht="15" thickBot="1">
       <c r="A217" s="4" t="s">
         <v>340</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergingsleiding</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="218" spans="1:9" ht="15" thickBot="1">
       <c r="A218" s="4" t="s">
         <v>340</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/gemengdRiool</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="219" spans="1:9" ht="15" thickBot="1">
       <c r="A219" s="4" t="s">
         <v>340</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/hemelwaterriool</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="220" spans="1:9" ht="15" thickBot="1">
       <c r="A220" s="4" t="s">
         <v>340</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/overstortleiding</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="221" spans="1:9" ht="15" thickBot="1">
       <c r="A221" s="4" t="s">
         <v>340</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/stuwrioolleiding</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="222" spans="1:9" ht="15" thickBot="1">
       <c r="A222" s="4" t="s">
         <v>340</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/doorlatendeleiding</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="223" spans="1:9" ht="15" thickBot="1">
       <c r="A223" s="4" t="s">
         <v>340</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/vuilwaterriool</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="224" spans="1:9" ht="15" thickBot="1">
       <c r="A224" s="4" t="s">
         <v>340</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/transportrioolleiding</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="225" spans="1:9" ht="15" thickBot="1">
       <c r="A225" s="4" t="s">
         <v>340</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/zinker</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="226" spans="1:9" ht="15" thickBot="1">
       <c r="A226" s="4" t="s">
         <v>340</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/openLeiding</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="227" spans="1:9" ht="15" thickBot="1">
       <c r="A227" s="4" t="s">
         <v>340</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="228" spans="1:9" ht="15" thickBot="1">
       <c r="A228" s="4" t="s">
         <v>340</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="229" spans="1:9" ht="15" thickBot="1">
       <c r="A229" s="4" t="s">
         <v>340</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="230" spans="1:9" ht="15" thickBot="1">
       <c r="A230" s="4" t="s">
         <v>340</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="4" t="s">
         <v>340</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="4" t="s">
         <v>340</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="4" t="s">
         <v>340</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="4" t="s">
         <v>340</v>
       </c>
@@ -10628,7 +10627,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="4" t="s">
         <v>340</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="4" t="s">
         <v>340</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" s="4" t="s">
         <v>340</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" s="4" t="s">
         <v>340</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="4" t="s">
         <v>340</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="4" t="s">
         <v>340</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="4" t="s">
         <v>340</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="4" t="s">
         <v>340</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="4" t="s">
         <v>340</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="4" t="s">
         <v>340</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" s="4" t="s">
         <v>340</v>
       </c>
@@ -10958,7 +10957,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="4" t="s">
         <v>340</v>
       </c>
@@ -10988,7 +10987,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="4" t="s">
         <v>340</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="248" spans="1:9" s="39" customFormat="1">
       <c r="A248" s="46" t="s">
         <v>120</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="249" spans="1:9" s="39" customFormat="1">
       <c r="A249" s="46" t="s">
         <v>120</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="250" spans="1:9" s="39" customFormat="1">
       <c r="A250" s="46" t="s">
         <v>120</v>
       </c>
@@ -11105,7 +11104,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/put</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="251" spans="1:9" s="39" customFormat="1">
       <c r="A251" s="46" t="s">
         <v>120</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="252" spans="1:9" s="39" customFormat="1">
       <c r="A252" s="46" t="s">
         <v>120</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="253" spans="1:9" s="39" customFormat="1">
       <c r="A253" s="46" t="s">
         <v>120</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" ht="28" hidden="1">
+    <row r="254" spans="1:9" s="39" customFormat="1" ht="28">
       <c r="A254" s="46" t="s">
         <v>120</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="255" spans="1:9" s="39" customFormat="1">
       <c r="A255" s="46" t="s">
         <v>120</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="256" spans="1:9" s="39" customFormat="1">
       <c r="A256" s="46" t="s">
         <v>120</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="257" spans="1:9" s="39" customFormat="1">
       <c r="A257" s="46" t="s">
         <v>120</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>771</v>
       </c>
       <c r="I278" t="str">
-        <f t="shared" ref="I278:I326" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
+        <f t="shared" ref="I278:I334" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RPMP</v>
       </c>
     </row>
@@ -13178,7 +13177,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HDPE</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>442</v>
       </c>
@@ -13203,8 +13202,12 @@
       <c r="H327" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" hidden="1">
+      <c r="I327" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/31</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>442</v>
       </c>
@@ -13229,8 +13232,12 @@
       <c r="H328" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" hidden="1">
+      <c r="I328" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>442</v>
       </c>
@@ -13255,8 +13262,12 @@
       <c r="H329" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" hidden="1">
+      <c r="I329" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>442</v>
       </c>
@@ -13281,8 +13292,12 @@
       <c r="H330" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" hidden="1">
+      <c r="I330" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>442</v>
       </c>
@@ -13307,8 +13322,12 @@
       <c r="H331" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1">
+      <c r="I331" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/35</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>442</v>
       </c>
@@ -13333,8 +13352,12 @@
       <c r="H332" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" hidden="1">
+      <c r="I332" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/36</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>442</v>
       </c>
@@ -13358,6 +13381,10 @@
       </c>
       <c r="H333" t="s">
         <v>704</v>
+      </c>
+      <c r="I333" t="str">
+        <f t="shared" si="4"/>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/37</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13386,7 +13413,7 @@
         <v>438</v>
       </c>
       <c r="I334" t="str">
-        <f t="shared" ref="I334:I363" si="5">IF(B334="inspire",INSPIRE,IMKL) &amp; H334 &amp; "/" &amp; E334</f>
+        <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/waterloop</v>
       </c>
     </row>
@@ -13416,7 +13443,7 @@
         <v>438</v>
       </c>
       <c r="I335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I334:I363" si="5">IF(B335="inspire",INSPIRE,IMKL) &amp; H335 &amp; "/" &amp; E335</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/rijbaan lokale weg</v>
       </c>
     </row>
@@ -14261,13 +14288,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I363">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="algemeen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="B2:G62">
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>

--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="791">
   <si>
     <t>attribuut</t>
   </si>
@@ -2012,9 +2012,6 @@
     <t xml:space="preserve">Chlorinated polyvinyl chloride (CPVC). </t>
   </si>
   <si>
-    <t xml:space="preserve"> FRP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fibre reinforced plastic (FRP). </t>
   </si>
   <si>
@@ -2111,9 +2108,6 @@
     <t>astbestcement</t>
   </si>
   <si>
-    <t xml:space="preserve">BT </t>
-  </si>
-  <si>
     <t>beton</t>
   </si>
   <si>
@@ -2160,9 +2154,6 @@
   </si>
   <si>
     <t xml:space="preserve"> lood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE </t>
   </si>
   <si>
     <t>polyetheen</t>
@@ -2644,6 +2635,21 @@
   </si>
   <si>
     <t>http://www.geonovum.nl/imkl2015/1.0/id/</t>
+  </si>
+  <si>
+    <t>FRP</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>rijbaanLokaleWeg</t>
+  </si>
+  <si>
+    <t>telecomKast</t>
+  </si>
+  <si>
+    <t>CAIkast</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3597,7 @@
   <sheetData>
     <row r="22" spans="2:3">
       <c r="B22" s="29" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C22" t="s">
         <v>254</v>
@@ -3625,9 +3631,9 @@
   <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I326" sqref="I326:I334"/>
+      <selection pane="bottomLeft" activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3684,13 +3690,13 @@
         <v>327</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>786</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>233</v>
@@ -3714,13 +3720,13 @@
         <v>327</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>787</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>233</v>
@@ -3744,13 +3750,13 @@
         <v>327</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>233</v>
@@ -3771,7 +3777,7 @@
         <v>364</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>91</v>
@@ -3801,7 +3807,7 @@
         <v>364</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>92</v>
@@ -3831,7 +3837,7 @@
         <v>364</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>93</v>
@@ -3861,7 +3867,7 @@
         <v>364</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>94</v>
@@ -3891,7 +3897,7 @@
         <v>364</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>338</v>
@@ -3921,7 +3927,7 @@
         <v>364</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>357</v>
@@ -3951,7 +3957,7 @@
         <v>364</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>358</v>
@@ -3981,16 +3987,16 @@
         <v>364</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>359</v>
@@ -4110,7 +4116,7 @@
         <v>462</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>236</v>
@@ -4140,7 +4146,7 @@
         <v>463</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>236</v>
@@ -4170,7 +4176,7 @@
         <v>464</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>236</v>
@@ -4200,7 +4206,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>236</v>
@@ -4290,7 +4296,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>237</v>
@@ -4314,13 +4320,13 @@
         <v>326</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" t="str">
@@ -4342,13 +4348,13 @@
         <v>326</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>237</v>
@@ -4378,7 +4384,7 @@
         <v>122</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>237</v>
@@ -4459,19 +4465,19 @@
         <v>364</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E28" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>775</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>778</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>777</v>
-      </c>
       <c r="H28" s="51" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -4489,19 +4495,19 @@
         <v>364</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>397</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -4519,19 +4525,19 @@
         <v>364</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>396</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -4549,7 +4555,7 @@
         <v>364</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>84</v>
@@ -4558,7 +4564,7 @@
         <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>238</v>
@@ -4579,7 +4585,7 @@
         <v>364</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>85</v>
@@ -4588,7 +4594,7 @@
         <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>238</v>
@@ -4609,7 +4615,7 @@
         <v>364</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>86</v>
@@ -4618,7 +4624,7 @@
         <v>86</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>238</v>
@@ -5089,10 +5095,10 @@
         <v>330</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G49" s="50" t="s">
         <v>455</v>
@@ -5618,13 +5624,13 @@
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E67" t="s">
         <v>385</v>
@@ -5643,13 +5649,13 @@
     <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E68" t="s">
         <v>386</v>
@@ -5668,13 +5674,13 @@
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E69" t="s">
         <v>387</v>
@@ -5693,13 +5699,13 @@
     <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E70" t="s">
         <v>388</v>
@@ -5726,7 +5732,7 @@
         <v>364</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E71" t="s">
         <v>370</v>
@@ -5756,7 +5762,7 @@
         <v>364</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E72" t="s">
         <v>371</v>
@@ -5786,7 +5792,7 @@
         <v>364</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E73" t="s">
         <v>372</v>
@@ -5816,7 +5822,7 @@
         <v>364</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E74" t="s">
         <v>373</v>
@@ -5846,7 +5852,7 @@
         <v>364</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E75" t="s">
         <v>374</v>
@@ -5876,7 +5882,7 @@
         <v>364</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E76" t="s">
         <v>122</v>
@@ -5903,19 +5909,19 @@
         <v>364</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E77" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="0"/>
@@ -5933,19 +5939,19 @@
         <v>364</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="F78" s="18" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>395</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="0"/>
@@ -6596,13 +6602,13 @@
         <v>320</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F100" s="40" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G100" s="40" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H100" s="42" t="s">
         <v>244</v>
@@ -6686,13 +6692,13 @@
         <v>320</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F103" s="40" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H103" s="42" t="s">
         <v>244</v>
@@ -7766,7 +7772,7 @@
         <v>299</v>
       </c>
       <c r="F139" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -7796,7 +7802,7 @@
         <v>300</v>
       </c>
       <c r="F140" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G140" t="s">
         <v>36</v>
@@ -10035,10 +10041,10 @@
         <v>193</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>398</v>
@@ -10050,7 +10056,7 @@
         <v>398</v>
       </c>
       <c r="H215" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I215" t="str">
         <f t="shared" si="3"/>
@@ -10065,10 +10071,10 @@
         <v>193</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E216" s="24" t="s">
         <v>399</v>
@@ -10080,7 +10086,7 @@
         <v>399</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I216" t="str">
         <f t="shared" si="3"/>
@@ -10095,10 +10101,10 @@
         <v>193</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E217" s="24" t="s">
         <v>400</v>
@@ -10110,7 +10116,7 @@
         <v>400</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I217" t="str">
         <f t="shared" si="3"/>
@@ -10125,10 +10131,10 @@
         <v>193</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E218" s="24" t="s">
         <v>401</v>
@@ -10140,7 +10146,7 @@
         <v>474</v>
       </c>
       <c r="H218" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I218" t="str">
         <f t="shared" si="3"/>
@@ -10155,10 +10161,10 @@
         <v>193</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E219" s="24" t="s">
         <v>402</v>
@@ -10170,7 +10176,7 @@
         <v>402</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I219" t="str">
         <f t="shared" si="3"/>
@@ -10185,10 +10191,10 @@
         <v>193</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E220" s="24" t="s">
         <v>403</v>
@@ -10200,7 +10206,7 @@
         <v>403</v>
       </c>
       <c r="H220" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="3"/>
@@ -10215,10 +10221,10 @@
         <v>193</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E221" s="24" t="s">
         <v>404</v>
@@ -10230,7 +10236,7 @@
         <v>404</v>
       </c>
       <c r="H221" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="3"/>
@@ -10245,10 +10251,10 @@
         <v>193</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E222" s="24" t="s">
         <v>405</v>
@@ -10260,7 +10266,7 @@
         <v>405</v>
       </c>
       <c r="H222" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I222" t="str">
         <f t="shared" si="3"/>
@@ -10275,10 +10281,10 @@
         <v>193</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E223" s="24" t="s">
         <v>406</v>
@@ -10290,7 +10296,7 @@
         <v>406</v>
       </c>
       <c r="H223" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I223" t="str">
         <f t="shared" si="3"/>
@@ -10305,10 +10311,10 @@
         <v>193</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E224" s="24" t="s">
         <v>407</v>
@@ -10320,7 +10326,7 @@
         <v>407</v>
       </c>
       <c r="H224" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="3"/>
@@ -10335,10 +10341,10 @@
         <v>193</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E225" s="24" t="s">
         <v>316</v>
@@ -10350,7 +10356,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="3"/>
@@ -10365,10 +10371,10 @@
         <v>193</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E226" s="24" t="s">
         <v>408</v>
@@ -10380,7 +10386,7 @@
         <v>408</v>
       </c>
       <c r="H226" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I226" t="str">
         <f t="shared" si="3"/>
@@ -11325,7 +11331,7 @@
         <v>560</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E258" s="18" t="s">
         <v>561</v>
@@ -11334,7 +11340,7 @@
         <v>562</v>
       </c>
       <c r="H258" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I258" t="str">
         <f t="shared" si="3"/>
@@ -11352,7 +11358,7 @@
         <v>560</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>563</v>
@@ -11361,7 +11367,7 @@
         <v>564</v>
       </c>
       <c r="H259" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I259" t="str">
         <f t="shared" si="3"/>
@@ -11379,7 +11385,7 @@
         <v>560</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>565</v>
@@ -11388,7 +11394,7 @@
         <v>566</v>
       </c>
       <c r="H260" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I260" t="str">
         <f t="shared" si="3"/>
@@ -11406,7 +11412,7 @@
         <v>560</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>567</v>
@@ -11415,7 +11421,7 @@
         <v>568</v>
       </c>
       <c r="H261" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I261" t="str">
         <f t="shared" si="3"/>
@@ -11433,7 +11439,7 @@
         <v>560</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>569</v>
@@ -11442,7 +11448,7 @@
         <v>570</v>
       </c>
       <c r="H262" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I262" t="str">
         <f t="shared" si="3"/>
@@ -11460,7 +11466,7 @@
         <v>560</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>571</v>
@@ -11469,7 +11475,7 @@
         <v>572</v>
       </c>
       <c r="H263" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I263" t="str">
         <f t="shared" si="3"/>
@@ -11487,7 +11493,7 @@
         <v>560</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>573</v>
@@ -11496,7 +11502,7 @@
         <v>574</v>
       </c>
       <c r="H264" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I264" t="str">
         <f t="shared" si="3"/>
@@ -11514,7 +11520,7 @@
         <v>560</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>138</v>
@@ -11523,7 +11529,7 @@
         <v>575</v>
       </c>
       <c r="H265" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="3"/>
@@ -11541,7 +11547,7 @@
         <v>560</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>576</v>
@@ -11550,7 +11556,7 @@
         <v>577</v>
       </c>
       <c r="H266" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="3"/>
@@ -11568,20 +11574,20 @@
         <v>560</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E267" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="G267" t="s">
         <v>578</v>
       </c>
-      <c r="G267" t="s">
-        <v>579</v>
-      </c>
       <c r="H267" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I267" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ FRP</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/FRP</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -11595,16 +11601,16 @@
         <v>560</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E268" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="G268" t="s">
         <v>580</v>
       </c>
-      <c r="G268" t="s">
-        <v>581</v>
-      </c>
       <c r="H268" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="3"/>
@@ -11622,16 +11628,16 @@
         <v>560</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E269" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G269" t="s">
         <v>582</v>
       </c>
-      <c r="G269" t="s">
-        <v>583</v>
-      </c>
       <c r="H269" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I269" t="str">
         <f t="shared" si="3"/>
@@ -11649,16 +11655,16 @@
         <v>560</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E270" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="G270" t="s">
         <v>584</v>
       </c>
-      <c r="G270" t="s">
-        <v>585</v>
-      </c>
       <c r="H270" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I270" t="str">
         <f t="shared" si="3"/>
@@ -11676,16 +11682,16 @@
         <v>560</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E271" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G271" t="s">
         <v>586</v>
       </c>
-      <c r="G271" t="s">
-        <v>587</v>
-      </c>
       <c r="H271" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="3"/>
@@ -11703,16 +11709,16 @@
         <v>560</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E272" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G272" t="s">
         <v>588</v>
       </c>
-      <c r="G272" t="s">
-        <v>589</v>
-      </c>
       <c r="H272" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I272" t="str">
         <f t="shared" si="3"/>
@@ -11730,16 +11736,16 @@
         <v>560</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E273" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="G273" t="s">
         <v>590</v>
       </c>
-      <c r="G273" t="s">
-        <v>591</v>
-      </c>
       <c r="H273" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I273" t="str">
         <f t="shared" si="3"/>
@@ -11757,16 +11763,16 @@
         <v>560</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E274" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G274" t="s">
         <v>592</v>
       </c>
-      <c r="G274" t="s">
-        <v>593</v>
-      </c>
       <c r="H274" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I274" t="str">
         <f t="shared" si="3"/>
@@ -11784,16 +11790,16 @@
         <v>560</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E275" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G275" t="s">
         <v>594</v>
       </c>
-      <c r="G275" t="s">
-        <v>595</v>
-      </c>
       <c r="H275" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I275" t="str">
         <f t="shared" si="3"/>
@@ -11811,16 +11817,16 @@
         <v>560</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E276" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="G276" t="s">
         <v>596</v>
       </c>
-      <c r="G276" t="s">
-        <v>597</v>
-      </c>
       <c r="H276" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="3"/>
@@ -11838,16 +11844,16 @@
         <v>560</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E277" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G277" t="s">
         <v>598</v>
       </c>
-      <c r="G277" t="s">
-        <v>599</v>
-      </c>
       <c r="H277" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I277" t="str">
         <f t="shared" si="3"/>
@@ -11865,16 +11871,16 @@
         <v>560</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E278" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G278" t="s">
         <v>600</v>
       </c>
-      <c r="G278" t="s">
-        <v>601</v>
-      </c>
       <c r="H278" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I278" t="str">
         <f t="shared" ref="I278:I334" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
@@ -11892,16 +11898,16 @@
         <v>560</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E279" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G279" t="s">
         <v>602</v>
       </c>
-      <c r="G279" t="s">
-        <v>603</v>
-      </c>
       <c r="H279" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I279" t="str">
         <f t="shared" si="4"/>
@@ -11919,16 +11925,16 @@
         <v>560</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E280" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G280" t="s">
         <v>604</v>
       </c>
-      <c r="G280" t="s">
-        <v>605</v>
-      </c>
       <c r="H280" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="4"/>
@@ -11946,16 +11952,16 @@
         <v>560</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E281" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="G281" t="s">
         <v>606</v>
       </c>
-      <c r="G281" t="s">
-        <v>607</v>
-      </c>
       <c r="H281" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="4"/>
@@ -11967,22 +11973,22 @@
         <v>338</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C282" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E282" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="G282" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="G282" s="34" t="s">
-        <v>610</v>
-      </c>
       <c r="H282" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="4"/>
@@ -11994,26 +12000,26 @@
         <v>338</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C283" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>611</v>
+        <v>787</v>
       </c>
       <c r="G283" s="34" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H283" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I283" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/BT </v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/BT</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -12021,22 +12027,22 @@
         <v>338</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C284" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E284" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G284" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="G284" s="34" t="s">
-        <v>615</v>
-      </c>
       <c r="H284" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I284" t="str">
         <f t="shared" si="4"/>
@@ -12048,22 +12054,22 @@
         <v>338</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G285" s="34" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H285" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I285" t="str">
         <f t="shared" si="4"/>
@@ -12075,22 +12081,22 @@
         <v>338</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D286" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G286" s="34" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H286" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I286" t="str">
         <f t="shared" si="4"/>
@@ -12102,22 +12108,22 @@
         <v>338</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G287" s="34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H287" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I287" t="str">
         <f t="shared" si="4"/>
@@ -12129,22 +12135,22 @@
         <v>338</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G288" s="34" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H288" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I288" t="str">
         <f t="shared" si="4"/>
@@ -12156,22 +12162,22 @@
         <v>338</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G289" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H289" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I289" t="str">
         <f t="shared" si="4"/>
@@ -12183,22 +12189,22 @@
         <v>338</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C290" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G290" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H290" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I290" t="str">
         <f t="shared" si="4"/>
@@ -12210,22 +12216,22 @@
         <v>338</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C291" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G291" s="34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H291" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I291" t="str">
         <f t="shared" si="4"/>
@@ -12237,26 +12243,26 @@
         <v>338</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C292" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D292" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="G292" s="34" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H292" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I292" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE </v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -12264,22 +12270,22 @@
         <v>338</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D293" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G293" s="34" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H293" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I293" t="str">
         <f t="shared" si="4"/>
@@ -12291,22 +12297,22 @@
         <v>338</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G294" s="34" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H294" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="4"/>
@@ -12318,22 +12324,22 @@
         <v>338</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G295" s="34" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H295" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I295" t="str">
         <f t="shared" si="4"/>
@@ -12345,22 +12351,22 @@
         <v>338</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G296" s="34" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H296" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I296" t="str">
         <f t="shared" si="4"/>
@@ -12372,22 +12378,22 @@
         <v>338</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G297" s="34" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H297" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I297" t="str">
         <f t="shared" si="4"/>
@@ -12399,22 +12405,22 @@
         <v>338</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G298" s="34" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H298" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I298" t="str">
         <f t="shared" si="4"/>
@@ -12426,22 +12432,22 @@
         <v>338</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D299" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G299" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H299" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I299" t="str">
         <f t="shared" si="4"/>
@@ -12453,22 +12459,22 @@
         <v>338</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G300" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H300" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I300" t="str">
         <f t="shared" si="4"/>
@@ -12480,22 +12486,22 @@
         <v>338</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D301" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G301" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H301" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I301" t="str">
         <f t="shared" si="4"/>
@@ -12507,22 +12513,22 @@
         <v>338</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G302" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H302" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I302" t="str">
         <f t="shared" si="4"/>
@@ -12534,22 +12540,22 @@
         <v>338</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G303" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H303" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I303" t="str">
         <f t="shared" si="4"/>
@@ -12561,22 +12567,22 @@
         <v>338</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D304" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G304" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H304" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I304" t="str">
         <f t="shared" si="4"/>
@@ -12588,22 +12594,22 @@
         <v>338</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G305" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H305" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I305" t="str">
         <f t="shared" si="4"/>
@@ -12615,22 +12621,22 @@
         <v>338</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D306" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G306" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H306" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I306" t="str">
         <f t="shared" si="4"/>
@@ -12642,22 +12648,22 @@
         <v>338</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G307" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H307" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I307" t="str">
         <f t="shared" si="4"/>
@@ -12669,22 +12675,22 @@
         <v>338</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G308" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H308" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I308" t="str">
         <f t="shared" si="4"/>
@@ -12696,22 +12702,22 @@
         <v>338</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G309" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H309" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I309" t="str">
         <f t="shared" si="4"/>
@@ -12723,22 +12729,22 @@
         <v>338</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G310" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H310" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I310" t="str">
         <f t="shared" si="4"/>
@@ -12750,22 +12756,22 @@
         <v>338</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D311" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G311" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H311" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I311" t="str">
         <f t="shared" si="4"/>
@@ -12777,22 +12783,22 @@
         <v>338</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C312" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D312" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G312" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H312" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I312" t="str">
         <f t="shared" si="4"/>
@@ -12804,22 +12810,22 @@
         <v>338</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C313" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G313" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H313" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I313" t="str">
         <f t="shared" si="4"/>
@@ -12831,22 +12837,22 @@
         <v>338</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C314" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G314" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H314" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I314" t="str">
         <f t="shared" si="4"/>
@@ -12858,22 +12864,22 @@
         <v>338</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G315" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H315" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I315" t="str">
         <f t="shared" si="4"/>
@@ -12885,22 +12891,22 @@
         <v>338</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C316" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G316" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H316" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I316" t="str">
         <f t="shared" si="4"/>
@@ -12912,22 +12918,22 @@
         <v>338</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C317" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D317" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G317" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H317" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I317" t="str">
         <f t="shared" si="4"/>
@@ -12939,22 +12945,22 @@
         <v>338</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C318" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G318" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H318" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I318" t="str">
         <f t="shared" si="4"/>
@@ -12966,22 +12972,22 @@
         <v>338</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C319" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G319" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H319" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I319" t="str">
         <f t="shared" si="4"/>
@@ -12993,22 +12999,22 @@
         <v>338</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C320" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D320" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G320" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H320" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I320" t="str">
         <f t="shared" si="4"/>
@@ -13020,22 +13026,22 @@
         <v>338</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C321" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G321" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H321" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I321" t="str">
         <f t="shared" si="4"/>
@@ -13047,22 +13053,22 @@
         <v>338</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C322" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G322" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H322" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I322" t="str">
         <f t="shared" si="4"/>
@@ -13074,22 +13080,22 @@
         <v>338</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C323" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G323" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H323" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I323" t="str">
         <f t="shared" si="4"/>
@@ -13101,22 +13107,22 @@
         <v>338</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C324" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G324" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H324" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I324" t="str">
         <f t="shared" si="4"/>
@@ -13128,22 +13134,22 @@
         <v>338</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C325" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G325" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H325" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I325" t="str">
         <f t="shared" si="4"/>
@@ -13155,22 +13161,22 @@
         <v>338</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>560</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G326" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H326" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I326" t="str">
         <f t="shared" si="4"/>
@@ -13182,25 +13188,25 @@
         <v>442</v>
       </c>
       <c r="B327" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C327" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D327" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E327" s="36">
         <v>31</v>
       </c>
       <c r="F327" s="35" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G327" s="35" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H327" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I327" t="str">
         <f t="shared" si="4"/>
@@ -13212,13 +13218,13 @@
         <v>442</v>
       </c>
       <c r="B328" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C328" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D328" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E328" s="37">
         <v>32</v>
@@ -13230,7 +13236,7 @@
         <v>366</v>
       </c>
       <c r="H328" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I328" t="str">
         <f t="shared" si="4"/>
@@ -13242,13 +13248,13 @@
         <v>442</v>
       </c>
       <c r="B329" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C329" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D329" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E329" s="37">
         <v>33</v>
@@ -13260,7 +13266,7 @@
         <v>367</v>
       </c>
       <c r="H329" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I329" t="str">
         <f t="shared" si="4"/>
@@ -13272,13 +13278,13 @@
         <v>442</v>
       </c>
       <c r="B330" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C330" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D330" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E330" s="37">
         <v>34</v>
@@ -13290,7 +13296,7 @@
         <v>368</v>
       </c>
       <c r="H330" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I330" t="str">
         <f t="shared" si="4"/>
@@ -13302,13 +13308,13 @@
         <v>442</v>
       </c>
       <c r="B331" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C331" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D331" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E331" s="37">
         <v>35</v>
@@ -13320,7 +13326,7 @@
         <v>369</v>
       </c>
       <c r="H331" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I331" t="str">
         <f t="shared" si="4"/>
@@ -13332,13 +13338,13 @@
         <v>442</v>
       </c>
       <c r="B332" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D332" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E332" s="37">
         <v>36</v>
@@ -13350,7 +13356,7 @@
         <v>122</v>
       </c>
       <c r="H332" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I332" t="str">
         <f t="shared" si="4"/>
@@ -13362,25 +13368,25 @@
         <v>442</v>
       </c>
       <c r="B333" s="35" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D333" s="35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E333" s="37">
         <v>37</v>
       </c>
       <c r="F333" t="s">
+        <v>698</v>
+      </c>
+      <c r="G333" t="s">
+        <v>698</v>
+      </c>
+      <c r="H333" t="s">
         <v>701</v>
-      </c>
-      <c r="G333" t="s">
-        <v>701</v>
-      </c>
-      <c r="H333" t="s">
-        <v>704</v>
       </c>
       <c r="I333" t="str">
         <f t="shared" si="4"/>
@@ -13392,13 +13398,13 @@
         <v>338</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E334" t="s">
         <v>411</v>
@@ -13407,7 +13413,7 @@
         <v>411</v>
       </c>
       <c r="G334" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H334" s="9" t="s">
         <v>438</v>
@@ -13422,29 +13428,29 @@
         <v>338</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E335" t="s">
-        <v>412</v>
+        <v>788</v>
       </c>
       <c r="F335" t="s">
         <v>412</v>
       </c>
       <c r="G335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H335" s="9" t="s">
         <v>438</v>
       </c>
       <c r="I335" t="str">
-        <f t="shared" ref="I334:I363" si="5">IF(B335="inspire",INSPIRE,IMKL) &amp; H335 &amp; "/" &amp; E335</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/rijbaan lokale weg</v>
+        <f t="shared" ref="I335:I363" si="5">IF(B335="inspire",INSPIRE,IMKL) &amp; H335 &amp; "/" &amp; E335</f>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/rijbaanLokaleWeg</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13452,13 +13458,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E336" t="s">
         <v>413</v>
@@ -13467,7 +13473,7 @@
         <v>413</v>
       </c>
       <c r="G336" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H336" s="9" t="s">
         <v>438</v>
@@ -13482,13 +13488,13 @@
         <v>338</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E337" t="s">
         <v>414</v>
@@ -13497,7 +13503,7 @@
         <v>414</v>
       </c>
       <c r="G337" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H337" s="9" t="s">
         <v>438</v>
@@ -13512,13 +13518,13 @@
         <v>338</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E338" t="s">
         <v>415</v>
@@ -13527,7 +13533,7 @@
         <v>415</v>
       </c>
       <c r="G338" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H338" s="9" t="s">
         <v>438</v>
@@ -13542,13 +13548,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E339" t="s">
         <v>439</v>
@@ -13557,7 +13563,7 @@
         <v>416</v>
       </c>
       <c r="G339" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H339" s="9" t="s">
         <v>438</v>
@@ -13572,22 +13578,22 @@
         <v>338</v>
       </c>
       <c r="B340" s="41" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C340" s="41" t="s">
         <v>364</v>
       </c>
       <c r="D340" s="41" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E340" s="39" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F340" s="39" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G340" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H340" s="44" t="s">
         <v>438</v>
@@ -13602,13 +13608,13 @@
         <v>338</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E341" t="s">
         <v>417</v>
@@ -13617,7 +13623,7 @@
         <v>417</v>
       </c>
       <c r="G341" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H341" s="9" t="s">
         <v>438</v>
@@ -13632,13 +13638,13 @@
         <v>338</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E342" t="s">
         <v>418</v>
@@ -13647,7 +13653,7 @@
         <v>418</v>
       </c>
       <c r="G342" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H342" s="9" t="s">
         <v>438</v>
@@ -13662,13 +13668,13 @@
         <v>338</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E343" t="s">
         <v>419</v>
@@ -13677,7 +13683,7 @@
         <v>419</v>
       </c>
       <c r="G343" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H343" s="9" t="s">
         <v>438</v>
@@ -13692,13 +13698,13 @@
         <v>338</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E344" t="s">
         <v>420</v>
@@ -13707,7 +13713,7 @@
         <v>420</v>
       </c>
       <c r="G344" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H344" s="9" t="s">
         <v>438</v>
@@ -13722,13 +13728,13 @@
         <v>338</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E345" t="s">
         <v>421</v>
@@ -13737,7 +13743,7 @@
         <v>421</v>
       </c>
       <c r="G345" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H345" s="9" t="s">
         <v>438</v>
@@ -13752,13 +13758,13 @@
         <v>338</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E346" t="s">
         <v>422</v>
@@ -13767,7 +13773,7 @@
         <v>422</v>
       </c>
       <c r="G346" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H346" s="9" t="s">
         <v>438</v>
@@ -13782,13 +13788,13 @@
         <v>338</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D347" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E347" t="s">
         <v>423</v>
@@ -13797,7 +13803,7 @@
         <v>423</v>
       </c>
       <c r="G347" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H347" s="9" t="s">
         <v>438</v>
@@ -13812,13 +13818,13 @@
         <v>338</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E348" t="s">
         <v>424</v>
@@ -13827,7 +13833,7 @@
         <v>424</v>
       </c>
       <c r="G348" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H348" s="9" t="s">
         <v>438</v>
@@ -13842,13 +13848,13 @@
         <v>338</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E349" t="s">
         <v>425</v>
@@ -13857,7 +13863,7 @@
         <v>425</v>
       </c>
       <c r="G349" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H349" s="9" t="s">
         <v>438</v>
@@ -13872,13 +13878,13 @@
         <v>338</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E350" t="s">
         <v>187</v>
@@ -13887,7 +13893,7 @@
         <v>187</v>
       </c>
       <c r="G350" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H350" s="9" t="s">
         <v>438</v>
@@ -13902,13 +13908,13 @@
         <v>338</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E351" t="s">
         <v>426</v>
@@ -13917,7 +13923,7 @@
         <v>426</v>
       </c>
       <c r="G351" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H351" s="9" t="s">
         <v>438</v>
@@ -13932,13 +13938,13 @@
         <v>338</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E352" t="s">
         <v>427</v>
@@ -13947,7 +13953,7 @@
         <v>427</v>
       </c>
       <c r="G352" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H352" s="9" t="s">
         <v>438</v>
@@ -13962,29 +13968,29 @@
         <v>338</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E353" t="s">
-        <v>428</v>
+        <v>790</v>
       </c>
       <c r="F353" t="s">
         <v>428</v>
       </c>
       <c r="G353" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H353" s="9" t="s">
         <v>438</v>
       </c>
       <c r="I353" t="str">
         <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/CAI-kast</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/CAIkast</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13992,13 +13998,13 @@
         <v>338</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E354" t="s">
         <v>429</v>
@@ -14007,7 +14013,7 @@
         <v>429</v>
       </c>
       <c r="G354" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H354" s="9" t="s">
         <v>438</v>
@@ -14022,13 +14028,13 @@
         <v>338</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D355" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E355" t="s">
         <v>430</v>
@@ -14037,7 +14043,7 @@
         <v>430</v>
       </c>
       <c r="G355" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>438</v>
@@ -14052,29 +14058,29 @@
         <v>338</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D356" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E356" t="s">
-        <v>431</v>
+        <v>789</v>
       </c>
       <c r="F356" t="s">
         <v>431</v>
       </c>
       <c r="G356" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H356" s="9" t="s">
         <v>438</v>
       </c>
       <c r="I356" t="str">
         <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/telecom kast</v>
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/telecomKast</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -14082,13 +14088,13 @@
         <v>338</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D357" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E357" t="s">
         <v>432</v>
@@ -14097,7 +14103,7 @@
         <v>432</v>
       </c>
       <c r="G357" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>438</v>
@@ -14112,22 +14118,22 @@
         <v>338</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D358" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E358" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F358" t="s">
         <v>433</v>
       </c>
       <c r="G358" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H358" s="9" t="s">
         <v>438</v>
@@ -14142,13 +14148,13 @@
         <v>338</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D359" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E359" t="s">
         <v>434</v>
@@ -14157,7 +14163,7 @@
         <v>434</v>
       </c>
       <c r="G359" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H359" s="9" t="s">
         <v>438</v>
@@ -14172,13 +14178,13 @@
         <v>338</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D360" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E360" t="s">
         <v>435</v>
@@ -14187,7 +14193,7 @@
         <v>435</v>
       </c>
       <c r="G360" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H360" s="9" t="s">
         <v>438</v>
@@ -14202,13 +14208,13 @@
         <v>338</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D361" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E361" t="s">
         <v>436</v>
@@ -14217,7 +14223,7 @@
         <v>436</v>
       </c>
       <c r="G361" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H361" s="9" t="s">
         <v>438</v>
@@ -14232,13 +14238,13 @@
         <v>338</v>
       </c>
       <c r="B362" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D362" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E362" t="s">
         <v>440</v>
@@ -14247,7 +14253,7 @@
         <v>437</v>
       </c>
       <c r="G362" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H362" s="9" t="s">
         <v>438</v>
@@ -14262,13 +14268,13 @@
         <v>338</v>
       </c>
       <c r="B363" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D363" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E363" t="s">
         <v>189</v>
@@ -14277,7 +14283,7 @@
         <v>189</v>
       </c>
       <c r="G363" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H363" s="9" t="s">
         <v>438</v>

--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
     <definedName name="result" localSheetId="5">Sheet1!$A$1:$D$63</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="818">
   <si>
     <t>attribuut</t>
   </si>
@@ -2650,6 +2650,87 @@
   </si>
   <si>
     <t>CAIkast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeWater_waterloop</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#FunctieWeg_rijbaan_autosnelweg</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#FunctieWeg_fietspad</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeWaterPlus_sloot</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#FysiekVoorkomenOnbegroeidTerrein_erf</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeOverigBouwwerk_overkapping</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeScheiding_hek</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeScheidingPlus_draadraster</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeScheidingPlus_faunaraster</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeScheiding_muur</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKunstwerk_hoogspanningsmast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKunstwerk_steiger</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKunstwerk_stuw</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKunstwerk_gemaal</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeOverbrugging_viaduct</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeOverbrugging_brug</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_CAI_kast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_elektrakast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_gaskast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_telecom_kast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_rioolkast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypeKastPlus_openbare_verlichtingkast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypePaalPlus_portaal</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypePaalPlus_lichtmast</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypePaalPlus_hectometerpaal</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypePutPlus_inspectie_rioolput</t>
+  </si>
+  <si>
+    <t>http://www.geostandaarden.nl/imgeo/def/2.1#TypePutPlus_kolk</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2958,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2976,6 +3057,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3590,12 +3672,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>785</v>
       </c>
@@ -3603,7 +3685,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>255</v>
       </c>
@@ -3630,24 +3712,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E367" sqref="E367"/>
+      <selection pane="bottomLeft" activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>337</v>
       </c>
@@ -3676,7 +3759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>338</v>
       </c>
@@ -3706,7 +3789,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijlpunt</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>338</v>
       </c>
@@ -3736,7 +3819,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijn</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>338</v>
       </c>
@@ -3766,7 +3849,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatielabel</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>338</v>
       </c>
@@ -3796,7 +3879,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>338</v>
       </c>
@@ -3826,7 +3909,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>338</v>
       </c>
@@ -3856,7 +3939,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>338</v>
       </c>
@@ -3886,7 +3969,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>338</v>
       </c>
@@ -3916,7 +3999,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/algemeen</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>338</v>
       </c>
@@ -3946,7 +4029,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/eisVoorzorgsmaatregel</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>338</v>
       </c>
@@ -3976,7 +4059,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/nietBetrokken</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>338</v>
       </c>
@@ -4006,7 +4089,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/verzoekTotContact</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>338</v>
       </c>
@@ -4036,7 +4119,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>338</v>
       </c>
@@ -4066,7 +4149,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>338</v>
       </c>
@@ -4096,7 +4179,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>338</v>
       </c>
@@ -4126,7 +4209,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>338</v>
       </c>
@@ -4156,7 +4239,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>338</v>
       </c>
@@ -4186,7 +4269,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>338</v>
       </c>
@@ -4216,7 +4299,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>338</v>
       </c>
@@ -4246,7 +4329,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/bovenkant</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>338</v>
       </c>
@@ -4276,7 +4359,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/binnenonderkantBuis</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>338</v>
       </c>
@@ -4306,7 +4389,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/aansluiting</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>338</v>
       </c>
@@ -4334,7 +4417,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id//huisaansluiting</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>338</v>
       </c>
@@ -4364,7 +4447,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/profielschets</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>338</v>
       </c>
@@ -4394,7 +4477,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/overig</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>338</v>
       </c>
@@ -4424,7 +4507,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraTopografieTypeValue/eigen</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>338</v>
       </c>
@@ -4454,7 +4537,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraTopografieTypeValue/ontwerp</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="49" customFormat="1">
+    <row r="28" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>338</v>
       </c>
@@ -4484,7 +4567,7 @@
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/authority</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="49" customFormat="1">
+    <row r="29" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>338</v>
       </c>
@@ -4514,7 +4597,7 @@
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/operator</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="49" customFormat="1">
+    <row r="30" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>338</v>
       </c>
@@ -4544,7 +4627,7 @@
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/owner</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>338</v>
       </c>
@@ -4574,7 +4657,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>338</v>
       </c>
@@ -4604,7 +4687,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>338</v>
       </c>
@@ -4634,7 +4717,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>338</v>
       </c>
@@ -4664,7 +4747,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>338</v>
       </c>
@@ -4694,7 +4777,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>338</v>
       </c>
@@ -4724,7 +4807,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
@@ -4754,7 +4837,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>338</v>
       </c>
@@ -4784,7 +4867,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>338</v>
       </c>
@@ -4814,7 +4897,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="84" customHeight="1">
+    <row r="40" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>338</v>
       </c>
@@ -4841,7 +4924,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/datatransport</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1">
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>338</v>
       </c>
@@ -4871,7 +4954,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasLageDruk</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12" customHeight="1">
+    <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>338</v>
       </c>
@@ -4901,7 +4984,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasHogeDruk</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>338</v>
       </c>
@@ -4931,7 +5014,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/petrochemie</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>338</v>
       </c>
@@ -4961,7 +5044,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12" customHeight="1">
+    <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>338</v>
       </c>
@@ -4991,7 +5074,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/hoogspanning</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12" customHeight="1">
+    <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>338</v>
       </c>
@@ -5021,7 +5104,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/laagspanning</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+    <row r="47" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>338</v>
       </c>
@@ -5051,7 +5134,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/middenspanning</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>338</v>
       </c>
@@ -5081,7 +5164,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolVrijverval</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="52" customFormat="1">
+    <row r="49" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>338</v>
       </c>
@@ -5111,7 +5194,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolOnderOverOfOnderdruk</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>338</v>
       </c>
@@ -5141,7 +5224,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/warmte</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>338</v>
       </c>
@@ -5171,7 +5254,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/water</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>338</v>
       </c>
@@ -5201,7 +5284,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/wees</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>338</v>
       </c>
@@ -5231,7 +5314,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/overig</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>338</v>
       </c>
@@ -5261,7 +5344,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>338</v>
       </c>
@@ -5291,7 +5374,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>338</v>
       </c>
@@ -5321,7 +5404,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>338</v>
       </c>
@@ -5351,7 +5434,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>338</v>
       </c>
@@ -5381,7 +5464,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>338</v>
       </c>
@@ -5411,7 +5494,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>338</v>
       </c>
@@ -5441,7 +5524,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>338</v>
       </c>
@@ -5471,7 +5554,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>338</v>
       </c>
@@ -5501,7 +5584,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>338</v>
       </c>
@@ -5531,7 +5614,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>338</v>
       </c>
@@ -5561,7 +5644,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>338</v>
       </c>
@@ -5591,7 +5674,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>338</v>
       </c>
@@ -5621,7 +5704,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
         <v>700</v>
@@ -5646,7 +5729,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/brandbaar</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
         <v>700</v>
@@ -5671,7 +5754,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/explosief</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
         <v>700</v>
@@ -5696,7 +5779,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/toxisch</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
         <v>700</v>
@@ -5721,7 +5804,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/scherfwerking</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="42">
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>338</v>
       </c>
@@ -5751,7 +5834,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/toren</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>338</v>
       </c>
@@ -5781,7 +5864,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/mast</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="42">
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>338</v>
       </c>
@@ -5811,7 +5894,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/mangat</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>338</v>
       </c>
@@ -5841,7 +5924,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/kast</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>338</v>
       </c>
@@ -5871,7 +5954,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/technischGebouw</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>338</v>
       </c>
@@ -5898,7 +5981,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingenType/overig</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28">
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>338</v>
       </c>
@@ -5928,7 +6011,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="29" thickBot="1">
+    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>338</v>
       </c>
@@ -5958,7 +6041,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -5988,7 +6071,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>496</v>
       </c>
@@ -6018,7 +6101,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" thickBot="1">
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>496</v>
       </c>
@@ -6048,7 +6131,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" ht="15" thickBot="1">
+    <row r="82" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>496</v>
       </c>
@@ -6078,7 +6161,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="39" customFormat="1">
+    <row r="83" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>496</v>
       </c>
@@ -6108,7 +6191,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="39" customFormat="1">
+    <row r="84" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -6138,7 +6221,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="39" customFormat="1">
+    <row r="85" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>496</v>
       </c>
@@ -6168,7 +6251,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="39" customFormat="1">
+    <row r="86" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -6198,7 +6281,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="39" customFormat="1">
+    <row r="87" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -6228,7 +6311,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="39" customFormat="1">
+    <row r="88" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -6258,7 +6341,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="39" customFormat="1">
+    <row r="89" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>496</v>
       </c>
@@ -6288,7 +6371,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" thickBot="1">
+    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>496</v>
       </c>
@@ -6318,7 +6401,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="28">
+    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>496</v>
       </c>
@@ -6348,7 +6431,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>496</v>
       </c>
@@ -6378,7 +6461,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>496</v>
       </c>
@@ -6408,7 +6491,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>496</v>
       </c>
@@ -6438,7 +6521,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1">
+    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -6468,7 +6551,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>339</v>
       </c>
@@ -6498,7 +6581,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>339</v>
       </c>
@@ -6528,7 +6611,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>339</v>
       </c>
@@ -6558,7 +6641,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>339</v>
       </c>
@@ -6588,7 +6671,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="39" customFormat="1">
+    <row r="100" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>339</v>
       </c>
@@ -6618,7 +6701,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>339</v>
       </c>
@@ -6648,7 +6731,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>339</v>
       </c>
@@ -6678,7 +6761,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="39" customFormat="1">
+    <row r="103" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>339</v>
       </c>
@@ -6708,7 +6791,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>339</v>
       </c>
@@ -6738,7 +6821,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>339</v>
       </c>
@@ -6768,7 +6851,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" thickBot="1">
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>339</v>
       </c>
@@ -6795,7 +6878,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>339</v>
       </c>
@@ -6825,7 +6908,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/coaxial</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>339</v>
       </c>
@@ -6855,7 +6938,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" thickBot="1">
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -6885,7 +6968,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" thickBot="1">
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>442</v>
       </c>
@@ -6915,7 +6998,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" thickBot="1">
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>442</v>
       </c>
@@ -6945,7 +7028,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" thickBot="1">
+    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>442</v>
       </c>
@@ -6975,7 +7058,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1">
+    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>442</v>
       </c>
@@ -7005,7 +7088,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1">
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -7035,7 +7118,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" thickBot="1">
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>442</v>
       </c>
@@ -7065,7 +7148,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" thickBot="1">
+    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>442</v>
       </c>
@@ -7095,7 +7178,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" thickBot="1">
+    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>442</v>
       </c>
@@ -7125,7 +7208,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1">
+    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>442</v>
       </c>
@@ -7155,7 +7238,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1">
+    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>442</v>
       </c>
@@ -7185,7 +7268,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1">
+    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -7215,7 +7298,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1">
+    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>442</v>
       </c>
@@ -7245,7 +7328,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>442</v>
       </c>
@@ -7275,7 +7358,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" thickBot="1">
+    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>442</v>
       </c>
@@ -7305,7 +7388,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1">
+    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>442</v>
       </c>
@@ -7335,7 +7418,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" thickBot="1">
+    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>442</v>
       </c>
@@ -7365,7 +7448,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>442</v>
       </c>
@@ -7395,7 +7478,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>442</v>
       </c>
@@ -7425,7 +7508,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>442</v>
       </c>
@@ -7455,7 +7538,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>442</v>
       </c>
@@ -7485,7 +7568,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>442</v>
       </c>
@@ -7515,7 +7598,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>442</v>
       </c>
@@ -7545,7 +7628,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>442</v>
       </c>
@@ -7575,7 +7658,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>442</v>
       </c>
@@ -7605,7 +7688,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>442</v>
       </c>
@@ -7635,7 +7718,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>442</v>
       </c>
@@ -7665,7 +7748,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>442</v>
       </c>
@@ -7695,7 +7778,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>442</v>
       </c>
@@ -7725,7 +7808,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>442</v>
       </c>
@@ -7755,7 +7838,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>442</v>
       </c>
@@ -7785,7 +7868,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>442</v>
       </c>
@@ -7815,7 +7898,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>442</v>
       </c>
@@ -7845,7 +7928,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -7875,7 +7958,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -7905,7 +7988,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -7935,7 +8018,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>442</v>
       </c>
@@ -7965,7 +8048,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>442</v>
       </c>
@@ -7995,7 +8078,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -8025,7 +8108,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>442</v>
       </c>
@@ -8055,7 +8138,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>442</v>
       </c>
@@ -8085,7 +8168,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>442</v>
       </c>
@@ -8115,7 +8198,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -8145,7 +8228,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>442</v>
       </c>
@@ -8175,7 +8258,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -8205,7 +8288,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>442</v>
       </c>
@@ -8235,7 +8318,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>442</v>
       </c>
@@ -8265,7 +8348,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>442</v>
       </c>
@@ -8295,7 +8378,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>442</v>
       </c>
@@ -8325,7 +8408,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>442</v>
       </c>
@@ -8355,7 +8438,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>442</v>
       </c>
@@ -8385,7 +8468,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -8415,7 +8498,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>442</v>
       </c>
@@ -8445,7 +8528,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>442</v>
       </c>
@@ -8475,7 +8558,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>442</v>
       </c>
@@ -8505,7 +8588,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -8535,7 +8618,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -8565,7 +8648,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>442</v>
       </c>
@@ -8595,7 +8678,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>442</v>
       </c>
@@ -8625,7 +8708,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>442</v>
       </c>
@@ -8655,7 +8738,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>442</v>
       </c>
@@ -8685,7 +8768,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>442</v>
       </c>
@@ -8715,7 +8798,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>442</v>
       </c>
@@ -8745,7 +8828,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>442</v>
       </c>
@@ -8775,7 +8858,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>442</v>
       </c>
@@ -8805,7 +8888,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>442</v>
       </c>
@@ -8835,7 +8918,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>442</v>
       </c>
@@ -8865,7 +8948,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>442</v>
       </c>
@@ -8895,7 +8978,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>442</v>
       </c>
@@ -8925,7 +9008,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>442</v>
       </c>
@@ -8955,7 +9038,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>442</v>
       </c>
@@ -8985,7 +9068,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>442</v>
       </c>
@@ -9015,7 +9098,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>442</v>
       </c>
@@ -9045,7 +9128,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>442</v>
       </c>
@@ -9075,7 +9158,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>442</v>
       </c>
@@ -9105,7 +9188,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>442</v>
       </c>
@@ -9135,7 +9218,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" thickBot="1">
+    <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>442</v>
       </c>
@@ -9165,7 +9248,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" thickBot="1">
+    <row r="186" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>105</v>
       </c>
@@ -9195,7 +9278,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" thickBot="1">
+    <row r="187" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>105</v>
       </c>
@@ -9225,7 +9308,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" thickBot="1">
+    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>105</v>
       </c>
@@ -9255,7 +9338,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" thickBot="1">
+    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>105</v>
       </c>
@@ -9285,7 +9368,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" thickBot="1">
+    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>105</v>
       </c>
@@ -9315,7 +9398,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>105</v>
       </c>
@@ -9345,7 +9428,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>105</v>
       </c>
@@ -9375,7 +9458,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>105</v>
       </c>
@@ -9405,7 +9488,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>105</v>
       </c>
@@ -9435,7 +9518,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>105</v>
       </c>
@@ -9465,7 +9548,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>105</v>
       </c>
@@ -9495,7 +9578,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>105</v>
       </c>
@@ -9525,7 +9608,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>105</v>
       </c>
@@ -9555,7 +9638,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>105</v>
       </c>
@@ -9585,7 +9668,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>105</v>
       </c>
@@ -9615,7 +9698,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>105</v>
       </c>
@@ -9645,7 +9728,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>105</v>
       </c>
@@ -9675,7 +9758,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>105</v>
       </c>
@@ -9705,7 +9788,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>105</v>
       </c>
@@ -9735,7 +9818,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>105</v>
       </c>
@@ -9765,7 +9848,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>105</v>
       </c>
@@ -9795,7 +9878,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>105</v>
       </c>
@@ -9825,7 +9908,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" thickBot="1">
+    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>105</v>
       </c>
@@ -9855,7 +9938,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" thickBot="1">
+    <row r="209" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>105</v>
       </c>
@@ -9885,7 +9968,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>105</v>
       </c>
@@ -9915,7 +9998,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>105</v>
       </c>
@@ -9945,7 +10028,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>105</v>
       </c>
@@ -9975,7 +10058,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>105</v>
       </c>
@@ -10005,7 +10088,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" thickBot="1">
+    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>105</v>
       </c>
@@ -10033,7 +10116,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" thickBot="1">
+    <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>340</v>
       </c>
@@ -10063,7 +10146,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/aansluitleiding</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" thickBot="1">
+    <row r="216" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>340</v>
       </c>
@@ -10093,7 +10176,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergbezinkleiding</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" thickBot="1">
+    <row r="217" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>340</v>
       </c>
@@ -10123,7 +10206,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergingsleiding</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15" thickBot="1">
+    <row r="218" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>340</v>
       </c>
@@ -10153,7 +10236,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/gemengdRiool</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" thickBot="1">
+    <row r="219" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>340</v>
       </c>
@@ -10183,7 +10266,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/hemelwaterriool</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" thickBot="1">
+    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>340</v>
       </c>
@@ -10213,7 +10296,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/overstortleiding</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15" thickBot="1">
+    <row r="221" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>340</v>
       </c>
@@ -10243,7 +10326,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/stuwrioolleiding</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" thickBot="1">
+    <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>340</v>
       </c>
@@ -10273,7 +10356,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/doorlatendeleiding</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15" thickBot="1">
+    <row r="223" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>340</v>
       </c>
@@ -10303,7 +10386,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/vuilwaterriool</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" thickBot="1">
+    <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>340</v>
       </c>
@@ -10333,7 +10416,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/transportrioolleiding</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" thickBot="1">
+    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>340</v>
       </c>
@@ -10363,7 +10446,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/zinker</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" thickBot="1">
+    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>340</v>
       </c>
@@ -10393,7 +10476,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/openLeiding</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" thickBot="1">
+    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>340</v>
       </c>
@@ -10423,7 +10506,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" thickBot="1">
+    <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>340</v>
       </c>
@@ -10453,7 +10536,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" thickBot="1">
+    <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>340</v>
       </c>
@@ -10483,7 +10566,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" thickBot="1">
+    <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>340</v>
       </c>
@@ -10513,7 +10596,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>340</v>
       </c>
@@ -10543,7 +10626,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>340</v>
       </c>
@@ -10573,7 +10656,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>340</v>
       </c>
@@ -10603,7 +10686,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>340</v>
       </c>
@@ -10633,7 +10716,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>340</v>
       </c>
@@ -10663,7 +10746,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>340</v>
       </c>
@@ -10693,7 +10776,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>340</v>
       </c>
@@ -10723,7 +10806,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>340</v>
       </c>
@@ -10753,7 +10836,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>340</v>
       </c>
@@ -10783,7 +10866,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>340</v>
       </c>
@@ -10813,7 +10896,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>340</v>
       </c>
@@ -10843,7 +10926,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>340</v>
       </c>
@@ -10873,7 +10956,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>340</v>
       </c>
@@ -10903,7 +10986,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>340</v>
       </c>
@@ -10933,7 +11016,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>340</v>
       </c>
@@ -10963,7 +11046,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>340</v>
       </c>
@@ -10993,7 +11076,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>340</v>
       </c>
@@ -11020,7 +11103,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="39" customFormat="1">
+    <row r="248" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="46" t="s">
         <v>120</v>
       </c>
@@ -11050,7 +11133,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="39" customFormat="1">
+    <row r="249" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="46" t="s">
         <v>120</v>
       </c>
@@ -11080,7 +11163,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="39" customFormat="1">
+    <row r="250" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="46" t="s">
         <v>120</v>
       </c>
@@ -11110,7 +11193,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/put</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="39" customFormat="1">
+    <row r="251" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="46" t="s">
         <v>120</v>
       </c>
@@ -11140,7 +11223,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="39" customFormat="1">
+    <row r="252" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>120</v>
       </c>
@@ -11170,7 +11253,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="39" customFormat="1">
+    <row r="253" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="46" t="s">
         <v>120</v>
       </c>
@@ -11200,7 +11283,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" ht="28">
+    <row r="254" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="46" t="s">
         <v>120</v>
       </c>
@@ -11230,7 +11313,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="39" customFormat="1">
+    <row r="255" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="46" t="s">
         <v>120</v>
       </c>
@@ -11260,7 +11343,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="39" customFormat="1">
+    <row r="256" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="46" t="s">
         <v>120</v>
       </c>
@@ -11290,7 +11373,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="39" customFormat="1">
+    <row r="257" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="46" t="s">
         <v>120</v>
       </c>
@@ -11320,7 +11403,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>338</v>
       </c>
@@ -11347,7 +11430,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ABS</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>338</v>
       </c>
@@ -11374,7 +11457,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/asbestos</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>338</v>
       </c>
@@ -11401,7 +11484,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackIron</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>338</v>
       </c>
@@ -11428,7 +11511,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackSteel</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>338</v>
       </c>
@@ -11455,7 +11538,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/castIron</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>338</v>
       </c>
@@ -11482,7 +11565,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/clay</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>338</v>
       </c>
@@ -11509,7 +11592,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/compositeConcrete</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -11536,7 +11619,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/concrete</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>338</v>
       </c>
@@ -11563,7 +11646,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CPVC</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>338</v>
       </c>
@@ -11590,7 +11673,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/FRP</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>338</v>
       </c>
@@ -11617,7 +11700,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/galvanizedSteel</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>338</v>
       </c>
@@ -11644,7 +11727,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/masonry</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>338</v>
       </c>
@@ -11671,7 +11754,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/other</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>338</v>
       </c>
@@ -11698,7 +11781,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>338</v>
       </c>
@@ -11725,7 +11808,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>338</v>
       </c>
@@ -11752,7 +11835,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PEX</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -11779,7 +11862,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PP</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>338</v>
       </c>
@@ -11806,7 +11889,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/prestressedReinforcedConcrete</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>338</v>
       </c>
@@ -11833,7 +11916,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>338</v>
       </c>
@@ -11860,7 +11943,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/reinforcedConcrete</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>338</v>
       </c>
@@ -11887,7 +11970,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RPMP</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>338</v>
       </c>
@@ -11914,7 +11997,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/steel</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>338</v>
       </c>
@@ -11941,7 +12024,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/terracota</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>338</v>
       </c>
@@ -11968,7 +12051,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/wood</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>338</v>
       </c>
@@ -11995,7 +12078,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -12022,7 +12105,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/BT</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>338</v>
       </c>
@@ -12049,7 +12132,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CU</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>338</v>
       </c>
@@ -12076,7 +12159,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GIJ</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>338</v>
       </c>
@@ -12103,7 +12186,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVB</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>338</v>
       </c>
@@ -12130,7 +12213,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVK</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>338</v>
       </c>
@@ -12157,7 +12240,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HZ</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>338</v>
       </c>
@@ -12184,7 +12267,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/KP</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>338</v>
       </c>
@@ -12211,7 +12294,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/NGIJ</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>338</v>
       </c>
@@ -12238,7 +12321,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>338</v>
       </c>
@@ -12265,7 +12348,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -12292,7 +12375,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PoB</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>338</v>
       </c>
@@ -12319,7 +12402,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>338</v>
       </c>
@@ -12346,7 +12429,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVCBV</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>338</v>
       </c>
@@ -12373,7 +12456,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RVS</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>338</v>
       </c>
@@ -12400,7 +12483,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/SLA</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>338</v>
       </c>
@@ -12427,7 +12510,7 @@
         <v xml:space="preserve">http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ST </v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>338</v>
       </c>
@@ -12454,7 +12537,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AY</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>338</v>
       </c>
@@ -12481,7 +12564,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AZ</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>338</v>
       </c>
@@ -12508,7 +12591,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/Z</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>338</v>
       </c>
@@ -12535,7 +12618,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AB</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -12562,7 +12645,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>338</v>
       </c>
@@ -12589,7 +12672,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AD</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>338</v>
       </c>
@@ -12616,7 +12699,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AE</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>338</v>
       </c>
@@ -12643,7 +12726,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AA</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>338</v>
       </c>
@@ -12670,7 +12753,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AJ</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>338</v>
       </c>
@@ -12697,7 +12780,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AK</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>338</v>
       </c>
@@ -12724,7 +12807,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AL</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>338</v>
       </c>
@@ -12751,7 +12834,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AN</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>338</v>
       </c>
@@ -12778,7 +12861,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AO</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -12805,7 +12888,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AP</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>338</v>
       </c>
@@ -12832,7 +12915,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AQ</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>338</v>
       </c>
@@ -12859,7 +12942,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AR</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>338</v>
       </c>
@@ -12886,7 +12969,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AS</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>338</v>
       </c>
@@ -12913,7 +12996,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AT</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>338</v>
       </c>
@@ -12940,7 +13023,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AU</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>338</v>
       </c>
@@ -12967,7 +13050,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AV</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>338</v>
       </c>
@@ -12994,7 +13077,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AW</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -13021,7 +13104,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AF</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>338</v>
       </c>
@@ -13048,7 +13131,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AG</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>338</v>
       </c>
@@ -13075,7 +13158,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AH</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>338</v>
       </c>
@@ -13102,7 +13185,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AI</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>338</v>
       </c>
@@ -13129,7 +13212,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AX</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>338</v>
       </c>
@@ -13156,7 +13239,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AM</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>338</v>
       </c>
@@ -13183,7 +13266,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HDPE</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>442</v>
       </c>
@@ -13213,7 +13296,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/31</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>442</v>
       </c>
@@ -13243,7 +13326,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/32</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>442</v>
       </c>
@@ -13273,7 +13356,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/33</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>442</v>
       </c>
@@ -13303,7 +13386,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/34</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>442</v>
       </c>
@@ -13333,7 +13416,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/35</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>442</v>
       </c>
@@ -13363,7 +13446,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/36</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>442</v>
       </c>
@@ -13393,12 +13476,12 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/37</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B334" s="18" t="s">
-        <v>720</v>
+      <c r="B334" s="54" t="s">
+        <v>791</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>364</v>
@@ -13418,17 +13501,16 @@
       <c r="H334" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I334" t="str">
-        <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/waterloop</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="I334" s="54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B335" s="18" t="s">
-        <v>720</v>
+      <c r="B335" s="54" t="s">
+        <v>792</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>364</v>
@@ -13448,17 +13530,16 @@
       <c r="H335" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I335" t="str">
-        <f t="shared" ref="I335:I363" si="5">IF(B335="inspire",INSPIRE,IMKL) &amp; H335 &amp; "/" &amp; E335</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/rijbaanLokaleWeg</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="I335" s="54" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="18" t="s">
-        <v>720</v>
+      <c r="B336" s="54" t="s">
+        <v>793</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>364</v>
@@ -13478,17 +13559,16 @@
       <c r="H336" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I336" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/fietspad</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="I336" s="54" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B337" s="18" t="s">
-        <v>720</v>
+      <c r="B337" s="54" t="s">
+        <v>794</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>364</v>
@@ -13508,17 +13588,16 @@
       <c r="H337" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I337" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/sloot</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="I337" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="18" t="s">
-        <v>720</v>
+      <c r="B338" s="54" t="s">
+        <v>795</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>364</v>
@@ -13538,12 +13617,11 @@
       <c r="H338" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I338" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/erf</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="I338" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
@@ -13569,11 +13647,11 @@
         <v>438</v>
       </c>
       <c r="I339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I335:I363" si="5">IF(B339="inspire",INSPIRE,IMKL) &amp; H339 &amp; "/" &amp; E339</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/talud</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="39" customFormat="1">
+    <row r="340" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="43" t="s">
         <v>338</v>
       </c>
@@ -13603,12 +13681,12 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/BuildingPart</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B341" s="18" t="s">
-        <v>720</v>
+      <c r="B341" s="54" t="s">
+        <v>796</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>364</v>
@@ -13628,12 +13706,11 @@
       <c r="H341" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I341" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/overkapping</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="I341" s="54" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>338</v>
       </c>
@@ -13663,12 +13740,12 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/loods</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B343" s="18" t="s">
-        <v>720</v>
+      <c r="B343" s="54" t="s">
+        <v>797</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>364</v>
@@ -13688,17 +13765,16 @@
       <c r="H343" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I343" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/hek</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+      <c r="I343" s="54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B344" s="18" t="s">
-        <v>720</v>
+      <c r="B344" s="54" t="s">
+        <v>798</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>364</v>
@@ -13718,17 +13794,16 @@
       <c r="H344" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I344" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/draadraster</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
+      <c r="I344" s="54" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B345" s="18" t="s">
-        <v>720</v>
+      <c r="B345" s="54" t="s">
+        <v>799</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>364</v>
@@ -13748,17 +13823,16 @@
       <c r="H345" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I345" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/faunaraster</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+      <c r="I345" s="54" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B346" s="18" t="s">
-        <v>720</v>
+      <c r="B346" s="54" t="s">
+        <v>800</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>364</v>
@@ -13778,17 +13852,16 @@
       <c r="H346" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I346" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/muur</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
+      <c r="I346" s="54" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B347" s="18" t="s">
-        <v>720</v>
+      <c r="B347" s="54" t="s">
+        <v>801</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>364</v>
@@ -13808,17 +13881,16 @@
       <c r="H347" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I347" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/hoogspanningsmast</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
+      <c r="I347" s="54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B348" s="18" t="s">
-        <v>720</v>
+      <c r="B348" s="54" t="s">
+        <v>802</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>364</v>
@@ -13838,17 +13910,16 @@
       <c r="H348" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I348" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/steiger</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+      <c r="I348" s="54" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B349" s="18" t="s">
-        <v>720</v>
+      <c r="B349" s="54" t="s">
+        <v>803</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>364</v>
@@ -13868,17 +13939,16 @@
       <c r="H349" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I349" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/stuw</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
+      <c r="I349" s="54" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B350" s="18" t="s">
-        <v>720</v>
+      <c r="B350" s="54" t="s">
+        <v>804</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>364</v>
@@ -13898,17 +13968,16 @@
       <c r="H350" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I350" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/gemaal</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="I350" s="54" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B351" s="18" t="s">
-        <v>720</v>
+      <c r="B351" s="54" t="s">
+        <v>806</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>364</v>
@@ -13928,17 +13997,16 @@
       <c r="H351" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I351" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/brug</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="I351" s="54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B352" s="18" t="s">
-        <v>720</v>
+      <c r="B352" s="54" t="s">
+        <v>805</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>364</v>
@@ -13958,17 +14026,16 @@
       <c r="H352" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I352" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/viaduct</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="I352" s="54" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B353" s="18" t="s">
-        <v>720</v>
+      <c r="B353" s="54" t="s">
+        <v>807</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>364</v>
@@ -13988,17 +14055,16 @@
       <c r="H353" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I353" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/CAIkast</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="I353" s="54" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B354" s="18" t="s">
-        <v>720</v>
+      <c r="B354" s="54" t="s">
+        <v>808</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>364</v>
@@ -14018,17 +14084,16 @@
       <c r="H354" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I354" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/elektrakast</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="I354" s="54" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B355" s="18" t="s">
-        <v>720</v>
+      <c r="B355" s="54" t="s">
+        <v>809</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>364</v>
@@ -14042,23 +14107,22 @@
       <c r="F355" t="s">
         <v>430</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="29" t="s">
         <v>747</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I355" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/gaskast</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="I355" s="54" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B356" s="18" t="s">
-        <v>720</v>
+      <c r="B356" s="54" t="s">
+        <v>810</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>364</v>
@@ -14078,17 +14142,16 @@
       <c r="H356" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I356" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/telecomKast</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="I356" s="54" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B357" s="18" t="s">
-        <v>720</v>
+      <c r="B357" s="54" t="s">
+        <v>811</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>364</v>
@@ -14108,17 +14171,16 @@
       <c r="H357" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I357" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/rioolkast</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="I357" s="54" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B358" s="18" t="s">
-        <v>720</v>
+      <c r="B358" s="54" t="s">
+        <v>812</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>364</v>
@@ -14138,17 +14200,16 @@
       <c r="H358" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I358" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/openbare_verlichtingkast</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="I358" s="54" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B359" s="18" t="s">
-        <v>720</v>
+      <c r="B359" s="54" t="s">
+        <v>813</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>364</v>
@@ -14168,17 +14229,16 @@
       <c r="H359" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I359" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/portaal</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="I359" s="54" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B360" s="18" t="s">
-        <v>720</v>
+      <c r="B360" s="54" t="s">
+        <v>814</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>364</v>
@@ -14198,17 +14258,16 @@
       <c r="H360" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I360" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/lichtmast</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="I360" s="54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B361" s="18" t="s">
-        <v>720</v>
+      <c r="B361" s="54" t="s">
+        <v>815</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>364</v>
@@ -14228,17 +14287,16 @@
       <c r="H361" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I361" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/hectometerpaal</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="I361" s="54" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B362" s="18" t="s">
-        <v>720</v>
+      <c r="B362" s="54" t="s">
+        <v>816</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>364</v>
@@ -14258,17 +14316,16 @@
       <c r="H362" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I362" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/inspectieputRioolput</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="I362" s="54" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B363" s="18" t="s">
-        <v>720</v>
+      <c r="B363" s="54" t="s">
+        <v>817</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>364</v>
@@ -14288,9 +14345,8 @@
       <c r="H363" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I363" t="str">
-        <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/kolk</v>
+      <c r="I363" s="54" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -14298,9 +14354,66 @@
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B334" r:id="rId1" location="TypeWater_waterloop"/>
+    <hyperlink ref="B335" r:id="rId2" location="FunctieWeg_rijbaan_autosnelweg"/>
+    <hyperlink ref="B336" r:id="rId3" location="FunctieWeg_fietspad"/>
+    <hyperlink ref="B337" r:id="rId4" location="TypeWaterPlus_sloot"/>
+    <hyperlink ref="B338" r:id="rId5" location="FysiekVoorkomenOnbegroeidTerrein_erf"/>
+    <hyperlink ref="B341" r:id="rId6" location="TypeOverigBouwwerk_overkapping"/>
+    <hyperlink ref="B343" r:id="rId7" location="TypeScheiding_hek"/>
+    <hyperlink ref="B344" r:id="rId8" location="TypeScheidingPlus_draadraster"/>
+    <hyperlink ref="B345" r:id="rId9" location="TypeScheidingPlus_faunaraster"/>
+    <hyperlink ref="B346" r:id="rId10" location="TypeScheiding_muur"/>
+    <hyperlink ref="B347" r:id="rId11" location="TypeKunstwerk_hoogspanningsmast"/>
+    <hyperlink ref="B348" r:id="rId12" location="TypeKunstwerk_steiger"/>
+    <hyperlink ref="B349" r:id="rId13" location="TypeKunstwerk_stuw"/>
+    <hyperlink ref="B350" r:id="rId14" location="TypeKunstwerk_gemaal"/>
+    <hyperlink ref="B352" r:id="rId15" location="TypeOverbrugging_viaduct"/>
+    <hyperlink ref="B351" r:id="rId16" location="TypeOverbrugging_brug"/>
+    <hyperlink ref="B353" r:id="rId17" location="TypeKastPlus_CAI_kast"/>
+    <hyperlink ref="B354" r:id="rId18" location="TypeKastPlus_elektrakast"/>
+    <hyperlink ref="B355" r:id="rId19" location="TypeKastPlus_gaskast"/>
+    <hyperlink ref="B356" r:id="rId20" location="TypeKastPlus_telecom_kast"/>
+    <hyperlink ref="B357" r:id="rId21" location="TypeKastPlus_rioolkast"/>
+    <hyperlink ref="B358" r:id="rId22" location="TypeKastPlus_openbare_verlichtingkast"/>
+    <hyperlink ref="B359" r:id="rId23" location="TypePaalPlus_portaal"/>
+    <hyperlink ref="B360" r:id="rId24" location="TypePaalPlus_lichtmast"/>
+    <hyperlink ref="B361" r:id="rId25" location="TypePaalPlus_hectometerpaal"/>
+    <hyperlink ref="B362" r:id="rId26" location="TypePutPlus_inspectie_rioolput"/>
+    <hyperlink ref="B363" r:id="rId27" location="TypePutPlus_kolk"/>
+    <hyperlink ref="G355" r:id="rId28"/>
+    <hyperlink ref="I334" r:id="rId29" location="TypeWater_waterloop"/>
+    <hyperlink ref="I335" r:id="rId30" location="FunctieWeg_rijbaan_autosnelweg"/>
+    <hyperlink ref="I336" r:id="rId31" location="FunctieWeg_fietspad"/>
+    <hyperlink ref="I337" r:id="rId32" location="TypeWaterPlus_sloot"/>
+    <hyperlink ref="I338" r:id="rId33" location="FysiekVoorkomenOnbegroeidTerrein_erf"/>
+    <hyperlink ref="I341" r:id="rId34" location="TypeOverigBouwwerk_overkapping"/>
+    <hyperlink ref="I343" r:id="rId35" location="TypeScheiding_hek"/>
+    <hyperlink ref="I344" r:id="rId36" location="TypeScheidingPlus_draadraster"/>
+    <hyperlink ref="I345" r:id="rId37" location="TypeScheidingPlus_faunaraster"/>
+    <hyperlink ref="I346" r:id="rId38" location="TypeScheiding_muur"/>
+    <hyperlink ref="I347" r:id="rId39" location="TypeKunstwerk_hoogspanningsmast"/>
+    <hyperlink ref="I348" r:id="rId40" location="TypeKunstwerk_steiger"/>
+    <hyperlink ref="I349" r:id="rId41" location="TypeKunstwerk_stuw"/>
+    <hyperlink ref="I350" r:id="rId42" location="TypeKunstwerk_gemaal"/>
+    <hyperlink ref="I352" r:id="rId43" location="TypeOverbrugging_viaduct"/>
+    <hyperlink ref="I351" r:id="rId44" location="TypeOverbrugging_brug"/>
+    <hyperlink ref="I353" r:id="rId45" location="TypeKastPlus_CAI_kast"/>
+    <hyperlink ref="I354" r:id="rId46" location="TypeKastPlus_elektrakast"/>
+    <hyperlink ref="I355" r:id="rId47" location="TypeKastPlus_gaskast"/>
+    <hyperlink ref="I356" r:id="rId48" location="TypeKastPlus_telecom_kast"/>
+    <hyperlink ref="I357" r:id="rId49" location="TypeKastPlus_rioolkast"/>
+    <hyperlink ref="I358" r:id="rId50" location="TypeKastPlus_openbare_verlichtingkast"/>
+    <hyperlink ref="I359" r:id="rId51" location="TypePaalPlus_portaal"/>
+    <hyperlink ref="I360" r:id="rId52" location="TypePaalPlus_lichtmast"/>
+    <hyperlink ref="I361" r:id="rId53" location="TypePaalPlus_hectometerpaal"/>
+    <hyperlink ref="I362" r:id="rId54" location="TypePutPlus_inspectie_rioolput"/>
+    <hyperlink ref="I363" r:id="rId55" location="TypePutPlus_kolk"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId56"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14317,15 +14430,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -14342,7 +14455,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -14353,7 +14466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14364,7 +14477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -14375,7 +14488,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -14386,7 +14499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -14397,7 +14510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14408,7 +14521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14419,7 +14532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -14430,7 +14543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14441,7 +14554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14452,7 +14565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -14463,7 +14576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -14474,7 +14587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14485,7 +14598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14496,7 +14609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14507,7 +14620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14518,7 +14631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14529,7 +14642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14540,7 +14653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14551,7 +14664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14562,7 +14675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14573,7 +14686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14584,7 +14697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14595,7 +14708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14606,7 +14719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14617,7 +14730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -14628,12 +14741,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -14644,7 +14757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -14655,12 +14768,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
@@ -14707,16 +14820,16 @@
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -14736,7 +14849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>193</v>
       </c>
@@ -14753,7 +14866,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>193</v>
       </c>
@@ -14770,7 +14883,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>193</v>
       </c>
@@ -14787,7 +14900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>193</v>
       </c>
@@ -14804,7 +14917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>193</v>
       </c>
@@ -14821,7 +14934,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>193</v>
       </c>
@@ -14838,7 +14951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>193</v>
       </c>
@@ -14855,7 +14968,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>193</v>
       </c>
@@ -14872,7 +14985,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>193</v>
       </c>
@@ -14889,7 +15002,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>193</v>
       </c>
@@ -14906,7 +15019,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>193</v>
       </c>
@@ -14923,7 +15036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>193</v>
       </c>
@@ -14940,7 +15053,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -14957,7 +15070,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>193</v>
       </c>
@@ -14974,7 +15087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -14991,7 +15104,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -15002,7 +15115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -15013,7 +15126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -15024,7 +15137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -15035,7 +15148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -15046,7 +15159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -15057,7 +15170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -15068,7 +15181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -15079,7 +15192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -15090,7 +15203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -15101,7 +15214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -15112,7 +15225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -15123,7 +15236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -15134,7 +15247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15145,7 +15258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -15156,7 +15269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -15167,7 +15280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -15178,7 +15291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -15189,7 +15302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -15200,7 +15313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -15211,7 +15324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -15222,7 +15335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -15233,7 +15346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -15244,7 +15357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -15255,7 +15368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -15266,7 +15379,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -15277,7 +15390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -15288,7 +15401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -15299,7 +15412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -15310,7 +15423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -15321,7 +15434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -15332,7 +15445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -15343,7 +15456,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -15354,7 +15467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -15365,7 +15478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -15376,7 +15489,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -15387,7 +15500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -15398,7 +15511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -15409,7 +15522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -15420,7 +15533,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -15431,7 +15544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -15442,7 +15555,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -15453,7 +15566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -15464,7 +15577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -15475,7 +15588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -15486,7 +15599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -15497,7 +15610,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -15508,7 +15621,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -15519,7 +15632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -15530,7 +15643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -15541,7 +15654,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -15552,7 +15665,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -15563,7 +15676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -15574,7 +15687,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -15585,7 +15698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -15596,7 +15709,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -15607,7 +15720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -15618,7 +15731,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -15629,7 +15742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -15640,7 +15753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -15651,7 +15764,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -15662,7 +15775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -15673,21 +15786,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
@@ -15729,15 +15842,15 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -15754,7 +15867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -15765,7 +15878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -15776,7 +15889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -15787,7 +15900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -15798,7 +15911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -15809,7 +15922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -15820,7 +15933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -15831,7 +15944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15842,7 +15955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -15853,7 +15966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -15864,7 +15977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -15875,7 +15988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -15886,12 +15999,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -15902,7 +16015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -15913,7 +16026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -15924,7 +16037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -15935,7 +16048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -15946,7 +16059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -15957,7 +16070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -15968,7 +16081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -15979,7 +16092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -15990,7 +16103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -16001,7 +16114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -16012,7 +16125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -16023,7 +16136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -16034,12 +16147,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -16050,7 +16163,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -16061,7 +16174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -16072,7 +16185,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -16083,7 +16196,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -16094,7 +16207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -16105,7 +16218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -16116,7 +16229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -16127,7 +16240,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -16138,7 +16251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -16149,7 +16262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -16160,7 +16273,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -16171,7 +16284,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -16182,7 +16295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -16193,7 +16306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -16204,7 +16317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -16215,7 +16328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -16226,7 +16339,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -16237,7 +16350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -16248,7 +16361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -16259,7 +16372,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -16270,7 +16383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -16281,7 +16394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -16292,7 +16405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -16303,7 +16416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -16314,7 +16427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -16325,7 +16438,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -16336,7 +16449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -16347,7 +16460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -16358,7 +16471,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -16369,7 +16482,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -16380,7 +16493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -16391,7 +16504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -16402,7 +16515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -16413,7 +16526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -16424,7 +16537,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -16435,7 +16548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -16446,7 +16559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -16490,15 +16603,15 @@
       <selection activeCell="A40" sqref="A40:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>346</v>
       </c>
@@ -16512,7 +16625,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -16526,7 +16639,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16540,7 +16653,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -16554,7 +16667,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -16568,7 +16681,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -16582,7 +16695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>264</v>
       </c>
@@ -16596,7 +16709,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -16610,7 +16723,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -16624,7 +16737,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -16638,7 +16751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -16652,7 +16765,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -16666,7 +16779,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -16680,7 +16793,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -16694,7 +16807,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -16708,7 +16821,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -16722,7 +16835,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -16736,7 +16849,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -16750,7 +16863,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -16764,7 +16877,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -16778,7 +16891,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>288</v>
       </c>
@@ -16792,7 +16905,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -16806,7 +16919,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -16820,7 +16933,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -16834,7 +16947,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -16848,7 +16961,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -16862,7 +16975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>170</v>
       </c>
@@ -16876,7 +16989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -16890,7 +17003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>172</v>
       </c>
@@ -16904,7 +17017,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -16918,7 +17031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -16932,7 +17045,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -16946,7 +17059,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -16960,7 +17073,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -16974,7 +17087,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>341</v>
       </c>
@@ -16988,7 +17101,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -17002,7 +17115,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -17016,7 +17129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -17030,7 +17143,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -17044,7 +17157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -17058,7 +17171,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -17072,7 +17185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -17086,7 +17199,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>277</v>
       </c>
@@ -17100,7 +17213,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -17114,7 +17227,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -17128,7 +17241,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>272</v>
       </c>
@@ -17142,7 +17255,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>270</v>
       </c>
@@ -17156,7 +17269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -17170,7 +17283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>275</v>
       </c>
@@ -17184,7 +17297,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -17198,7 +17311,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -17212,7 +17325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>343</v>
       </c>
@@ -17226,7 +17339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>276</v>
       </c>
@@ -17240,7 +17353,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>278</v>
       </c>
@@ -17254,7 +17367,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>280</v>
       </c>
@@ -17268,7 +17381,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -17282,7 +17395,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -17296,7 +17409,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>279</v>
       </c>
@@ -17310,7 +17423,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -17324,7 +17437,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -17338,7 +17451,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>166</v>
       </c>
@@ -17352,7 +17465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -17366,7 +17479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>168</v>
       </c>

--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="310" activeTab="1"/>
+    <workbookView xWindow="39700" yWindow="320" windowWidth="24240" windowHeight="13740" tabRatio="310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="IMKL">Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="819">
   <si>
     <t>attribuut</t>
   </si>
@@ -2142,9 +2142,6 @@
     <t>safe line aluminium</t>
   </si>
   <si>
-    <t xml:space="preserve">ST </t>
-  </si>
-  <si>
     <t>staal</t>
   </si>
   <si>
@@ -2714,13 +2711,19 @@
   </si>
   <si>
     <t>to be done</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>imkl:containerLeidingElementType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3052,25 +3055,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3708,21 +3711,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="22" spans="2:3">
       <c r="B22" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C22" t="s">
         <v>251</v>
@@ -3752,25 +3755,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D375" sqref="D375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" customWidth="1"/>
+    <col min="5" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -3802,7 +3806,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A2" s="1" t="s">
         <v>334</v>
       </c>
@@ -3816,13 +3820,13 @@
         <v>324</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>230</v>
@@ -3832,7 +3836,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijlpunt</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A3" s="1" t="s">
         <v>334</v>
       </c>
@@ -3846,13 +3850,13 @@
         <v>324</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>230</v>
@@ -3862,7 +3866,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijn</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A4" s="1" t="s">
         <v>334</v>
       </c>
@@ -3876,13 +3880,13 @@
         <v>324</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>230</v>
@@ -3892,7 +3896,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatielabel</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A5" s="1" t="s">
         <v>334</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>359</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>89</v>
@@ -3922,7 +3926,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A6" s="1" t="s">
         <v>334</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>359</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>90</v>
@@ -3952,7 +3956,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A7" s="1" t="s">
         <v>334</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>359</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>91</v>
@@ -3982,7 +3986,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A8" s="1" t="s">
         <v>334</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>359</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>92</v>
@@ -4012,7 +4016,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A9" s="1" t="s">
         <v>334</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>359</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>334</v>
@@ -4042,7 +4046,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/algemeen</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A10" s="1" t="s">
         <v>334</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>359</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>352</v>
@@ -4072,7 +4076,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/eisVoorzorgsmaatregel</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A11" s="1" t="s">
         <v>334</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>359</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>353</v>
@@ -4102,7 +4106,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/nietBetrokken</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A12" s="1" t="s">
         <v>334</v>
       </c>
@@ -4113,16 +4117,16 @@
         <v>359</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>686</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>687</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>354</v>
@@ -4132,7 +4136,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/verzoekTotContact</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A14" s="1" t="s">
         <v>334</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A15" s="1" t="s">
         <v>334</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>334</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>457</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>233</v>
@@ -4252,7 +4256,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot30cm</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>334</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>458</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>233</v>
@@ -4282,7 +4286,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot50cm</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>334</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>459</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>233</v>
@@ -4312,7 +4316,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot100cm</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>334</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>233</v>
@@ -4342,7 +4346,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/onbekend</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>334</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/bovenkant</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>334</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/binnenonderkantBuis</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
+    <row r="22" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A22" s="1" t="s">
         <v>334</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>234</v>
@@ -4432,7 +4436,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/aansluiting</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A23" s="1" t="s">
         <v>334</v>
       </c>
@@ -4446,13 +4450,13 @@
         <v>323</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>234</v>
@@ -4462,7 +4466,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/huisaansluiting</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
+    <row r="24" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -4476,13 +4480,13 @@
         <v>323</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>234</v>
@@ -4492,7 +4496,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/profielschets</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="35" customFormat="1">
+    <row r="25" spans="1:9" s="35" customFormat="1" hidden="1">
       <c r="A25" s="35" t="s">
         <v>334</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>234</v>
@@ -4522,7 +4526,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/overig</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" s="43" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A26" s="43" t="s">
         <v>334</v>
       </c>
@@ -4533,26 +4537,26 @@
         <v>359</v>
       </c>
       <c r="D26" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="E26" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>695</v>
-      </c>
       <c r="F26" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>389</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I26" s="39" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="43" customFormat="1">
+    <row r="27" spans="1:9" s="43" customFormat="1" hidden="1">
       <c r="A27" s="43" t="s">
         <v>334</v>
       </c>
@@ -4563,26 +4567,26 @@
         <v>359</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>390</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="49" customFormat="1">
+    <row r="28" spans="1:9" s="49" customFormat="1" hidden="1">
       <c r="A28" s="49" t="s">
         <v>334</v>
       </c>
@@ -4593,26 +4597,26 @@
         <v>359</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F28" s="50" t="s">
+        <v>765</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="H28" s="51" t="s">
         <v>766</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>765</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>767</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/authority</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="49" customFormat="1">
+    <row r="29" spans="1:9" s="49" customFormat="1" hidden="1">
       <c r="A29" s="49" t="s">
         <v>334</v>
       </c>
@@ -4623,26 +4627,26 @@
         <v>359</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>392</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/operator</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="49" customFormat="1">
+    <row r="30" spans="1:9" s="49" customFormat="1" hidden="1">
       <c r="A30" s="49" t="s">
         <v>334</v>
       </c>
@@ -4653,26 +4657,26 @@
         <v>359</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>391</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/owner</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>334</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>359</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>84</v>
@@ -4692,7 +4696,7 @@
         <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>235</v>
@@ -4702,7 +4706,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot30cm</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>334</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>359</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>85</v>
@@ -4722,7 +4726,7 @@
         <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>235</v>
@@ -4732,7 +4736,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot50cm</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A33" s="1" t="s">
         <v>334</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>359</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>86</v>
@@ -4752,7 +4756,7 @@
         <v>86</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>235</v>
@@ -4762,7 +4766,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot100cm</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A34" s="1" t="s">
         <v>334</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" hidden="1">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslijn</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>334</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="1" t="s">
         <v>334</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>334</v>
       </c>
@@ -4912,7 +4916,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>334</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/buisleidingGevaarlijkeInhoud</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="84" customHeight="1">
+    <row r="40" spans="1:9" ht="84" hidden="1" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>334</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/datatransport</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1">
+    <row r="41" spans="1:9" ht="16.5" hidden="1" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>334</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasLageDruk</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12" customHeight="1">
+    <row r="42" spans="1:9" ht="12" hidden="1" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>334</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasHogeDruk</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>334</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/petrochemie</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/landelijkHoogspanningsnet</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12" customHeight="1">
+    <row r="45" spans="1:9" ht="12" hidden="1" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>334</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/hoogspanning</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12" customHeight="1">
+    <row r="46" spans="1:9" ht="12" hidden="1" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>334</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/laagspanning</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+    <row r="47" spans="1:9" ht="17.25" hidden="1" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>334</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/middenspanning</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolVrijverval</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="52" customFormat="1">
+    <row r="49" spans="1:9" s="52" customFormat="1" hidden="1">
       <c r="A49" s="49" t="s">
         <v>334</v>
       </c>
@@ -5223,10 +5227,10 @@
         <v>326</v>
       </c>
       <c r="E49" s="50" t="s">
+        <v>759</v>
+      </c>
+      <c r="F49" s="50" t="s">
         <v>760</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>761</v>
       </c>
       <c r="G49" s="50" t="s">
         <v>450</v>
@@ -5239,7 +5243,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolOnderOverOfOnderdruk</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1">
+    <row r="50" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>334</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/warmte</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" hidden="1" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>334</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/water</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="1" t="s">
         <v>334</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/wees</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="1" t="s">
         <v>334</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/overig</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="1" t="s">
         <v>334</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="1" t="s">
         <v>334</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="1" t="s">
         <v>334</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="1" t="s">
         <v>334</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="1" t="s">
         <v>334</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="1" t="s">
         <v>334</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="1" t="s">
         <v>334</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="1" t="s">
         <v>334</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="1" t="s">
         <v>334</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="1" t="s">
         <v>334</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="1" t="s">
         <v>334</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="1" t="s">
         <v>334</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="1" t="s">
         <v>334</v>
       </c>
@@ -5749,16 +5753,16 @@
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>379</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E67" t="s">
         <v>380</v>
@@ -5774,16 +5778,16 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/brandbaar</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>379</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E68" t="s">
         <v>381</v>
@@ -5799,16 +5803,16 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/explosief</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>379</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E69" t="s">
         <v>382</v>
@@ -5824,16 +5828,16 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/toxisch</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>379</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E70" t="s">
         <v>383</v>
@@ -5849,7 +5853,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/scherfwerking</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="60">
+    <row r="71" spans="1:9" ht="42">
       <c r="A71" s="1" t="s">
         <v>334</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>359</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="E71" t="s">
         <v>365</v>
@@ -5890,7 +5894,7 @@
         <v>359</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="E72" t="s">
         <v>366</v>
@@ -5909,7 +5913,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/mast</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="45">
+    <row r="73" spans="1:9" ht="42">
       <c r="A73" s="1" t="s">
         <v>334</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>359</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="E73" t="s">
         <v>367</v>
@@ -5950,7 +5954,7 @@
         <v>359</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="E74" t="s">
         <v>368</v>
@@ -5980,7 +5984,7 @@
         <v>359</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="E75" t="s">
         <v>369</v>
@@ -5999,7 +6003,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/technischGebouw</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="1" t="s">
         <v>334</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>359</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E76" t="s">
         <v>120</v>
@@ -6026,7 +6030,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingenType/overig</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="45">
+    <row r="77" spans="1:9" ht="28" hidden="1">
       <c r="A77" s="1" t="s">
         <v>334</v>
       </c>
@@ -6037,26 +6041,26 @@
         <v>359</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="F77" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="F77" s="18" t="s">
-        <v>695</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>696</v>
-      </c>
       <c r="H77" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30.75" thickBot="1">
+    <row r="78" spans="1:9" ht="28" hidden="1">
       <c r="A78" s="1" t="s">
         <v>334</v>
       </c>
@@ -6067,26 +6071,26 @@
         <v>359</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>390</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1">
+    <row r="79" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A79" t="s">
         <v>491</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1">
+    <row r="80" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A80" t="s">
         <v>491</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/mof</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1">
+    <row r="81" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A81" t="s">
         <v>491</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1">
+    <row r="82" spans="1:9" s="39" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A82" t="s">
         <v>491</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="39" customFormat="1">
+    <row r="83" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A83" t="s">
         <v>491</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="39" customFormat="1">
+    <row r="84" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A84" t="s">
         <v>491</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="39" customFormat="1">
+    <row r="85" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A85" t="s">
         <v>491</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="39" customFormat="1">
+    <row r="86" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A86" t="s">
         <v>491</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="39" customFormat="1">
+    <row r="87" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A87" t="s">
         <v>491</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="39" customFormat="1">
+    <row r="88" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A88" t="s">
         <v>491</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="39" customFormat="1">
+    <row r="89" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A89" t="s">
         <v>491</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1">
+    <row r="90" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A90" t="s">
         <v>491</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="45">
+    <row r="91" spans="1:9" ht="28" hidden="1">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" t="s">
         <v>491</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" t="s">
         <v>491</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1">
+    <row r="95" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A95" t="s">
         <v>491</v>
       </c>
@@ -6596,7 +6600,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" t="s">
         <v>335</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" t="s">
         <v>335</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" t="s">
         <v>335</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" t="s">
         <v>335</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="39" customFormat="1">
+    <row r="100" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A100" s="39" t="s">
         <v>335</v>
       </c>
@@ -6730,13 +6734,13 @@
         <v>317</v>
       </c>
       <c r="E100" s="40" t="s">
+        <v>753</v>
+      </c>
+      <c r="F100" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="F100" s="40" t="s">
+      <c r="G100" s="40" t="s">
         <v>755</v>
-      </c>
-      <c r="G100" s="40" t="s">
-        <v>756</v>
       </c>
       <c r="H100" s="42" t="s">
         <v>241</v>
@@ -6746,7 +6750,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" t="s">
         <v>335</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" t="s">
         <v>335</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="39" customFormat="1">
+    <row r="103" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A103" s="39" t="s">
         <v>335</v>
       </c>
@@ -6820,13 +6824,13 @@
         <v>317</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>756</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>756</v>
+      </c>
+      <c r="G103" s="40" t="s">
         <v>757</v>
-      </c>
-      <c r="F103" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="G103" s="40" t="s">
-        <v>758</v>
       </c>
       <c r="H103" s="42" t="s">
         <v>241</v>
@@ -6836,7 +6840,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" t="s">
         <v>335</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1">
+    <row r="106" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A106" t="s">
         <v>335</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/coaxial</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" t="s">
         <v>335</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" t="s">
         <v>335</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1">
+    <row r="110" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A110" t="s">
         <v>437</v>
       </c>
@@ -7043,7 +7047,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1">
+    <row r="111" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A111" t="s">
         <v>437</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1">
+    <row r="112" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A112" t="s">
         <v>437</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1">
+    <row r="113" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A113" t="s">
         <v>437</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1">
+    <row r="114" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A114" t="s">
         <v>437</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1">
+    <row r="115" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1">
+    <row r="116" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1">
+    <row r="117" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A117" t="s">
         <v>437</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1">
+    <row r="118" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A118" t="s">
         <v>437</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1">
+    <row r="119" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A119" t="s">
         <v>437</v>
       </c>
@@ -7313,7 +7317,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1">
+    <row r="120" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A120" t="s">
         <v>437</v>
       </c>
@@ -7343,7 +7347,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/mud</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1">
+    <row r="121" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A121" t="s">
         <v>437</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/methanol</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" t="s">
         <v>437</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" t="s">
         <v>437</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/glycol</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" thickBot="1">
+    <row r="124" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A124" t="s">
         <v>437</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1">
+    <row r="125" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A125" t="s">
         <v>437</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" t="s">
         <v>437</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" t="s">
         <v>437</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" t="s">
         <v>437</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" t="s">
         <v>437</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" t="s">
         <v>437</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" t="s">
         <v>437</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>437</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" t="s">
         <v>437</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" t="s">
         <v>437</v>
       </c>
@@ -7763,7 +7767,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" t="s">
         <v>437</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" t="s">
         <v>437</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" t="s">
         <v>437</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>296</v>
       </c>
       <c r="F139" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -7913,7 +7917,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" t="s">
         <v>437</v>
       </c>
@@ -7930,7 +7934,7 @@
         <v>297</v>
       </c>
       <c r="F140" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G140" t="s">
         <v>36</v>
@@ -7943,7 +7947,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" t="s">
         <v>437</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>437</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" t="s">
         <v>437</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" t="s">
         <v>437</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" t="s">
         <v>437</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -8123,7 +8127,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" t="s">
         <v>437</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" t="s">
         <v>437</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/accetone</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" t="s">
         <v>437</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/air</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/argon</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" t="s">
         <v>437</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" t="s">
         <v>437</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" t="s">
         <v>437</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butane</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" t="s">
         <v>437</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" t="s">
         <v>437</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/chlorine</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" t="s">
         <v>437</v>
       </c>
@@ -8483,7 +8487,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/concrete</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" t="s">
         <v>437</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/crude</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" t="s">
         <v>437</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/dichloroethane</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" t="s">
         <v>437</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/diesel</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" t="s">
         <v>437</v>
       </c>
@@ -8603,7 +8607,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/ethylene</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" t="s">
         <v>437</v>
       </c>
@@ -8633,7 +8637,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" t="s">
         <v>437</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasHFx</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasoil</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/hydrogen</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" t="s">
         <v>437</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/isobutane</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" t="s">
         <v>437</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/JET-A1</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" t="s">
         <v>437</v>
       </c>
@@ -8813,7 +8817,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/kerosene</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" t="s">
         <v>437</v>
       </c>
@@ -8843,7 +8847,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" t="s">
         <v>437</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" t="s">
         <v>437</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/multiProduct</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" t="s">
         <v>437</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/MVC</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" t="s">
         <v>437</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/nitrogen</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" t="s">
         <v>437</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/oxygen</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" t="s">
         <v>437</v>
       </c>
@@ -9023,7 +9027,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/phenol</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" t="s">
         <v>437</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propane</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" t="s">
         <v>437</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propylene</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" t="s">
         <v>437</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saltWater</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saumur</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" t="s">
         <v>437</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/sand</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" t="s">
         <v>437</v>
       </c>
@@ -9203,7 +9207,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" t="s">
         <v>437</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/unknown</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" t="s">
         <v>437</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/water</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" thickBot="1">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" t="s">
         <v>437</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/empty</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.75" thickBot="1">
+    <row r="186" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A186" s="4" t="s">
         <v>103</v>
       </c>
@@ -9323,7 +9327,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" thickBot="1">
+    <row r="187" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A187" s="4" t="s">
         <v>103</v>
       </c>
@@ -9353,7 +9357,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.75" thickBot="1">
+    <row r="188" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A188" s="4" t="s">
         <v>103</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.75" thickBot="1">
+    <row r="189" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>103</v>
       </c>
@@ -9413,7 +9417,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75" thickBot="1">
+    <row r="190" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>103</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/blindflens</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="4" t="s">
         <v>103</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="4" t="s">
         <v>103</v>
       </c>
@@ -9503,7 +9507,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" s="4" t="s">
         <v>103</v>
       </c>
@@ -9533,7 +9537,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" s="4" t="s">
         <v>103</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="4" t="s">
         <v>103</v>
       </c>
@@ -9593,7 +9597,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="4" t="s">
         <v>103</v>
       </c>
@@ -9623,7 +9627,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="4" t="s">
         <v>103</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="4" t="s">
         <v>103</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="4" t="s">
         <v>103</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="4" t="s">
         <v>103</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" s="4" t="s">
         <v>103</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="4" t="s">
         <v>103</v>
       </c>
@@ -9803,7 +9807,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" s="4" t="s">
         <v>103</v>
       </c>
@@ -9833,7 +9837,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" s="4" t="s">
         <v>103</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" s="4" t="s">
         <v>103</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" s="4" t="s">
         <v>103</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="4" t="s">
         <v>103</v>
       </c>
@@ -9953,7 +9957,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" thickBot="1">
+    <row r="208" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A208" s="4" t="s">
         <v>103</v>
       </c>
@@ -9983,7 +9987,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/industrial</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" thickBot="1">
+    <row r="209" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A209" s="4" t="s">
         <v>103</v>
       </c>
@@ -10013,7 +10017,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/waste</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" s="4" t="s">
         <v>103</v>
       </c>
@@ -10043,7 +10047,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="4" t="s">
         <v>103</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" s="4" t="s">
         <v>103</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" s="4" t="s">
         <v>103</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" thickBot="1">
+    <row r="214" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A214" s="4" t="s">
         <v>103</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75" thickBot="1">
+    <row r="215" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A215" s="4" t="s">
         <v>336</v>
       </c>
@@ -10169,10 +10173,10 @@
         <v>191</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>393</v>
@@ -10184,14 +10188,14 @@
         <v>393</v>
       </c>
       <c r="H215" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I215" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/aansluitleiding</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" thickBot="1">
+    <row r="216" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A216" s="4" t="s">
         <v>336</v>
       </c>
@@ -10199,10 +10203,10 @@
         <v>191</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E216" s="24" t="s">
         <v>394</v>
@@ -10214,14 +10218,14 @@
         <v>394</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I216" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergbezinkleiding</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" thickBot="1">
+    <row r="217" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A217" s="4" t="s">
         <v>336</v>
       </c>
@@ -10229,10 +10233,10 @@
         <v>191</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E217" s="24" t="s">
         <v>395</v>
@@ -10244,14 +10248,14 @@
         <v>395</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I217" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergingsleiding</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" thickBot="1">
+    <row r="218" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A218" s="4" t="s">
         <v>336</v>
       </c>
@@ -10259,10 +10263,10 @@
         <v>191</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E218" s="24" t="s">
         <v>396</v>
@@ -10274,14 +10278,14 @@
         <v>469</v>
       </c>
       <c r="H218" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I218" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/gemengdRiool</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" thickBot="1">
+    <row r="219" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A219" s="4" t="s">
         <v>336</v>
       </c>
@@ -10289,10 +10293,10 @@
         <v>191</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E219" s="24" t="s">
         <v>397</v>
@@ -10304,14 +10308,14 @@
         <v>397</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I219" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/hemelwaterriool</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75" thickBot="1">
+    <row r="220" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A220" s="4" t="s">
         <v>336</v>
       </c>
@@ -10319,10 +10323,10 @@
         <v>191</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E220" s="24" t="s">
         <v>398</v>
@@ -10334,14 +10338,14 @@
         <v>398</v>
       </c>
       <c r="H220" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/overstortleiding</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.75" thickBot="1">
+    <row r="221" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -10349,10 +10353,10 @@
         <v>191</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E221" s="24" t="s">
         <v>399</v>
@@ -10364,14 +10368,14 @@
         <v>399</v>
       </c>
       <c r="H221" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/stuwrioolleiding</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.75" thickBot="1">
+    <row r="222" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A222" s="4" t="s">
         <v>336</v>
       </c>
@@ -10379,10 +10383,10 @@
         <v>191</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E222" s="24" t="s">
         <v>400</v>
@@ -10394,14 +10398,14 @@
         <v>400</v>
       </c>
       <c r="H222" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I222" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/doorlatendeleiding</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15.75" thickBot="1">
+    <row r="223" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A223" s="4" t="s">
         <v>336</v>
       </c>
@@ -10409,10 +10413,10 @@
         <v>191</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E223" s="24" t="s">
         <v>401</v>
@@ -10424,14 +10428,14 @@
         <v>401</v>
       </c>
       <c r="H223" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I223" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/vuilwaterriool</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" thickBot="1">
+    <row r="224" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A224" s="4" t="s">
         <v>336</v>
       </c>
@@ -10439,10 +10443,10 @@
         <v>191</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E224" s="24" t="s">
         <v>402</v>
@@ -10454,14 +10458,14 @@
         <v>402</v>
       </c>
       <c r="H224" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/transportrioolleiding</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" thickBot="1">
+    <row r="225" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A225" s="4" t="s">
         <v>336</v>
       </c>
@@ -10469,10 +10473,10 @@
         <v>191</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E225" s="24" t="s">
         <v>313</v>
@@ -10484,14 +10488,14 @@
         <v>313</v>
       </c>
       <c r="H225" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/zinker</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" thickBot="1">
+    <row r="226" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A226" s="4" t="s">
         <v>336</v>
       </c>
@@ -10499,10 +10503,10 @@
         <v>191</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E226" s="24" t="s">
         <v>403</v>
@@ -10514,14 +10518,14 @@
         <v>403</v>
       </c>
       <c r="H226" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I226" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/openLeiding</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" thickBot="1">
+    <row r="227" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A227" s="4" t="s">
         <v>336</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/gemaal</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" thickBot="1">
+    <row r="228" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A228" s="4" t="s">
         <v>336</v>
       </c>
@@ -10581,7 +10585,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" thickBot="1">
+    <row r="229" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A229" s="4" t="s">
         <v>336</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kolk</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" thickBot="1">
+    <row r="230" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A230" s="4" t="s">
         <v>336</v>
       </c>
@@ -10641,7 +10645,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="4" t="s">
         <v>336</v>
       </c>
@@ -10671,7 +10675,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/reservoir</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="4" t="s">
         <v>336</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="4" t="s">
         <v>336</v>
       </c>
@@ -10731,7 +10735,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/overstort</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="4" t="s">
         <v>336</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="4" t="s">
         <v>336</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="4" t="s">
         <v>336</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="4" t="s">
         <v>336</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="4" t="s">
         <v>336</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="4" t="s">
         <v>336</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="4" t="s">
         <v>336</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="4" t="s">
         <v>336</v>
       </c>
@@ -10971,7 +10975,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="4" t="s">
         <v>336</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="4" t="s">
         <v>336</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="4" t="s">
         <v>336</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="4" t="s">
         <v>336</v>
       </c>
@@ -11091,7 +11095,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="4" t="s">
         <v>336</v>
       </c>
@@ -11121,7 +11125,7 @@
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="4" t="s">
         <v>336</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="39" customFormat="1">
+    <row r="248" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A248" s="46" t="s">
         <v>118</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/compensator</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="39" customFormat="1">
+    <row r="249" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A249" s="46" t="s">
         <v>118</v>
       </c>
@@ -11208,7 +11212,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="39" customFormat="1">
+    <row r="250" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A250" s="46" t="s">
         <v>118</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/put</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="39" customFormat="1">
+    <row r="251" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A251" s="46" t="s">
         <v>118</v>
       </c>
@@ -11268,7 +11272,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="39" customFormat="1">
+    <row r="252" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A252" s="46" t="s">
         <v>118</v>
       </c>
@@ -11298,7 +11302,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="39" customFormat="1">
+    <row r="253" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A253" s="46" t="s">
         <v>118</v>
       </c>
@@ -11328,7 +11332,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" ht="30">
+    <row r="254" spans="1:9" s="39" customFormat="1" ht="28" hidden="1">
       <c r="A254" s="46" t="s">
         <v>118</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/zinker</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="39" customFormat="1">
+    <row r="255" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A255" s="46" t="s">
         <v>118</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="39" customFormat="1">
+    <row r="256" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A256" s="46" t="s">
         <v>118</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="39" customFormat="1">
+    <row r="257" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A257" s="46" t="s">
         <v>118</v>
       </c>
@@ -11448,7 +11452,7 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/puntVanLevering</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" t="s">
         <v>334</v>
       </c>
@@ -11459,7 +11463,7 @@
         <v>551</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E258" s="18" t="s">
         <v>552</v>
@@ -11468,14 +11472,14 @@
         <v>553</v>
       </c>
       <c r="H258" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I258" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ABS</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>551</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>554</v>
@@ -11495,14 +11499,14 @@
         <v>555</v>
       </c>
       <c r="H259" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I259" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/asbestos</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" t="s">
         <v>334</v>
       </c>
@@ -11513,7 +11517,7 @@
         <v>551</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>556</v>
@@ -11522,14 +11526,14 @@
         <v>557</v>
       </c>
       <c r="H260" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I260" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackIron</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" t="s">
         <v>334</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>551</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>558</v>
@@ -11549,14 +11553,14 @@
         <v>559</v>
       </c>
       <c r="H261" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I261" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackSteel</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" t="s">
         <v>334</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>551</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>560</v>
@@ -11576,14 +11580,14 @@
         <v>561</v>
       </c>
       <c r="H262" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I262" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/castIron</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" t="s">
         <v>334</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>551</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>562</v>
@@ -11603,14 +11607,14 @@
         <v>563</v>
       </c>
       <c r="H263" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I263" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/clay</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" t="s">
         <v>334</v>
       </c>
@@ -11621,7 +11625,7 @@
         <v>551</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>564</v>
@@ -11630,14 +11634,14 @@
         <v>565</v>
       </c>
       <c r="H264" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I264" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/compositeConcrete</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" t="s">
         <v>334</v>
       </c>
@@ -11648,7 +11652,7 @@
         <v>551</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>136</v>
@@ -11657,14 +11661,14 @@
         <v>566</v>
       </c>
       <c r="H265" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/concrete</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" t="s">
         <v>334</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>551</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>567</v>
@@ -11684,14 +11688,14 @@
         <v>568</v>
       </c>
       <c r="H266" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CPVC</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" t="s">
         <v>334</v>
       </c>
@@ -11702,23 +11706,23 @@
         <v>551</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G267" t="s">
         <v>569</v>
       </c>
       <c r="H267" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I267" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/FRP</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" t="s">
         <v>334</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>551</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>570</v>
@@ -11738,14 +11742,14 @@
         <v>571</v>
       </c>
       <c r="H268" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/galvanizedSteel</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -11756,7 +11760,7 @@
         <v>551</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>572</v>
@@ -11765,14 +11769,14 @@
         <v>573</v>
       </c>
       <c r="H269" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I269" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/masonry</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>551</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>574</v>
@@ -11792,14 +11796,14 @@
         <v>575</v>
       </c>
       <c r="H270" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I270" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/other</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" t="s">
         <v>334</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>551</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>576</v>
@@ -11819,14 +11823,14 @@
         <v>577</v>
       </c>
       <c r="H271" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>551</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>578</v>
@@ -11846,14 +11850,14 @@
         <v>579</v>
       </c>
       <c r="H272" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I272" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273" t="s">
         <v>334</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>551</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>580</v>
@@ -11873,14 +11877,14 @@
         <v>581</v>
       </c>
       <c r="H273" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I273" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PEX</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" t="s">
         <v>334</v>
       </c>
@@ -11891,7 +11895,7 @@
         <v>551</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>582</v>
@@ -11900,14 +11904,14 @@
         <v>583</v>
       </c>
       <c r="H274" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I274" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PP</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" t="s">
         <v>334</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>551</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>584</v>
@@ -11927,14 +11931,14 @@
         <v>585</v>
       </c>
       <c r="H275" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I275" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/prestressedReinforcedConcrete</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" t="s">
         <v>334</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>551</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>586</v>
@@ -11954,14 +11958,14 @@
         <v>587</v>
       </c>
       <c r="H276" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" t="s">
         <v>334</v>
       </c>
@@ -11972,7 +11976,7 @@
         <v>551</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E277" s="8" t="s">
         <v>588</v>
@@ -11981,14 +11985,14 @@
         <v>589</v>
       </c>
       <c r="H277" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I277" t="str">
         <f t="shared" si="3"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/reinforcedConcrete</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" t="s">
         <v>334</v>
       </c>
@@ -11999,7 +12003,7 @@
         <v>551</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>590</v>
@@ -12008,14 +12012,14 @@
         <v>591</v>
       </c>
       <c r="H278" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I278" t="str">
         <f t="shared" ref="I278:I340" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RPMP</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" t="s">
         <v>334</v>
       </c>
@@ -12026,7 +12030,7 @@
         <v>551</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>592</v>
@@ -12035,14 +12039,14 @@
         <v>593</v>
       </c>
       <c r="H279" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I279" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/steel</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" t="s">
         <v>334</v>
       </c>
@@ -12053,7 +12057,7 @@
         <v>551</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>594</v>
@@ -12062,14 +12066,14 @@
         <v>595</v>
       </c>
       <c r="H280" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/terracota</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" t="s">
         <v>334</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>551</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E281" s="8" t="s">
         <v>596</v>
@@ -12089,14 +12093,14 @@
         <v>597</v>
       </c>
       <c r="H281" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/wood</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" t="s">
         <v>334</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>551</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>599</v>
@@ -12116,14 +12120,14 @@
         <v>600</v>
       </c>
       <c r="H282" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" t="s">
         <v>334</v>
       </c>
@@ -12134,23 +12138,23 @@
         <v>551</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G283" s="34" t="s">
         <v>601</v>
       </c>
       <c r="H283" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I283" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/BT</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" t="s">
         <v>334</v>
       </c>
@@ -12161,7 +12165,7 @@
         <v>551</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>602</v>
@@ -12170,14 +12174,14 @@
         <v>604</v>
       </c>
       <c r="H284" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I284" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CU</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" t="s">
         <v>334</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>551</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>605</v>
@@ -12197,14 +12201,14 @@
         <v>603</v>
       </c>
       <c r="H285" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I285" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GIJ</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" t="s">
         <v>334</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>551</v>
       </c>
       <c r="D286" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E286" s="8" t="s">
         <v>606</v>
@@ -12224,14 +12228,14 @@
         <v>607</v>
       </c>
       <c r="H286" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I286" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVB</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" t="s">
         <v>334</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>551</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E287" s="8" t="s">
         <v>608</v>
@@ -12251,14 +12255,14 @@
         <v>609</v>
       </c>
       <c r="H287" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I287" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVK</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288" t="s">
         <v>334</v>
       </c>
@@ -12269,7 +12273,7 @@
         <v>551</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>610</v>
@@ -12278,14 +12282,14 @@
         <v>611</v>
       </c>
       <c r="H288" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I288" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HZ</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>551</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E289" s="8" t="s">
         <v>612</v>
@@ -12305,14 +12309,14 @@
         <v>613</v>
       </c>
       <c r="H289" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I289" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/KP</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290" t="s">
         <v>334</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>551</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>614</v>
@@ -12332,14 +12336,14 @@
         <v>615</v>
       </c>
       <c r="H290" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I290" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/NGIJ</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" t="s">
         <v>334</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>551</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>576</v>
@@ -12359,14 +12363,14 @@
         <v>616</v>
       </c>
       <c r="H291" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I291" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" t="s">
         <v>334</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>551</v>
       </c>
       <c r="D292" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>578</v>
@@ -12386,14 +12390,14 @@
         <v>617</v>
       </c>
       <c r="H292" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I292" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" t="s">
         <v>334</v>
       </c>
@@ -12404,7 +12408,7 @@
         <v>551</v>
       </c>
       <c r="D293" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>618</v>
@@ -12413,14 +12417,14 @@
         <v>619</v>
       </c>
       <c r="H293" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I293" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PoB</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" t="s">
         <v>334</v>
       </c>
@@ -12431,7 +12435,7 @@
         <v>551</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>586</v>
@@ -12440,14 +12444,14 @@
         <v>620</v>
       </c>
       <c r="H294" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295" t="s">
         <v>334</v>
       </c>
@@ -12458,7 +12462,7 @@
         <v>551</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E295" s="8" t="s">
         <v>621</v>
@@ -12467,14 +12471,14 @@
         <v>622</v>
       </c>
       <c r="H295" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I295" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVCBV</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296" t="s">
         <v>334</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>551</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E296" s="8" t="s">
         <v>623</v>
@@ -12494,14 +12498,14 @@
         <v>624</v>
       </c>
       <c r="H296" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I296" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RVS</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297" t="s">
         <v>334</v>
       </c>
@@ -12512,7 +12516,7 @@
         <v>551</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E297" s="8" t="s">
         <v>625</v>
@@ -12521,14 +12525,14 @@
         <v>626</v>
       </c>
       <c r="H297" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I297" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/SLA</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298" t="s">
         <v>334</v>
       </c>
@@ -12539,1016 +12543,1016 @@
         <v>551</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E298" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="G298" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="G298" s="34" t="s">
-        <v>628</v>
-      </c>
       <c r="H298" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I298" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ST </v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ST</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299" t="s">
         <v>334</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D299" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E299" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G299" t="s">
         <v>630</v>
       </c>
-      <c r="G299" t="s">
-        <v>631</v>
-      </c>
       <c r="H299" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I299" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AY</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300" t="s">
         <v>334</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E300" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G300" t="s">
         <v>632</v>
       </c>
-      <c r="G300" t="s">
-        <v>633</v>
-      </c>
       <c r="H300" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I300" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AZ</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301" t="s">
         <v>334</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D301" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E301" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G301" t="s">
         <v>634</v>
       </c>
-      <c r="G301" t="s">
-        <v>635</v>
-      </c>
       <c r="H301" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I301" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/Z</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302" t="s">
         <v>334</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D302" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E302" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G302" t="s">
         <v>636</v>
       </c>
-      <c r="G302" t="s">
-        <v>637</v>
-      </c>
       <c r="H302" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I302" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AB</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303" t="s">
         <v>334</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E303" s="8" t="s">
         <v>599</v>
       </c>
       <c r="G303" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H303" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I303" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304" t="s">
         <v>334</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D304" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E304" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="G304" t="s">
         <v>639</v>
       </c>
-      <c r="G304" t="s">
-        <v>640</v>
-      </c>
       <c r="H304" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I304" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AD</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305" t="s">
         <v>334</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E305" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G305" t="s">
         <v>641</v>
       </c>
-      <c r="G305" t="s">
-        <v>642</v>
-      </c>
       <c r="H305" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I305" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AE</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" t="s">
         <v>334</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D306" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E306" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G306" t="s">
         <v>643</v>
       </c>
-      <c r="G306" t="s">
-        <v>644</v>
-      </c>
       <c r="H306" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I306" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AA</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" t="s">
         <v>334</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E307" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G307" t="s">
         <v>645</v>
       </c>
-      <c r="G307" t="s">
-        <v>646</v>
-      </c>
       <c r="H307" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I307" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AJ</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308" t="s">
         <v>334</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E308" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="G308" t="s">
         <v>647</v>
       </c>
-      <c r="G308" t="s">
-        <v>648</v>
-      </c>
       <c r="H308" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I308" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AK</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309" t="s">
         <v>334</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G309" t="s">
         <v>608</v>
       </c>
       <c r="H309" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I309" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AL</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310" t="s">
         <v>334</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E310" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="G310" t="s">
         <v>650</v>
       </c>
-      <c r="G310" t="s">
-        <v>651</v>
-      </c>
       <c r="H310" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I310" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AN</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311" t="s">
         <v>334</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D311" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E311" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="G311" t="s">
         <v>652</v>
       </c>
-      <c r="G311" t="s">
-        <v>653</v>
-      </c>
       <c r="H311" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I311" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AO</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312" t="s">
         <v>334</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C312" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D312" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E312" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="G312" t="s">
         <v>654</v>
       </c>
-      <c r="G312" t="s">
-        <v>655</v>
-      </c>
       <c r="H312" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I312" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AP</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" t="s">
         <v>334</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C313" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E313" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="G313" t="s">
         <v>656</v>
       </c>
-      <c r="G313" t="s">
-        <v>657</v>
-      </c>
       <c r="H313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I313" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AQ</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" t="s">
         <v>334</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C314" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E314" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="G314" t="s">
         <v>658</v>
       </c>
-      <c r="G314" t="s">
-        <v>659</v>
-      </c>
       <c r="H314" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I314" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AR</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315" t="s">
         <v>334</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E315" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="G315" t="s">
         <v>660</v>
       </c>
-      <c r="G315" t="s">
-        <v>661</v>
-      </c>
       <c r="H315" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I315" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AS</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316" t="s">
         <v>334</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C316" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E316" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="G316" t="s">
         <v>662</v>
       </c>
-      <c r="G316" t="s">
-        <v>663</v>
-      </c>
       <c r="H316" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I316" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AT</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317" t="s">
         <v>334</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C317" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D317" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E317" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G317" t="s">
         <v>664</v>
       </c>
-      <c r="G317" t="s">
-        <v>665</v>
-      </c>
       <c r="H317" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I317" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AU</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318" t="s">
         <v>334</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C318" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G318" t="s">
         <v>578</v>
       </c>
       <c r="H318" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I318" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AV</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319" t="s">
         <v>334</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C319" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E319" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="G319" t="s">
         <v>667</v>
       </c>
-      <c r="G319" t="s">
-        <v>668</v>
-      </c>
       <c r="H319" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I319" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AW</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" t="s">
         <v>334</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C320" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D320" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E320" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G320" t="s">
         <v>669</v>
       </c>
-      <c r="G320" t="s">
-        <v>670</v>
-      </c>
       <c r="H320" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I320" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AF</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" t="s">
         <v>334</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C321" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E321" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G321" t="s">
         <v>671</v>
       </c>
-      <c r="G321" t="s">
-        <v>672</v>
-      </c>
       <c r="H321" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I321" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AG</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322" t="s">
         <v>334</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C322" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E322" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="G322" t="s">
         <v>673</v>
       </c>
-      <c r="G322" t="s">
-        <v>674</v>
-      </c>
       <c r="H322" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I322" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AH</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323" t="s">
         <v>334</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C323" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E323" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="G323" t="s">
         <v>675</v>
       </c>
-      <c r="G323" t="s">
-        <v>676</v>
-      </c>
       <c r="H323" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I323" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AI</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324" t="s">
         <v>334</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C324" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E324" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G324" t="s">
         <v>677</v>
       </c>
-      <c r="G324" t="s">
-        <v>678</v>
-      </c>
       <c r="H324" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I324" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AX</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" t="s">
         <v>334</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C325" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E325" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="G325" t="s">
         <v>679</v>
       </c>
-      <c r="G325" t="s">
-        <v>680</v>
-      </c>
       <c r="H325" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I325" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AM</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="56" customFormat="1">
+    <row r="326" spans="1:9" s="56" customFormat="1" hidden="1">
       <c r="A326" s="56" t="s">
         <v>334</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E326" s="57" t="s">
+        <v>681</v>
+      </c>
+      <c r="G326" s="56" t="s">
         <v>682</v>
       </c>
-      <c r="G326" s="56" t="s">
-        <v>683</v>
-      </c>
       <c r="H326" s="56" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I326" s="56" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HDPE</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B327" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C327" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D327" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E327" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F327" s="39"/>
       <c r="G327" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H327" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I327" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GradeA</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B328" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C328" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D328" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E328" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F328" s="39"/>
       <c r="G328" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H328" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I328" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GradeB</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B329" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C329" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D329" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E329" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F329" s="39"/>
       <c r="G329" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H329" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I329" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X52</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B330" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C330" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D330" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E330" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F330" s="39"/>
       <c r="G330" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H330" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I330" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X56</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B331" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C331" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D331" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E331" s="55" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F331" s="39"/>
       <c r="G331" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H331" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I331" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X60</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C332" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D332" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E332" s="55" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F332" s="39"/>
       <c r="G332" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H332" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I332" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X65</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B333" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C333" s="41" t="s">
         <v>551</v>
       </c>
       <c r="D333" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E333" s="55" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F333" s="39"/>
       <c r="G333" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H333" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I333" s="39" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X70</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334" t="s">
         <v>437</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D334" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E334" s="36">
         <v>31</v>
       </c>
       <c r="F334" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G334" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H334" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I334" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/31</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335" t="s">
         <v>437</v>
       </c>
       <c r="B335" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D335" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E335" s="37">
         <v>32</v>
@@ -13560,25 +13564,25 @@
         <v>361</v>
       </c>
       <c r="H335" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I335" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/32</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336" t="s">
         <v>437</v>
       </c>
       <c r="B336" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D336" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E336" s="37">
         <v>33</v>
@@ -13590,25 +13594,25 @@
         <v>362</v>
       </c>
       <c r="H336" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I336" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/33</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" hidden="1">
       <c r="A337" t="s">
         <v>437</v>
       </c>
       <c r="B337" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D337" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E337" s="37">
         <v>34</v>
@@ -13620,25 +13624,25 @@
         <v>363</v>
       </c>
       <c r="H337" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I337" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/34</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" hidden="1">
       <c r="A338" t="s">
         <v>437</v>
       </c>
       <c r="B338" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D338" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E338" s="37">
         <v>35</v>
@@ -13650,25 +13654,25 @@
         <v>364</v>
       </c>
       <c r="H338" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I338" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/35</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" hidden="1">
       <c r="A339" t="s">
         <v>437</v>
       </c>
       <c r="B339" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D339" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E339" s="37">
         <v>36</v>
@@ -13680,55 +13684,55 @@
         <v>120</v>
       </c>
       <c r="H339" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I339" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/36</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" hidden="1">
       <c r="A340" t="s">
         <v>437</v>
       </c>
       <c r="B340" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D340" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E340" s="37">
         <v>37</v>
       </c>
       <c r="F340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H340" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I340" t="str">
         <f t="shared" si="4"/>
         <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/37</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" hidden="1">
       <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B341" s="54" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E341" t="s">
         <v>406</v>
@@ -13737,56 +13741,56 @@
         <v>406</v>
       </c>
       <c r="G341" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H341" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I341" s="54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" hidden="1">
+      <c r="A342" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B342" s="54" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B342" s="54" t="s">
-        <v>783</v>
-      </c>
       <c r="C342" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E342" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F342" t="s">
         <v>407</v>
       </c>
       <c r="G342" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H342" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I342" s="54" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" hidden="1">
+      <c r="A343" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B343" s="54" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B343" s="54" t="s">
-        <v>784</v>
-      </c>
       <c r="C343" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E343" t="s">
         <v>408</v>
@@ -13795,27 +13799,27 @@
         <v>408</v>
       </c>
       <c r="G343" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H343" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I343" s="54" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" hidden="1">
+      <c r="A344" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B344" s="54" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B344" s="54" t="s">
-        <v>785</v>
-      </c>
       <c r="C344" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E344" t="s">
         <v>409</v>
@@ -13824,27 +13828,27 @@
         <v>409</v>
       </c>
       <c r="G344" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H344" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I344" s="54" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" hidden="1">
+      <c r="A345" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B345" s="54" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B345" s="54" t="s">
-        <v>786</v>
-      </c>
       <c r="C345" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E345" t="s">
         <v>410</v>
@@ -13853,27 +13857,27 @@
         <v>410</v>
       </c>
       <c r="G345" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H345" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I345" s="54" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" hidden="1">
       <c r="A346" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E346" t="s">
         <v>434</v>
@@ -13882,7 +13886,7 @@
         <v>411</v>
       </c>
       <c r="G346" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H346" s="9" t="s">
         <v>433</v>
@@ -13892,27 +13896,27 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/talud</v>
       </c>
     </row>
-    <row r="347" spans="1:9" s="39" customFormat="1">
+    <row r="347" spans="1:9" s="39" customFormat="1" hidden="1">
       <c r="A347" s="43" t="s">
         <v>334</v>
       </c>
       <c r="B347" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C347" s="41" t="s">
         <v>359</v>
       </c>
       <c r="D347" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E347" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="F347" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="G347" t="s">
         <v>743</v>
-      </c>
-      <c r="F347" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="G347" t="s">
-        <v>744</v>
       </c>
       <c r="H347" s="44" t="s">
         <v>433</v>
@@ -13922,18 +13926,18 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/BuildingPart</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" hidden="1">
       <c r="A348" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B348" s="54" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E348" t="s">
         <v>412</v>
@@ -13942,27 +13946,27 @@
         <v>412</v>
       </c>
       <c r="G348" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H348" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I348" s="54" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" hidden="1">
       <c r="A349" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E349" t="s">
         <v>413</v>
@@ -13971,7 +13975,7 @@
         <v>413</v>
       </c>
       <c r="G349" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H349" s="9" t="s">
         <v>433</v>
@@ -13981,18 +13985,18 @@
         <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/loods</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" hidden="1">
       <c r="A350" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B350" s="54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E350" t="s">
         <v>414</v>
@@ -14001,27 +14005,27 @@
         <v>414</v>
       </c>
       <c r="G350" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H350" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I350" s="54" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1">
+      <c r="A351" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B351" s="54" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="351" spans="1:9">
-      <c r="A351" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B351" s="54" t="s">
-        <v>789</v>
-      </c>
       <c r="C351" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E351" t="s">
         <v>415</v>
@@ -14030,27 +14034,27 @@
         <v>415</v>
       </c>
       <c r="G351" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H351" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I351" s="54" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" hidden="1">
+      <c r="A352" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B352" s="54" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="352" spans="1:9">
-      <c r="A352" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B352" s="54" t="s">
-        <v>790</v>
-      </c>
       <c r="C352" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E352" t="s">
         <v>416</v>
@@ -14059,27 +14063,27 @@
         <v>416</v>
       </c>
       <c r="G352" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H352" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I352" s="54" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" hidden="1">
+      <c r="A353" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B353" s="54" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="353" spans="1:9">
-      <c r="A353" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B353" s="54" t="s">
-        <v>791</v>
-      </c>
       <c r="C353" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E353" t="s">
         <v>417</v>
@@ -14088,27 +14092,27 @@
         <v>417</v>
       </c>
       <c r="G353" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H353" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I353" s="54" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" hidden="1">
+      <c r="A354" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B354" s="54" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="354" spans="1:9">
-      <c r="A354" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B354" s="54" t="s">
-        <v>792</v>
-      </c>
       <c r="C354" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E354" t="s">
         <v>418</v>
@@ -14117,27 +14121,27 @@
         <v>418</v>
       </c>
       <c r="G354" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H354" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I354" s="54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" hidden="1">
+      <c r="A355" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B355" s="54" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="355" spans="1:9">
-      <c r="A355" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B355" s="54" t="s">
-        <v>793</v>
-      </c>
       <c r="C355" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D355" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E355" t="s">
         <v>419</v>
@@ -14146,27 +14150,27 @@
         <v>419</v>
       </c>
       <c r="G355" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I355" s="54" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" hidden="1">
+      <c r="A356" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B356" s="54" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="356" spans="1:9">
-      <c r="A356" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B356" s="54" t="s">
-        <v>794</v>
-      </c>
       <c r="C356" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D356" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E356" t="s">
         <v>420</v>
@@ -14175,27 +14179,27 @@
         <v>420</v>
       </c>
       <c r="G356" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H356" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I356" s="54" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" hidden="1">
+      <c r="A357" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B357" s="54" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="357" spans="1:9">
-      <c r="A357" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B357" s="54" t="s">
-        <v>795</v>
-      </c>
       <c r="C357" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D357" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E357" t="s">
         <v>185</v>
@@ -14204,27 +14208,27 @@
         <v>185</v>
       </c>
       <c r="G357" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I357" s="54" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B358" s="54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D358" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E358" t="s">
         <v>421</v>
@@ -14233,27 +14237,27 @@
         <v>421</v>
       </c>
       <c r="G358" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H358" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I358" s="54" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B359" s="54" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D359" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E359" t="s">
         <v>422</v>
@@ -14262,56 +14266,56 @@
         <v>422</v>
       </c>
       <c r="G359" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H359" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I359" s="54" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B360" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D360" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E360" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F360" t="s">
         <v>423</v>
       </c>
       <c r="G360" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H360" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I360" s="54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" hidden="1">
+      <c r="A361" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B361" s="54" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="361" spans="1:9">
-      <c r="A361" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B361" s="54" t="s">
-        <v>799</v>
-      </c>
       <c r="C361" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D361" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E361" t="s">
         <v>424</v>
@@ -14320,27 +14324,27 @@
         <v>424</v>
       </c>
       <c r="G361" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H361" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I361" s="54" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" hidden="1">
+      <c r="A362" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B362" s="54" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="362" spans="1:9">
-      <c r="A362" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B362" s="54" t="s">
-        <v>800</v>
-      </c>
       <c r="C362" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D362" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E362" t="s">
         <v>425</v>
@@ -14349,56 +14353,56 @@
         <v>425</v>
       </c>
       <c r="G362" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H362" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I362" s="54" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" hidden="1">
+      <c r="A363" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B363" s="54" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="363" spans="1:9">
-      <c r="A363" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B363" s="54" t="s">
-        <v>801</v>
-      </c>
       <c r="C363" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D363" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E363" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F363" t="s">
         <v>426</v>
       </c>
       <c r="G363" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H363" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I363" s="54" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" hidden="1">
+      <c r="A364" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B364" s="54" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="364" spans="1:9">
-      <c r="A364" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B364" s="54" t="s">
-        <v>802</v>
-      </c>
       <c r="C364" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D364" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E364" t="s">
         <v>427</v>
@@ -14407,56 +14411,56 @@
         <v>427</v>
       </c>
       <c r="G364" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H364" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I364" s="54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" hidden="1">
+      <c r="A365" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B365" s="54" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="365" spans="1:9">
-      <c r="A365" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B365" s="54" t="s">
-        <v>803</v>
-      </c>
       <c r="C365" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D365" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E365" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F365" t="s">
         <v>428</v>
       </c>
       <c r="G365" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H365" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I365" s="54" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" hidden="1">
+      <c r="A366" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B366" s="54" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="366" spans="1:9">
-      <c r="A366" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B366" s="54" t="s">
-        <v>804</v>
-      </c>
       <c r="C366" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D366" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E366" t="s">
         <v>429</v>
@@ -14465,27 +14469,27 @@
         <v>429</v>
       </c>
       <c r="G366" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H366" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I366" s="54" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" hidden="1">
+      <c r="A367" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B367" s="54" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="367" spans="1:9">
-      <c r="A367" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B367" s="54" t="s">
-        <v>805</v>
-      </c>
       <c r="C367" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D367" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E367" t="s">
         <v>430</v>
@@ -14494,27 +14498,27 @@
         <v>430</v>
       </c>
       <c r="G367" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H367" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I367" s="54" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" hidden="1">
+      <c r="A368" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B368" s="54" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="368" spans="1:9">
-      <c r="A368" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B368" s="54" t="s">
-        <v>806</v>
-      </c>
       <c r="C368" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D368" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E368" t="s">
         <v>431</v>
@@ -14523,27 +14527,27 @@
         <v>431</v>
       </c>
       <c r="G368" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H368" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I368" s="54" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" hidden="1">
+      <c r="A369" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B369" s="54" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="369" spans="1:9">
-      <c r="A369" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B369" s="54" t="s">
-        <v>807</v>
-      </c>
       <c r="C369" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D369" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E369" t="s">
         <v>435</v>
@@ -14552,27 +14556,27 @@
         <v>432</v>
       </c>
       <c r="G369" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H369" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I369" s="54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" hidden="1">
+      <c r="A370" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B370" s="54" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="370" spans="1:9">
-      <c r="A370" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B370" s="54" t="s">
-        <v>808</v>
-      </c>
       <c r="C370" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D370" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E370" t="s">
         <v>187</v>
@@ -14581,17 +14585,23 @@
         <v>187</v>
       </c>
       <c r="G370" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H370" s="9" t="s">
         <v>433</v>
       </c>
       <c r="I370" s="54" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I370"/>
+  <autoFilter ref="A1:I370">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="ContainerLeidingElementTypeValue"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:G62">
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>
@@ -14654,8 +14664,8 @@
     <hyperlink ref="I370" r:id="rId55" location="TypePutPlus_kolk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId56"/>
-  <legacyDrawing r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId56"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14665,22 +14675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -14697,7 +14707,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -14708,7 +14718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14719,7 +14729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -14730,7 +14740,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -14741,7 +14751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -14752,7 +14762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14763,7 +14773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14774,7 +14784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -14785,7 +14795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14796,7 +14806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14807,7 +14817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -14818,7 +14828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -14829,7 +14839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14840,7 +14850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14851,7 +14861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14862,7 +14872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14873,7 +14883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14884,7 +14894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14895,7 +14905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14906,7 +14916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14917,7 +14927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14928,7 +14938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14939,7 +14949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14950,7 +14960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14961,7 +14971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14972,7 +14982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15" thickBot="1">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -15055,23 +15065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -15091,7 +15101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>191</v>
       </c>
@@ -15108,7 +15118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>191</v>
       </c>
@@ -15125,7 +15135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>191</v>
       </c>
@@ -15142,7 +15152,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>191</v>
       </c>
@@ -15159,7 +15169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>191</v>
       </c>
@@ -15176,7 +15186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>191</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>191</v>
       </c>
@@ -15210,7 +15220,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>191</v>
       </c>
@@ -15227,7 +15237,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>191</v>
       </c>
@@ -15244,7 +15254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>191</v>
       </c>
@@ -15261,7 +15271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>191</v>
       </c>
@@ -15278,7 +15288,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>191</v>
       </c>
@@ -16077,22 +16087,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -16109,7 +16119,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -16120,7 +16130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -16131,7 +16141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -16142,7 +16152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -16153,7 +16163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -16164,7 +16174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -16175,7 +16185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -16186,7 +16196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -16197,7 +16207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -16208,7 +16218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -16219,7 +16229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -16230,7 +16240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>

--- a/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
+++ b/3. waardelijsten/IMKL2015 - 0.91 waardelijsten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39700" yWindow="320" windowWidth="24240" windowHeight="13740" tabRatio="310" activeTab="1"/>
+    <workbookView xWindow="39705" yWindow="315" windowWidth="24240" windowHeight="13740" tabRatio="310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="Olie-gas-chemie" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!$A$1:$I$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Waardelijst!$A$1:$J$370</definedName>
     <definedName name="IMKL">Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">Toelichting!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,12 +84,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I107" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wilko Quak:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This whole codelists seems to have dissappeared from INSPIRE. What now?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="824">
   <si>
     <t>attribuut</t>
   </si>
@@ -2587,9 +2611,6 @@
     <t>annotatielijn</t>
   </si>
   <si>
-    <t>http://www.geonovum.nl/imkl2015/1.0/id/</t>
-  </si>
-  <si>
     <t>FRP</t>
   </si>
   <si>
@@ -2717,6 +2738,24 @@
   </si>
   <si>
     <t>imkl:containerLeidingElementType</t>
+  </si>
+  <si>
+    <t>Waardelijstnaam in UML</t>
+  </si>
+  <si>
+    <t>BuisleidingTypeValue</t>
+  </si>
+  <si>
+    <t>ContainerLeidingelementTypeValue</t>
+  </si>
+  <si>
+    <t>EffectScenarioType</t>
+  </si>
+  <si>
+    <t>AppurtenanceTypeValue</t>
+  </si>
+  <si>
+    <t>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/</t>
   </si>
 </sst>
 </file>
@@ -3718,20 +3757,20 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="C22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>252</v>
       </c>
@@ -3740,12 +3779,9 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3756,28 +3792,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:J370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D375" sqref="D375"/>
+      <selection pane="bottomLeft" activeCell="I372" sqref="I372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="9" width="42.7109375" customWidth="1"/>
+    <col min="10" max="10" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>333</v>
       </c>
@@ -3803,10 +3838,13 @@
         <v>229</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" hidden="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>334</v>
       </c>
@@ -3831,12 +3869,15 @@
       <c r="H2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I86" si="0">IF(B2="inspire",INSPIRE,IMKL) &amp; H2 &amp; "/" &amp; E2</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijlpunt</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" hidden="1">
+      <c r="I2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J86" si="0">IF(B2="inspire",INSPIRE,IMKL) &amp; H2 &amp; "/" &amp; E2</f>
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/AnnotatieTypeValue/annotatiepijlpunt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>334</v>
       </c>
@@ -3861,12 +3902,15 @@
       <c r="H3" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatiepijn</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/AnnotatieTypeValue/annotatiepijn</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>334</v>
       </c>
@@ -3891,12 +3935,15 @@
       <c r="H4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/AnnotatieTypeValue/annotatielabel</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/AnnotatieTypeValue/annotatielabel</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>334</v>
       </c>
@@ -3921,12 +3968,15 @@
       <c r="H5" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PNG</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BestandMediaTypeValue/PNG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>334</v>
       </c>
@@ -3951,12 +4001,15 @@
       <c r="H6" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/PDF</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BestandMediaTypeValue/PDF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>334</v>
       </c>
@@ -3981,12 +4034,15 @@
       <c r="H7" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/JPEG</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BestandMediaTypeValue/JPEG</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>334</v>
       </c>
@@ -4011,12 +4067,15 @@
       <c r="H8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BestandMediaTypeValue/TIFF</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BestandMediaTypeValue/TIFF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>334</v>
       </c>
@@ -4041,12 +4100,15 @@
       <c r="H9" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/algemeen</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BijlageTypeValue/algemeen</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>334</v>
       </c>
@@ -4071,12 +4133,15 @@
       <c r="H10" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/eisVoorzorgsmaatregel</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BijlageTypeValue/eisVoorzorgsmaatregel</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>334</v>
       </c>
@@ -4101,12 +4166,15 @@
       <c r="H11" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/nietBetrokken</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BijlageTypeValue/nietBetrokken</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>334</v>
       </c>
@@ -4131,12 +4199,15 @@
       <c r="H12" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BijlageTypeValue/verzoekTotContact</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BijlageTypeValue/verzoekTotContact</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4161,12 +4232,15 @@
       <c r="H13" t="s">
         <v>232</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" hidden="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>334</v>
       </c>
@@ -4191,12 +4265,15 @@
       <c r="H14" t="s">
         <v>232</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" hidden="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>334</v>
       </c>
@@ -4221,12 +4298,15 @@
       <c r="H15" t="s">
         <v>232</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>334</v>
       </c>
@@ -4251,12 +4331,15 @@
       <c r="H16" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot30cm</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidDiepteValue/tot30cm</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>334</v>
       </c>
@@ -4281,12 +4364,15 @@
       <c r="H17" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot50cm</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidDiepteValue/tot50cm</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>334</v>
       </c>
@@ -4311,12 +4397,15 @@
       <c r="H18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/tot100cm</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidDiepteValue/tot100cm</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>334</v>
       </c>
@@ -4341,12 +4430,15 @@
       <c r="H19" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidDiepteValue/onbekend</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidDiepteValue/onbekend</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>334</v>
       </c>
@@ -4371,12 +4463,15 @@
       <c r="H20" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/bovenkant</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/DiepteAangrijpingspuntValue/bovenkant</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>334</v>
       </c>
@@ -4401,12 +4496,15 @@
       <c r="H21" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/DiepteAangrijpingspuntValue/binnenonderkantBuis</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/DiepteAangrijpingspuntValue/binnenonderkantBuis</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>334</v>
       </c>
@@ -4431,12 +4529,15 @@
       <c r="H22" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/aansluiting</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ExtraDetailInfoTypeValue/aansluiting</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>334</v>
       </c>
@@ -4461,12 +4562,15 @@
       <c r="H23" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/huisaansluiting</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ExtraDetailInfoTypeValue/huisaansluiting</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -4491,12 +4595,15 @@
       <c r="H24" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/profielschets</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="35" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ExtraDetailInfoTypeValue/profielschets</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>334</v>
       </c>
@@ -4521,12 +4628,15 @@
       <c r="H25" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I25" s="56" t="str">
+      <c r="I25" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ExtraDetailInfoTypeValue/overig</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ExtraDetailInfoTypeValue/overig</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>334</v>
       </c>
@@ -4551,12 +4661,15 @@
       <c r="H26" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="I26" s="39" t="str">
+      <c r="I26" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="J26" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EigenTopografieStatusValue/bestaand</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>334</v>
       </c>
@@ -4581,12 +4694,15 @@
       <c r="H27" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="I27" s="39" t="str">
+      <c r="I27" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="J27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="49" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EigenTopografieStatusValue/plan</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>334</v>
       </c>
@@ -4611,12 +4727,15 @@
       <c r="H28" s="51" t="s">
         <v>766</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/authority</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="49" customFormat="1" hidden="1">
+    <row r="29" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>334</v>
       </c>
@@ -4641,12 +4760,15 @@
       <c r="H29" s="51" t="s">
         <v>766</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/operator</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="49" customFormat="1" hidden="1">
+    <row r="30" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>334</v>
       </c>
@@ -4671,12 +4793,15 @@
       <c r="H30" s="51" t="s">
         <v>766</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/RelatedPartyRoleValue/owner</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>334</v>
       </c>
@@ -4701,12 +4826,15 @@
       <c r="H31" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot30cm</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidXYvalue/tot30cm</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>334</v>
       </c>
@@ -4731,12 +4859,15 @@
       <c r="H32" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot50cm</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidXYvalue/tot50cm</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>334</v>
       </c>
@@ -4761,12 +4892,15 @@
       <c r="H33" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/NauwkeurigheidXYvalue/tot100cm</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/NauwkeurigheidXYvalue/tot100cm</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>334</v>
       </c>
@@ -4791,12 +4925,15 @@
       <c r="H34" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/MaatvoeringsTypeValue/maatvoeringshulplijn</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
@@ -4821,12 +4958,15 @@
       <c r="H35" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslijn</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/MaatvoeringsTypeValue/maatvoeringslijn</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>334</v>
       </c>
@@ -4851,12 +4991,15 @@
       <c r="H36" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/MaatvoeringsTypeValue/maatvoeringspijlpunt</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>334</v>
       </c>
@@ -4881,12 +5024,15 @@
       <c r="H37" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/MaatvoeringsTypeValue/maatvoeringslabel</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>334</v>
       </c>
@@ -4911,12 +5057,15 @@
       <c r="H38" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/MaatvoeringsTypeValue/maatvoeringslabel</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/MaatvoeringsTypeValue/maatvoeringslabel</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>334</v>
       </c>
@@ -4941,12 +5090,15 @@
       <c r="H39" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/buisleidingGevaarlijkeInhoud</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="84" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/buisleidingGevaarlijkeInhoud</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>334</v>
       </c>
@@ -4968,12 +5120,15 @@
       <c r="H40" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/datatransport</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/datatransport</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>334</v>
       </c>
@@ -4998,12 +5153,15 @@
       <c r="H41" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasLageDruk</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/gasLageDruk</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>334</v>
       </c>
@@ -5028,12 +5186,15 @@
       <c r="H42" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/gasHogeDruk</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/gasHogeDruk</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>334</v>
       </c>
@@ -5058,12 +5219,15 @@
       <c r="H43" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/petrochemie</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/petrochemie</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
@@ -5088,12 +5252,15 @@
       <c r="H44" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/landelijkHoogspanningsnet</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/landelijkHoogspanningsnet</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>334</v>
       </c>
@@ -5118,12 +5285,15 @@
       <c r="H45" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/hoogspanning</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="12" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/hoogspanning</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>334</v>
       </c>
@@ -5148,12 +5318,15 @@
       <c r="H46" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/laagspanning</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/laagspanning</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>334</v>
       </c>
@@ -5178,12 +5351,15 @@
       <c r="H47" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/middenspanning</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/middenspanning</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -5208,12 +5384,15 @@
       <c r="H48" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolVrijverval</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="52" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/rioolVrijverval</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>334</v>
       </c>
@@ -5238,12 +5417,15 @@
       <c r="H49" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/rioolOnderOverOfOnderdruk</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/rioolOnderOverOfOnderdruk</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>334</v>
       </c>
@@ -5268,12 +5450,15 @@
       <c r="H50" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/warmte</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" hidden="1" customHeight="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/warmte</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>334</v>
       </c>
@@ -5298,12 +5483,15 @@
       <c r="H51" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/water</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/water</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>334</v>
       </c>
@@ -5328,12 +5516,15 @@
       <c r="H52" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/wees</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/wees</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>334</v>
       </c>
@@ -5358,12 +5549,15 @@
       <c r="H53" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/Thema/overig</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/Thema/overig</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>334</v>
       </c>
@@ -5388,12 +5582,15 @@
       <c r="H54" t="s">
         <v>237</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>334</v>
       </c>
@@ -5418,12 +5615,15 @@
       <c r="H55" t="s">
         <v>237</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>334</v>
       </c>
@@ -5448,12 +5648,15 @@
       <c r="H56" t="s">
         <v>237</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>334</v>
       </c>
@@ -5478,12 +5681,15 @@
       <c r="H57" t="s">
         <v>237</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" t="s">
+        <v>237</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>334</v>
       </c>
@@ -5508,12 +5714,15 @@
       <c r="H58" t="s">
         <v>238</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>334</v>
       </c>
@@ -5538,12 +5747,15 @@
       <c r="H59" t="s">
         <v>238</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>334</v>
       </c>
@@ -5568,12 +5780,15 @@
       <c r="H60" t="s">
         <v>238</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" t="s">
+        <v>238</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>334</v>
       </c>
@@ -5598,12 +5813,15 @@
       <c r="H61" t="s">
         <v>238</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>334</v>
       </c>
@@ -5628,12 +5846,15 @@
       <c r="H62" t="s">
         <v>238</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>334</v>
       </c>
@@ -5658,12 +5879,15 @@
       <c r="H63" t="s">
         <v>238</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" t="s">
+        <v>238</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>334</v>
       </c>
@@ -5688,12 +5912,15 @@
       <c r="H64" t="s">
         <v>239</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>334</v>
       </c>
@@ -5718,12 +5945,15 @@
       <c r="H65" t="s">
         <v>239</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>334</v>
       </c>
@@ -5748,12 +5978,15 @@
       <c r="H66" t="s">
         <v>239</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J66" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
         <v>690</v>
@@ -5773,12 +6006,15 @@
       <c r="H67" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="J67" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/brandbaar</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EffectScenarionType/brandbaar</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
         <v>690</v>
@@ -5798,12 +6034,15 @@
       <c r="H68" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="J68" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/explosief</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EffectScenarionType/explosief</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
         <v>690</v>
@@ -5823,12 +6062,15 @@
       <c r="H69" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="J69" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/toxisch</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EffectScenarionType/toxisch</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
         <v>690</v>
@@ -5848,12 +6090,15 @@
       <c r="H70" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="J70" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EffectScenarionType/scherfwerking</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="42">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EffectScenarionType/scherfwerking</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>334</v>
       </c>
@@ -5864,7 +6109,7 @@
         <v>359</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E71" t="s">
         <v>365</v>
@@ -5878,12 +6123,15 @@
       <c r="H71" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J71" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/toren</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ContainerLeidingElementTypeValue/toren</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>334</v>
       </c>
@@ -5894,7 +6142,7 @@
         <v>359</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E72" t="s">
         <v>366</v>
@@ -5908,12 +6156,15 @@
       <c r="H72" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J72" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/mast</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="42">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ContainerLeidingElementTypeValue/mast</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>334</v>
       </c>
@@ -5924,7 +6175,7 @@
         <v>359</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E73" t="s">
         <v>367</v>
@@ -5938,12 +6189,15 @@
       <c r="H73" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J73" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/mangat</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ContainerLeidingElementTypeValue/mangat</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>334</v>
       </c>
@@ -5954,7 +6208,7 @@
         <v>359</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E74" t="s">
         <v>368</v>
@@ -5968,12 +6222,15 @@
       <c r="H74" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J74" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/kast</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ContainerLeidingElementTypeValue/kast</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>334</v>
       </c>
@@ -5984,7 +6241,7 @@
         <v>359</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E75" t="s">
         <v>369</v>
@@ -5998,12 +6255,15 @@
       <c r="H75" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J75" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ContainerLeidingElementTypeValue/technischGebouw</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ContainerLeidingElementTypeValue/technischGebouw</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>334</v>
       </c>
@@ -6025,12 +6285,15 @@
       <c r="H76" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J76" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingenType/overig</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="28" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingenType/overig</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>334</v>
       </c>
@@ -6055,12 +6318,15 @@
       <c r="H77" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="J77" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/bestaand</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="28" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EigenTopografieStatusValue/bestaand</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>334</v>
       </c>
@@ -6085,12 +6351,15 @@
       <c r="H78" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="J78" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/EigenTopografieStatusValue/plan</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/EigenTopografieStatusValue/plan</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>491</v>
       </c>
@@ -6115,12 +6384,15 @@
       <c r="H79" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J79" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/aarding</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>491</v>
       </c>
@@ -6145,12 +6417,15 @@
       <c r="H80" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J80" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/mof</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/mof</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>491</v>
       </c>
@@ -6175,12 +6450,15 @@
       <c r="H81" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J81" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/hoogteligging</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>491</v>
       </c>
@@ -6205,12 +6483,15 @@
       <c r="H82" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="I82" s="39" t="str">
+      <c r="I82" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J82" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/adrespunt</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>491</v>
       </c>
@@ -6235,12 +6516,15 @@
       <c r="H83" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I83" s="39" t="str">
+      <c r="I83" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J83" s="39" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="84" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>491</v>
       </c>
@@ -6265,12 +6549,15 @@
       <c r="H84" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I84" s="39" t="str">
+      <c r="I84" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J84" s="39" t="str">
         <f>IF(B84="inspire",INSPIRE,IMKL) &amp; H84 &amp; "/" &amp; E84</f>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="85" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>491</v>
       </c>
@@ -6295,12 +6582,15 @@
       <c r="H85" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I85" s="39" t="str">
+      <c r="I85" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J85" s="39" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/generator</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="86" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>491</v>
       </c>
@@ -6325,12 +6615,15 @@
       <c r="H86" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I86" s="39" t="str">
+      <c r="I86" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J86" s="39" t="str">
         <f t="shared" si="0"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/mainStation</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="87" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>491</v>
       </c>
@@ -6355,12 +6648,15 @@
       <c r="H87" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I87" s="39" t="str">
-        <f t="shared" ref="I87:I149" si="1">IF(B87="inspire",INSPIRE,IMKL) &amp; H87 &amp; "/" &amp; E87</f>
+      <c r="I87" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J87" s="39" t="str">
+        <f t="shared" ref="J87:J149" si="1">IF(B87="inspire",INSPIRE,IMKL) &amp; H87 &amp; "/" &amp; E87</f>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/netStation</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="88" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>491</v>
       </c>
@@ -6385,12 +6681,15 @@
       <c r="H88" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I88" s="39" t="str">
+      <c r="I88" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J88" s="39" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="39" customFormat="1" hidden="1">
+    <row r="89" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>491</v>
       </c>
@@ -6415,12 +6714,15 @@
       <c r="H89" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="I89" s="39" t="str">
+      <c r="I89" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J89" s="39" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/subStation</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>491</v>
       </c>
@@ -6445,12 +6747,15 @@
       <c r="H90" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="28" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/geulmof</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -6475,12 +6780,15 @@
       <c r="H91" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/kbMeetpunt</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>491</v>
       </c>
@@ -6505,12 +6813,15 @@
       <c r="H92" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J92" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/kbInstallatie</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -6535,12 +6846,15 @@
       <c r="H93" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J93" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/kbEindpunt</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>491</v>
       </c>
@@ -6565,12 +6879,15 @@
       <c r="H94" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/kbContact</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>491</v>
       </c>
@@ -6595,12 +6912,15 @@
       <c r="H95" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J95" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ElectricityAppurtenanceTypeIMKLValue/hoogbouwkoppelpunt</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>335</v>
       </c>
@@ -6625,12 +6945,15 @@
       <c r="H96" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J96" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/antenna</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>335</v>
       </c>
@@ -6655,12 +6978,15 @@
       <c r="H97" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J97" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/termination</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>335</v>
       </c>
@@ -6685,12 +7011,15 @@
       <c r="H98" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J98" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/handhole</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>335</v>
       </c>
@@ -6715,12 +7044,15 @@
       <c r="H99" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J99" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/mof</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>335</v>
       </c>
@@ -6745,12 +7077,15 @@
       <c r="H100" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="I100" s="39" t="str">
+      <c r="I100" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J100" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/nietBenoemd</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>335</v>
       </c>
@@ -6775,12 +7110,15 @@
       <c r="H101" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J101" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/kabelverdeler</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>335</v>
       </c>
@@ -6805,12 +7143,15 @@
       <c r="H102" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J102" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/Stijgleiding</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>335</v>
       </c>
@@ -6835,12 +7176,15 @@
       <c r="H103" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="I103" s="39" t="str">
+      <c r="I103" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J103" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/GTWP</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -6865,12 +7209,15 @@
       <c r="H104" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J104" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/afdekplaten</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>335</v>
       </c>
@@ -6895,12 +7242,15 @@
       <c r="H105" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J105" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/doorvoerramen</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>335</v>
       </c>
@@ -6922,12 +7272,15 @@
       <c r="H106" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J106" t="str">
         <f>IF(B106="inspire",INSPIRE,IMKL) &amp; H106 &amp; "/" &amp; E106</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsAppurtenanceIMKLTypeValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>335</v>
       </c>
@@ -6952,12 +7305,15 @@
       <c r="H107" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I107" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J107" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/coaxial</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsCableMaterialTypeValue/coaxial</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>335</v>
       </c>
@@ -6982,12 +7338,15 @@
       <c r="H108" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J108" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsCableMaterialTypeValue/opticalFiber</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>335</v>
       </c>
@@ -7012,12 +7371,15 @@
       <c r="H109" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J109" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TelecommunicationsCableMaterialTypeValue/twistedPair</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>437</v>
       </c>
@@ -7042,12 +7404,15 @@
       <c r="H110" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J110" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/buis</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>437</v>
       </c>
@@ -7072,12 +7437,15 @@
       <c r="H111" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J111" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/bocht</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>437</v>
       </c>
@@ -7102,12 +7470,15 @@
       <c r="H112" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J112" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/tstuk</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>437</v>
       </c>
@@ -7132,12 +7503,15 @@
       <c r="H113" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I113" t="str">
+      <c r="I113" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J113" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/bodem</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>437</v>
       </c>
@@ -7162,12 +7536,15 @@
       <c r="H114" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I114" t="str">
+      <c r="I114" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J114" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/lasnok</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -7192,12 +7569,15 @@
       <c r="H115" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I115" t="str">
+      <c r="I115" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J115" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/expansiestuk</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -7222,12 +7602,15 @@
       <c r="H116" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I116" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J116" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatieKoppeling</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>437</v>
       </c>
@@ -7252,12 +7635,15 @@
       <c r="H117" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I117" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J117" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/vloeistofvanger</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>437</v>
       </c>
@@ -7282,12 +7668,15 @@
       <c r="H118" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I118" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J118" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/raaginrichting</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>437</v>
       </c>
@@ -7312,12 +7701,15 @@
       <c r="H119" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I119" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J119" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/algemeenGasTransportOnderdeel</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>437</v>
       </c>
@@ -7342,12 +7734,15 @@
       <c r="H120" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I120" t="str">
+      <c r="I120" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/mud</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductIMKLTypeValue/mud</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>437</v>
       </c>
@@ -7372,12 +7767,15 @@
       <c r="H121" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I121" t="str">
+      <c r="I121" t="s">
+        <v>242</v>
+      </c>
+      <c r="J121" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/methanol</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductIMKLTypeValue/methanol</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>437</v>
       </c>
@@ -7402,12 +7800,15 @@
       <c r="H122" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I122" t="s">
+        <v>242</v>
+      </c>
+      <c r="J122" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductIMKLTypeValue/emulsie</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>437</v>
       </c>
@@ -7432,12 +7833,15 @@
       <c r="H123" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I123" t="str">
+      <c r="I123" t="s">
+        <v>242</v>
+      </c>
+      <c r="J123" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/glycol</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductIMKLTypeValue/glycol</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>437</v>
       </c>
@@ -7462,12 +7866,15 @@
       <c r="H124" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I124" t="str">
+      <c r="I124" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J124" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogbouwkoppelpunt</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>437</v>
       </c>
@@ -7492,12 +7899,15 @@
       <c r="H125" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I125" t="str">
+      <c r="I125" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J125" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/ontluchting</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>437</v>
       </c>
@@ -7522,12 +7932,15 @@
       <c r="H126" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I126" t="str">
+      <c r="I126" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J126" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/aftakzadel</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>437</v>
       </c>
@@ -7552,12 +7965,15 @@
       <c r="H127" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I127" t="str">
+      <c r="I127" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J127" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/overgangsstuk</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>437</v>
       </c>
@@ -7582,12 +7998,15 @@
       <c r="H128" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I128" t="str">
+      <c r="I128" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J128" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/isolatiestuk</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>437</v>
       </c>
@@ -7612,12 +8031,15 @@
       <c r="H129" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I129" t="str">
+      <c r="I129" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J129" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/ontspanningselement</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>437</v>
       </c>
@@ -7642,12 +8064,15 @@
       <c r="H130" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I130" t="str">
+      <c r="I130" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J130" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/hoogteligging</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>437</v>
       </c>
@@ -7672,12 +8097,15 @@
       <c r="H131" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I131" t="str">
+      <c r="I131" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J131" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/adrespunt</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>437</v>
       </c>
@@ -7702,12 +8130,15 @@
       <c r="H132" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I132" t="str">
+      <c r="I132" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J132" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/eindkap</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>437</v>
       </c>
@@ -7732,12 +8163,15 @@
       <c r="H133" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I133" t="str">
+      <c r="I133" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J133" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/verloopstuk</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>437</v>
       </c>
@@ -7762,12 +8196,15 @@
       <c r="H134" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I134" t="str">
+      <c r="I134" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J134" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/afsluiter</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>437</v>
       </c>
@@ -7792,12 +8229,15 @@
       <c r="H135" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I135" t="str">
+      <c r="I135" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J135" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/meetpunt</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>437</v>
       </c>
@@ -7822,12 +8262,15 @@
       <c r="H136" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I136" t="str">
+      <c r="I136" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J136" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/sifon</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -7852,12 +8295,15 @@
       <c r="H137" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I137" t="str">
+      <c r="I137" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J137" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/blaasgat</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -7882,12 +8328,15 @@
       <c r="H138" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I138" t="str">
+      <c r="I138" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J138" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsAppurtenanceIMKLTypeValue/kbMeetpunt</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>437</v>
       </c>
@@ -7912,12 +8361,15 @@
       <c r="H139" t="s">
         <v>280</v>
       </c>
-      <c r="I139" t="str">
+      <c r="I139" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J139" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/gasStation</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>437</v>
       </c>
@@ -7942,12 +8394,15 @@
       <c r="H140" t="s">
         <v>280</v>
       </c>
-      <c r="I140" t="str">
+      <c r="I140" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J140" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>437</v>
       </c>
@@ -7972,12 +8427,15 @@
       <c r="H141" t="s">
         <v>280</v>
       </c>
-      <c r="I141" t="str">
+      <c r="I141" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J141" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>437</v>
       </c>
@@ -8002,12 +8460,15 @@
       <c r="H142" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I142" t="str">
+      <c r="I142" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J142" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>437</v>
       </c>
@@ -8032,12 +8493,15 @@
       <c r="H143" t="s">
         <v>280</v>
       </c>
-      <c r="I143" t="str">
+      <c r="I143" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J143" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/productionRegion</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>437</v>
       </c>
@@ -8062,12 +8526,15 @@
       <c r="H144" t="s">
         <v>280</v>
       </c>
-      <c r="I144" t="str">
+      <c r="I144" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J144" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pumpingStation</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>437</v>
       </c>
@@ -8092,12 +8559,15 @@
       <c r="H145" t="s">
         <v>280</v>
       </c>
-      <c r="I145" t="str">
+      <c r="I145" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J145" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -8122,12 +8592,15 @@
       <c r="H146" t="s">
         <v>280</v>
       </c>
-      <c r="I146" t="str">
+      <c r="I146" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J146" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/storage</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>437</v>
       </c>
@@ -8152,12 +8625,15 @@
       <c r="H147" t="s">
         <v>280</v>
       </c>
-      <c r="I147" t="str">
+      <c r="I147" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J147" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/terminal</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -8182,12 +8658,15 @@
       <c r="H148" t="s">
         <v>242</v>
       </c>
-      <c r="I148" t="str">
+      <c r="I148" t="s">
+        <v>242</v>
+      </c>
+      <c r="J148" t="str">
         <f t="shared" si="1"/>
         <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsProductTypeValue/naturalGas</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>437</v>
       </c>
@@ -8212,12 +8691,15 @@
       <c r="H149" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I149" t="str">
+      <c r="I149" t="s">
+        <v>242</v>
+      </c>
+      <c r="J149" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductIMKLTypeValue/bioGas</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -8242,12 +8724,15 @@
       <c r="H150" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I150" t="str">
-        <f t="shared" ref="I150:I213" si="2">IF(B150="inspire",INSPIRE,IMKL) &amp; H150 &amp; "/" &amp; E150</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/accetone</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1">
+      <c r="I150" t="s">
+        <v>242</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" ref="J150:J213" si="2">IF(B150="inspire",INSPIRE,IMKL) &amp; H150 &amp; "/" &amp; E150</f>
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/accetone</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>437</v>
       </c>
@@ -8272,12 +8757,15 @@
       <c r="H151" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I151" t="str">
+      <c r="I151" t="s">
+        <v>242</v>
+      </c>
+      <c r="J151" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/air</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/air</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -8302,12 +8790,15 @@
       <c r="H152" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I152" t="str">
+      <c r="I152" t="s">
+        <v>242</v>
+      </c>
+      <c r="J152" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/argon</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/argon</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>437</v>
       </c>
@@ -8332,12 +8823,15 @@
       <c r="H153" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I153" t="str">
+      <c r="I153" t="s">
+        <v>242</v>
+      </c>
+      <c r="J153" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/butadiene1.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>437</v>
       </c>
@@ -8362,12 +8856,15 @@
       <c r="H154" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I154" t="str">
+      <c r="I154" t="s">
+        <v>242</v>
+      </c>
+      <c r="J154" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butadiene1.3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/butadiene1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>437</v>
       </c>
@@ -8392,12 +8889,15 @@
       <c r="H155" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I155" t="str">
+      <c r="I155" t="s">
+        <v>242</v>
+      </c>
+      <c r="J155" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/butane</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/butane</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>437</v>
       </c>
@@ -8422,12 +8922,15 @@
       <c r="H156" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I156" t="str">
+      <c r="I156" t="s">
+        <v>242</v>
+      </c>
+      <c r="J156" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/carbonMonoxide</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>437</v>
       </c>
@@ -8452,12 +8955,15 @@
       <c r="H157" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I157" t="str">
+      <c r="I157" t="s">
+        <v>242</v>
+      </c>
+      <c r="J157" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/chlorine</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/chlorine</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>437</v>
       </c>
@@ -8482,12 +8988,15 @@
       <c r="H158" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I158" t="str">
+      <c r="I158" t="s">
+        <v>242</v>
+      </c>
+      <c r="J158" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/concrete</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/concrete</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>437</v>
       </c>
@@ -8512,12 +9021,15 @@
       <c r="H159" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I159" t="str">
+      <c r="I159" t="s">
+        <v>242</v>
+      </c>
+      <c r="J159" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/crude</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/crude</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>437</v>
       </c>
@@ -8542,12 +9054,15 @@
       <c r="H160" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I160" t="str">
+      <c r="I160" t="s">
+        <v>242</v>
+      </c>
+      <c r="J160" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/dichloroethane</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/dichloroethane</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>437</v>
       </c>
@@ -8572,12 +9087,15 @@
       <c r="H161" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I161" t="str">
+      <c r="I161" t="s">
+        <v>242</v>
+      </c>
+      <c r="J161" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/diesel</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/diesel</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>437</v>
       </c>
@@ -8602,12 +9120,15 @@
       <c r="H162" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I162" t="str">
+      <c r="I162" t="s">
+        <v>242</v>
+      </c>
+      <c r="J162" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/ethylene</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/ethylene</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>437</v>
       </c>
@@ -8632,12 +9153,15 @@
       <c r="H163" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I163" t="str">
+      <c r="I163" t="s">
+        <v>242</v>
+      </c>
+      <c r="J163" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/gasFabricationOfCocs</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>437</v>
       </c>
@@ -8662,12 +9186,15 @@
       <c r="H164" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I164" t="str">
+      <c r="I164" t="s">
+        <v>242</v>
+      </c>
+      <c r="J164" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasHFx</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/gasHFx</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>437</v>
       </c>
@@ -8692,12 +9219,15 @@
       <c r="H165" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I165" t="str">
+      <c r="I165" t="s">
+        <v>242</v>
+      </c>
+      <c r="J165" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/gasoil</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/gasoil</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -8722,12 +9252,15 @@
       <c r="H166" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I166" t="str">
+      <c r="I166" t="s">
+        <v>242</v>
+      </c>
+      <c r="J166" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/hydrogen</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/hydrogen</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>437</v>
       </c>
@@ -8752,12 +9285,15 @@
       <c r="H167" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I167" t="str">
+      <c r="I167" t="s">
+        <v>242</v>
+      </c>
+      <c r="J167" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/isobutane</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/isobutane</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>437</v>
       </c>
@@ -8782,12 +9318,15 @@
       <c r="H168" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I168" t="str">
+      <c r="I168" t="s">
+        <v>242</v>
+      </c>
+      <c r="J168" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/JET-A1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/JET-A1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>437</v>
       </c>
@@ -8812,12 +9351,15 @@
       <c r="H169" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I169" t="str">
+      <c r="I169" t="s">
+        <v>242</v>
+      </c>
+      <c r="J169" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/kerosene</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/kerosene</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>437</v>
       </c>
@@ -8842,12 +9384,15 @@
       <c r="H170" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I170" t="str">
+      <c r="I170" t="s">
+        <v>242</v>
+      </c>
+      <c r="J170" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/liquidAmmonia</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>437</v>
       </c>
@@ -8872,12 +9417,15 @@
       <c r="H171" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I171" t="str">
+      <c r="I171" t="s">
+        <v>242</v>
+      </c>
+      <c r="J171" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/liquidHydrocarbon</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>437</v>
       </c>
@@ -8902,12 +9450,15 @@
       <c r="H172" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I172" t="str">
+      <c r="I172" t="s">
+        <v>242</v>
+      </c>
+      <c r="J172" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/multiProduct</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/multiProduct</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>437</v>
       </c>
@@ -8932,12 +9483,15 @@
       <c r="H173" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I173" t="str">
+      <c r="I173" t="s">
+        <v>242</v>
+      </c>
+      <c r="J173" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/MVC</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/MVC</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>437</v>
       </c>
@@ -8962,12 +9516,15 @@
       <c r="H174" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I174" t="str">
+      <c r="I174" t="s">
+        <v>242</v>
+      </c>
+      <c r="J174" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/nitrogen</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/nitrogen</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>437</v>
       </c>
@@ -8992,12 +9549,15 @@
       <c r="H175" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I175" t="str">
+      <c r="I175" t="s">
+        <v>242</v>
+      </c>
+      <c r="J175" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/oxygen</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/oxygen</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>437</v>
       </c>
@@ -9022,12 +9582,15 @@
       <c r="H176" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I176" t="str">
+      <c r="I176" t="s">
+        <v>242</v>
+      </c>
+      <c r="J176" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/phenol</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/phenol</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>437</v>
       </c>
@@ -9052,12 +9615,15 @@
       <c r="H177" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I177" t="str">
+      <c r="I177" t="s">
+        <v>242</v>
+      </c>
+      <c r="J177" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propane</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/propane</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>437</v>
       </c>
@@ -9082,12 +9648,15 @@
       <c r="H178" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I178" t="str">
+      <c r="I178" t="s">
+        <v>242</v>
+      </c>
+      <c r="J178" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/propylene</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/propylene</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>437</v>
       </c>
@@ -9112,12 +9681,15 @@
       <c r="H179" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I179" t="str">
+      <c r="I179" t="s">
+        <v>242</v>
+      </c>
+      <c r="J179" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saltWater</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/saltWater</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -9142,12 +9714,15 @@
       <c r="H180" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I180" t="str">
+      <c r="I180" t="s">
+        <v>242</v>
+      </c>
+      <c r="J180" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/saumur</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/saumur</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>437</v>
       </c>
@@ -9172,12 +9747,15 @@
       <c r="H181" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I181" t="str">
+      <c r="I181" t="s">
+        <v>242</v>
+      </c>
+      <c r="J181" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/sand</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/sand</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>437</v>
       </c>
@@ -9202,12 +9780,15 @@
       <c r="H182" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I182" t="str">
+      <c r="I182" t="s">
+        <v>242</v>
+      </c>
+      <c r="J182" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/tetrachloroide</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/tetrachloroide</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>437</v>
       </c>
@@ -9232,12 +9813,15 @@
       <c r="H183" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I183" t="str">
+      <c r="I183" t="s">
+        <v>242</v>
+      </c>
+      <c r="J183" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/unknown</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/unknown</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>437</v>
       </c>
@@ -9262,12 +9846,15 @@
       <c r="H184" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I184" t="str">
+      <c r="I184" t="s">
+        <v>242</v>
+      </c>
+      <c r="J184" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/water</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/water</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>437</v>
       </c>
@@ -9292,12 +9879,15 @@
       <c r="H185" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I185" t="str">
+      <c r="I185" t="s">
+        <v>242</v>
+      </c>
+      <c r="J185" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/OilGasChemicalsProductTypeValue/empty</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/OilGasChemicalsProductTypeValue/empty</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>103</v>
       </c>
@@ -9322,12 +9912,15 @@
       <c r="H186" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I186" t="str">
+      <c r="I186" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J186" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/afsluiter</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>103</v>
       </c>
@@ -9352,12 +9945,15 @@
       <c r="H187" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I187" t="str">
+      <c r="I187" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J187" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/diameterovergang</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>103</v>
       </c>
@@ -9382,12 +9978,15 @@
       <c r="H188" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I188" t="str">
+      <c r="I188" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J188" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/materiaalovergang</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>103</v>
       </c>
@@ -9412,12 +10011,15 @@
       <c r="H189" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I189" t="str">
+      <c r="I189" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J189" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/eindpunt</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>103</v>
       </c>
@@ -9442,12 +10044,15 @@
       <c r="H190" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I190" t="str">
+      <c r="I190" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J190" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/blindflens</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/blindflens</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>103</v>
       </c>
@@ -9472,12 +10077,15 @@
       <c r="H191" t="s">
         <v>278</v>
       </c>
-      <c r="I191" t="str">
+      <c r="I191" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J191" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>103</v>
       </c>
@@ -9502,12 +10110,15 @@
       <c r="H192" t="s">
         <v>278</v>
       </c>
-      <c r="I192" t="str">
+      <c r="I192" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J192" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/anode</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>103</v>
       </c>
@@ -9532,12 +10143,15 @@
       <c r="H193" t="s">
         <v>278</v>
       </c>
-      <c r="I193" t="str">
+      <c r="I193" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J193" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>103</v>
       </c>
@@ -9562,12 +10176,15 @@
       <c r="H194" t="s">
         <v>278</v>
       </c>
-      <c r="I194" t="str">
+      <c r="I194" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J194" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/controlValve</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>103</v>
       </c>
@@ -9592,12 +10209,15 @@
       <c r="H195" t="s">
         <v>278</v>
       </c>
-      <c r="I195" t="str">
+      <c r="I195" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J195" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>103</v>
       </c>
@@ -9622,12 +10242,15 @@
       <c r="H196" t="s">
         <v>278</v>
       </c>
-      <c r="I196" t="str">
+      <c r="I196" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J196" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/junction</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>103</v>
       </c>
@@ -9652,12 +10275,15 @@
       <c r="H197" t="s">
         <v>278</v>
       </c>
-      <c r="I197" t="str">
+      <c r="I197" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J197" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/lateralPoint</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>103</v>
       </c>
@@ -9682,12 +10308,15 @@
       <c r="H198" t="s">
         <v>278</v>
       </c>
-      <c r="I198" t="str">
+      <c r="I198" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J198" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>103</v>
       </c>
@@ -9712,12 +10341,15 @@
       <c r="H199" t="s">
         <v>278</v>
       </c>
-      <c r="I199" t="str">
+      <c r="I199" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J199" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>103</v>
       </c>
@@ -9742,12 +10374,15 @@
       <c r="H200" t="s">
         <v>278</v>
       </c>
-      <c r="I200" t="str">
+      <c r="I200" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J200" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pumpStation</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>103</v>
       </c>
@@ -9772,12 +10407,15 @@
       <c r="H201" t="s">
         <v>278</v>
       </c>
-      <c r="I201" t="str">
+      <c r="I201" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J201" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/samplingStation</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>103</v>
       </c>
@@ -9802,12 +10440,15 @@
       <c r="H202" t="s">
         <v>278</v>
       </c>
-      <c r="I202" t="str">
+      <c r="I202" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J202" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/storageFacility</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>103</v>
       </c>
@@ -9832,12 +10473,15 @@
       <c r="H203" t="s">
         <v>278</v>
       </c>
-      <c r="I203" t="str">
+      <c r="I203" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J203" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/treatmentPlant</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>103</v>
       </c>
@@ -9862,12 +10506,15 @@
       <c r="H204" t="s">
         <v>278</v>
       </c>
-      <c r="I204" t="str">
+      <c r="I204" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J204" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterDischargePoint</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>103</v>
       </c>
@@ -9892,12 +10539,15 @@
       <c r="H205" t="s">
         <v>278</v>
       </c>
-      <c r="I205" t="str">
+      <c r="I205" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J205" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>103</v>
       </c>
@@ -9922,12 +10572,15 @@
       <c r="H206" t="s">
         <v>278</v>
       </c>
-      <c r="I206" t="str">
+      <c r="I206" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J206" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterServicePoint</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>103</v>
       </c>
@@ -9952,12 +10605,15 @@
       <c r="H207" t="s">
         <v>278</v>
       </c>
-      <c r="I207" t="str">
+      <c r="I207" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J207" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/well</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="208" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>103</v>
       </c>
@@ -9982,12 +10638,15 @@
       <c r="H208" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I208" t="str">
+      <c r="I208" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J208" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/industrial</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterTypeValue/industrial</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>103</v>
       </c>
@@ -10012,12 +10671,15 @@
       <c r="H209" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I209" t="str">
+      <c r="I209" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J209" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterTypeValue/waste</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterTypeValue/waste</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>103</v>
       </c>
@@ -10042,12 +10704,15 @@
       <c r="H210" t="s">
         <v>244</v>
       </c>
-      <c r="I210" t="str">
+      <c r="I210" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J210" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>103</v>
       </c>
@@ -10072,12 +10737,15 @@
       <c r="H211" t="s">
         <v>244</v>
       </c>
-      <c r="I211" t="str">
+      <c r="I211" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J211" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>103</v>
       </c>
@@ -10102,12 +10770,15 @@
       <c r="H212" t="s">
         <v>244</v>
       </c>
-      <c r="I212" t="str">
+      <c r="I212" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J212" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>103</v>
       </c>
@@ -10132,12 +10803,15 @@
       <c r="H213" t="s">
         <v>244</v>
       </c>
-      <c r="I213" t="str">
+      <c r="I213" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J213" t="str">
         <f t="shared" si="2"/>
         <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="214" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>103</v>
       </c>
@@ -10160,12 +10834,15 @@
       <c r="H214" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I214" t="str">
-        <f t="shared" ref="I214:I277" si="3">IF(B214="inspire",INSPIRE,IMKL) &amp; H214 &amp; "/" &amp; E214</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="15" hidden="1" thickBot="1">
+      <c r="I214" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J214" t="str">
+        <f t="shared" ref="J214:J277" si="3">IF(B214="inspire",INSPIRE,IMKL) &amp; H214 &amp; "/" &amp; E214</f>
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/WaterAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>336</v>
       </c>
@@ -10190,12 +10867,15 @@
       <c r="H215" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I215" t="str">
+      <c r="I215" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J215" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/aansluitleiding</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/aansluitleiding</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>336</v>
       </c>
@@ -10220,12 +10900,15 @@
       <c r="H216" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I216" t="str">
+      <c r="I216" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J216" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergbezinkleiding</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/bergbezinkleiding</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>336</v>
       </c>
@@ -10250,12 +10933,15 @@
       <c r="H217" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I217" t="str">
+      <c r="I217" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J217" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/bergingsleiding</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/bergingsleiding</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>336</v>
       </c>
@@ -10280,12 +10966,15 @@
       <c r="H218" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I218" t="str">
+      <c r="I218" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J218" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/gemengdRiool</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/gemengdRiool</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>336</v>
       </c>
@@ -10310,12 +10999,15 @@
       <c r="H219" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I219" t="str">
+      <c r="I219" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J219" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/hemelwaterriool</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/hemelwaterriool</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>336</v>
       </c>
@@ -10340,12 +11032,15 @@
       <c r="H220" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I220" t="str">
+      <c r="I220" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J220" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/overstortleiding</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/overstortleiding</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -10370,12 +11065,15 @@
       <c r="H221" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I221" t="str">
+      <c r="I221" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J221" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/stuwrioolleiding</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/stuwrioolleiding</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>336</v>
       </c>
@@ -10400,12 +11098,15 @@
       <c r="H222" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I222" t="str">
+      <c r="I222" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J222" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/doorlatendeleiding</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/doorlatendeleiding</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>336</v>
       </c>
@@ -10430,12 +11131,15 @@
       <c r="H223" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I223" t="str">
+      <c r="I223" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J223" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/vuilwaterriool</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/vuilwaterriool</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>336</v>
       </c>
@@ -10460,12 +11164,15 @@
       <c r="H224" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I224" t="str">
+      <c r="I224" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J224" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/transportrioolleiding</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/transportrioolleiding</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>336</v>
       </c>
@@ -10490,12 +11197,15 @@
       <c r="H225" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I225" t="str">
+      <c r="I225" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J225" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/zinker</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/zinker</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>336</v>
       </c>
@@ -10520,12 +11230,15 @@
       <c r="H226" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="I226" t="str">
+      <c r="I226" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="J226" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/RioolleidingTypeValue/openLeiding</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/RioolleidingTypeValue/openLeiding</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>336</v>
       </c>
@@ -10550,12 +11263,15 @@
       <c r="H227" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I227" t="str">
+      <c r="I227" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J227" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/gemaal</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/gemaal</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>336</v>
       </c>
@@ -10580,12 +11296,15 @@
       <c r="H228" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I228" t="str">
+      <c r="I228" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J228" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/infiltratievoorziening</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>336</v>
       </c>
@@ -10610,12 +11329,15 @@
       <c r="H229" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I229" t="str">
+      <c r="I229" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J229" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kolk</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="15" hidden="1" thickBot="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/kolk</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>336</v>
       </c>
@@ -10640,12 +11362,15 @@
       <c r="H230" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I230" t="str">
+      <c r="I230" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J230" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/kunstwerk</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>336</v>
       </c>
@@ -10670,12 +11395,15 @@
       <c r="H231" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I231" t="str">
+      <c r="I231" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J231" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/reservoir</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/reservoir</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>336</v>
       </c>
@@ -10700,12 +11428,15 @@
       <c r="H232" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I232" t="str">
+      <c r="I232" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J232" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/uitlaatconstructie</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>336</v>
       </c>
@@ -10730,12 +11461,15 @@
       <c r="H233" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I233" t="str">
+      <c r="I233" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J233" t="str">
         <f>IF(B233="inspire",INSPIRE,IMKL) &amp; H233 &amp; "/" &amp; E233</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/overstort</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/overstort</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>336</v>
       </c>
@@ -10760,12 +11494,15 @@
       <c r="H234" t="s">
         <v>279</v>
       </c>
-      <c r="I234" t="str">
+      <c r="I234" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J234" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/barrel</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>336</v>
       </c>
@@ -10790,12 +11527,15 @@
       <c r="H235" t="s">
         <v>279</v>
       </c>
-      <c r="I235" t="str">
+      <c r="I235" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J235" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>336</v>
       </c>
@@ -10820,12 +11560,15 @@
       <c r="H236" t="s">
         <v>279</v>
       </c>
-      <c r="I236" t="str">
+      <c r="I236" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J236" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/cleanOut</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>336</v>
       </c>
@@ -10850,12 +11593,15 @@
       <c r="H237" t="s">
         <v>279</v>
       </c>
-      <c r="I237" t="str">
+      <c r="I237" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J237" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/connection</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>336</v>
       </c>
@@ -10880,12 +11626,15 @@
       <c r="H238" t="s">
         <v>279</v>
       </c>
-      <c r="I238" t="str">
+      <c r="I238" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J238" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>336</v>
       </c>
@@ -10910,12 +11659,15 @@
       <c r="H239" t="s">
         <v>279</v>
       </c>
-      <c r="I239" t="str">
+      <c r="I239" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J239" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/specificStructure</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>336</v>
       </c>
@@ -10940,12 +11692,15 @@
       <c r="H240" t="s">
         <v>279</v>
       </c>
-      <c r="I240" t="str">
+      <c r="I240" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J240" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>336</v>
       </c>
@@ -10970,12 +11725,15 @@
       <c r="H241" t="s">
         <v>279</v>
       </c>
-      <c r="I241" t="str">
+      <c r="I241" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J241" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>336</v>
       </c>
@@ -11000,12 +11758,15 @@
       <c r="H242" t="s">
         <v>279</v>
       </c>
-      <c r="I242" t="str">
+      <c r="I242" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J242" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/watertankOrChamber</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>336</v>
       </c>
@@ -11030,12 +11791,15 @@
       <c r="H243" t="s">
         <v>246</v>
       </c>
-      <c r="I243" t="str">
+      <c r="I243" t="s">
+        <v>246</v>
+      </c>
+      <c r="J243" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>336</v>
       </c>
@@ -11060,12 +11824,15 @@
       <c r="H244" t="s">
         <v>246</v>
       </c>
-      <c r="I244" t="str">
+      <c r="I244" t="s">
+        <v>246</v>
+      </c>
+      <c r="J244" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>336</v>
       </c>
@@ -11090,12 +11857,15 @@
       <c r="H245" t="s">
         <v>246</v>
       </c>
-      <c r="I245" t="str">
+      <c r="I245" t="s">
+        <v>246</v>
+      </c>
+      <c r="J245" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>336</v>
       </c>
@@ -11120,12 +11890,15 @@
       <c r="H246" t="s">
         <v>246</v>
       </c>
-      <c r="I246" t="str">
+      <c r="I246" t="s">
+        <v>246</v>
+      </c>
+      <c r="J246" t="str">
         <f t="shared" si="3"/>
         <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>336</v>
       </c>
@@ -11147,12 +11920,15 @@
       <c r="H247" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I247" t="str">
+      <c r="I247" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J247" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/SewerAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="46" t="s">
         <v>118</v>
       </c>
@@ -11177,12 +11953,15 @@
       <c r="H248" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I248" s="39" t="str">
+      <c r="I248" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J248" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/compensator</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/compensator</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="46" t="s">
         <v>118</v>
       </c>
@@ -11207,12 +11986,15 @@
       <c r="H249" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I249" s="39" t="str">
+      <c r="I249" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J249" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/lekdetectiemeetpunt</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="46" t="s">
         <v>118</v>
       </c>
@@ -11237,12 +12019,15 @@
       <c r="H250" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I250" s="39" t="str">
+      <c r="I250" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J250" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/put</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/put</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="46" t="s">
         <v>118</v>
       </c>
@@ -11267,12 +12052,15 @@
       <c r="H251" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I251" s="39" t="str">
+      <c r="I251" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J251" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/pompstation</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>118</v>
       </c>
@@ -11297,12 +12085,15 @@
       <c r="H252" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I252" s="39" t="str">
+      <c r="I252" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J252" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/overdrachtsstation</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="46" t="s">
         <v>118</v>
       </c>
@@ -11327,12 +12118,15 @@
       <c r="H253" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I253" s="39" t="str">
+      <c r="I253" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J253" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" ht="28" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/mantelbuis</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="46" t="s">
         <v>118</v>
       </c>
@@ -11357,12 +12151,15 @@
       <c r="H254" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I254" s="39" t="str">
+      <c r="I254" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J254" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/zinker</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/zinker</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="46" t="s">
         <v>118</v>
       </c>
@@ -11387,12 +12184,15 @@
       <c r="H255" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I255" s="39" t="str">
+      <c r="I255" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J255" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/inEnUittredepuntBoringen</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="46" t="s">
         <v>118</v>
       </c>
@@ -11417,12 +12217,15 @@
       <c r="H256" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I256" s="39" t="str">
+      <c r="I256" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J256" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="39" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/gestuurdeBoring</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="46" t="s">
         <v>118</v>
       </c>
@@ -11447,12 +12250,15 @@
       <c r="H257" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="I257" s="39" t="str">
+      <c r="I257" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="J257" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/ThermalAppurtenanceTypeIMKLValue/puntVanLevering</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/ThermalAppurtenanceTypeIMKLValue/puntVanLevering</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>334</v>
       </c>
@@ -11474,12 +12280,15 @@
       <c r="H258" t="s">
         <v>758</v>
       </c>
-      <c r="I258" t="str">
+      <c r="I258" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J258" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ABS</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/ABS</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -11501,12 +12310,15 @@
       <c r="H259" t="s">
         <v>758</v>
       </c>
-      <c r="I259" t="str">
+      <c r="I259" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J259" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/asbestos</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/asbestos</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>334</v>
       </c>
@@ -11528,12 +12340,15 @@
       <c r="H260" t="s">
         <v>758</v>
       </c>
-      <c r="I260" t="str">
+      <c r="I260" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J260" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackIron</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/blackIron</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>334</v>
       </c>
@@ -11555,12 +12370,15 @@
       <c r="H261" t="s">
         <v>758</v>
       </c>
-      <c r="I261" t="str">
+      <c r="I261" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J261" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/blackSteel</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/blackSteel</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>334</v>
       </c>
@@ -11582,12 +12400,15 @@
       <c r="H262" t="s">
         <v>758</v>
       </c>
-      <c r="I262" t="str">
+      <c r="I262" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J262" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/castIron</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/castIron</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>334</v>
       </c>
@@ -11609,12 +12430,15 @@
       <c r="H263" t="s">
         <v>758</v>
       </c>
-      <c r="I263" t="str">
+      <c r="I263" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J263" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/clay</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/clay</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>334</v>
       </c>
@@ -11636,12 +12460,15 @@
       <c r="H264" t="s">
         <v>758</v>
       </c>
-      <c r="I264" t="str">
+      <c r="I264" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J264" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/compositeConcrete</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/compositeConcrete</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>334</v>
       </c>
@@ -11663,12 +12490,15 @@
       <c r="H265" t="s">
         <v>758</v>
       </c>
-      <c r="I265" t="str">
+      <c r="I265" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J265" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/concrete</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/concrete</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>334</v>
       </c>
@@ -11690,12 +12520,15 @@
       <c r="H266" t="s">
         <v>758</v>
       </c>
-      <c r="I266" t="str">
+      <c r="I266" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J266" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CPVC</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/CPVC</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>334</v>
       </c>
@@ -11709,7 +12542,7 @@
         <v>683</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G267" t="s">
         <v>569</v>
@@ -11717,12 +12550,15 @@
       <c r="H267" t="s">
         <v>758</v>
       </c>
-      <c r="I267" t="str">
+      <c r="I267" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J267" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/FRP</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/FRP</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>334</v>
       </c>
@@ -11744,12 +12580,15 @@
       <c r="H268" t="s">
         <v>758</v>
       </c>
-      <c r="I268" t="str">
+      <c r="I268" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J268" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/galvanizedSteel</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/galvanizedSteel</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -11771,12 +12610,15 @@
       <c r="H269" t="s">
         <v>758</v>
       </c>
-      <c r="I269" t="str">
+      <c r="I269" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J269" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/masonry</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/masonry</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -11798,12 +12640,15 @@
       <c r="H270" t="s">
         <v>758</v>
       </c>
-      <c r="I270" t="str">
+      <c r="I270" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J270" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/other</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/other</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>334</v>
       </c>
@@ -11825,12 +12670,15 @@
       <c r="H271" t="s">
         <v>758</v>
       </c>
-      <c r="I271" t="str">
+      <c r="I271" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J271" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PB</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -11852,12 +12700,15 @@
       <c r="H272" t="s">
         <v>758</v>
       </c>
-      <c r="I272" t="str">
+      <c r="I272" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J272" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PE</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>334</v>
       </c>
@@ -11879,12 +12730,15 @@
       <c r="H273" t="s">
         <v>758</v>
       </c>
-      <c r="I273" t="str">
+      <c r="I273" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J273" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PEX</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PEX</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>334</v>
       </c>
@@ -11906,12 +12760,15 @@
       <c r="H274" t="s">
         <v>758</v>
       </c>
-      <c r="I274" t="str">
+      <c r="I274" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J274" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PP</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PP</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>334</v>
       </c>
@@ -11933,12 +12790,15 @@
       <c r="H275" t="s">
         <v>758</v>
       </c>
-      <c r="I275" t="str">
+      <c r="I275" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J275" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/prestressedReinforcedConcrete</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/prestressedReinforcedConcrete</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>334</v>
       </c>
@@ -11960,12 +12820,15 @@
       <c r="H276" t="s">
         <v>758</v>
       </c>
-      <c r="I276" t="str">
+      <c r="I276" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J276" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PVC</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>334</v>
       </c>
@@ -11987,12 +12850,15 @@
       <c r="H277" t="s">
         <v>758</v>
       </c>
-      <c r="I277" t="str">
+      <c r="I277" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J277" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/reinforcedConcrete</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/reinforcedConcrete</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>334</v>
       </c>
@@ -12014,12 +12880,15 @@
       <c r="H278" t="s">
         <v>758</v>
       </c>
-      <c r="I278" t="str">
-        <f t="shared" ref="I278:I340" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RPMP</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1">
+      <c r="I278" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J278" t="str">
+        <f t="shared" ref="J278:J340" si="4">IF(B278="inspire",INSPIRE,IMKL) &amp; H278 &amp; "/" &amp; E278</f>
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/RPMP</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>334</v>
       </c>
@@ -12041,12 +12910,15 @@
       <c r="H279" t="s">
         <v>758</v>
       </c>
-      <c r="I279" t="str">
+      <c r="I279" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J279" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/steel</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/steel</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>334</v>
       </c>
@@ -12068,12 +12940,15 @@
       <c r="H280" t="s">
         <v>758</v>
       </c>
-      <c r="I280" t="str">
+      <c r="I280" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J280" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/terracota</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/terracota</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>334</v>
       </c>
@@ -12095,12 +12970,15 @@
       <c r="H281" t="s">
         <v>758</v>
       </c>
-      <c r="I281" t="str">
+      <c r="I281" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J281" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/wood</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/wood</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>334</v>
       </c>
@@ -12122,12 +13000,15 @@
       <c r="H282" t="s">
         <v>758</v>
       </c>
-      <c r="I282" t="str">
+      <c r="I282" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J282" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AC</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>334</v>
       </c>
@@ -12141,7 +13022,7 @@
         <v>683</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G283" s="34" t="s">
         <v>601</v>
@@ -12149,12 +13030,15 @@
       <c r="H283" t="s">
         <v>758</v>
       </c>
-      <c r="I283" t="str">
+      <c r="I283" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J283" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/BT</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/BT</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>334</v>
       </c>
@@ -12176,12 +13060,15 @@
       <c r="H284" t="s">
         <v>758</v>
       </c>
-      <c r="I284" t="str">
+      <c r="I284" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J284" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/CU</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/CU</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>334</v>
       </c>
@@ -12203,12 +13090,15 @@
       <c r="H285" t="s">
         <v>758</v>
       </c>
-      <c r="I285" t="str">
+      <c r="I285" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J285" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GIJ</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/GIJ</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>334</v>
       </c>
@@ -12230,12 +13120,15 @@
       <c r="H286" t="s">
         <v>758</v>
       </c>
-      <c r="I286" t="str">
+      <c r="I286" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J286" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVB</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/GVB</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>334</v>
       </c>
@@ -12257,12 +13150,15 @@
       <c r="H287" t="s">
         <v>758</v>
       </c>
-      <c r="I287" t="str">
+      <c r="I287" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J287" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GVK</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/GVK</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>334</v>
       </c>
@@ -12284,12 +13180,15 @@
       <c r="H288" t="s">
         <v>758</v>
       </c>
-      <c r="I288" t="str">
+      <c r="I288" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J288" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HZ</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/HZ</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -12311,12 +13210,15 @@
       <c r="H289" t="s">
         <v>758</v>
       </c>
-      <c r="I289" t="str">
+      <c r="I289" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J289" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/KP</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/KP</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>334</v>
       </c>
@@ -12338,12 +13240,15 @@
       <c r="H290" t="s">
         <v>758</v>
       </c>
-      <c r="I290" t="str">
+      <c r="I290" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J290" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/NGIJ</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/NGIJ</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>334</v>
       </c>
@@ -12365,12 +13270,15 @@
       <c r="H291" t="s">
         <v>758</v>
       </c>
-      <c r="I291" t="str">
+      <c r="I291" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J291" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PB</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PB</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>334</v>
       </c>
@@ -12392,12 +13300,15 @@
       <c r="H292" t="s">
         <v>758</v>
       </c>
-      <c r="I292" t="str">
+      <c r="I292" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J292" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PE</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PE</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>334</v>
       </c>
@@ -12419,12 +13330,15 @@
       <c r="H293" t="s">
         <v>758</v>
       </c>
-      <c r="I293" t="str">
+      <c r="I293" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J293" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PoB</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PoB</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>334</v>
       </c>
@@ -12446,12 +13360,15 @@
       <c r="H294" t="s">
         <v>758</v>
       </c>
-      <c r="I294" t="str">
+      <c r="I294" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J294" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVC</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PVC</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>334</v>
       </c>
@@ -12473,12 +13390,15 @@
       <c r="H295" t="s">
         <v>758</v>
       </c>
-      <c r="I295" t="str">
+      <c r="I295" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J295" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/PVCBV</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/PVCBV</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>334</v>
       </c>
@@ -12500,12 +13420,15 @@
       <c r="H296" t="s">
         <v>758</v>
       </c>
-      <c r="I296" t="str">
+      <c r="I296" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J296" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/RVS</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/RVS</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>334</v>
       </c>
@@ -12527,12 +13450,15 @@
       <c r="H297" t="s">
         <v>758</v>
       </c>
-      <c r="I297" t="str">
+      <c r="I297" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J297" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/SLA</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/SLA</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>334</v>
       </c>
@@ -12546,7 +13472,7 @@
         <v>683</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G298" s="34" t="s">
         <v>627</v>
@@ -12554,12 +13480,15 @@
       <c r="H298" t="s">
         <v>758</v>
       </c>
-      <c r="I298" t="str">
+      <c r="I298" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J298" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/ST</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/ST</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>334</v>
       </c>
@@ -12581,12 +13510,15 @@
       <c r="H299" t="s">
         <v>758</v>
       </c>
-      <c r="I299" t="str">
+      <c r="I299" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J299" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AY</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AY</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>334</v>
       </c>
@@ -12608,12 +13540,15 @@
       <c r="H300" t="s">
         <v>758</v>
       </c>
-      <c r="I300" t="str">
+      <c r="I300" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J300" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AZ</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AZ</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>334</v>
       </c>
@@ -12635,12 +13570,15 @@
       <c r="H301" t="s">
         <v>758</v>
       </c>
-      <c r="I301" t="str">
+      <c r="I301" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J301" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/Z</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/Z</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>334</v>
       </c>
@@ -12662,12 +13600,15 @@
       <c r="H302" t="s">
         <v>758</v>
       </c>
-      <c r="I302" t="str">
+      <c r="I302" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J302" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AB</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AB</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>334</v>
       </c>
@@ -12689,12 +13630,15 @@
       <c r="H303" t="s">
         <v>758</v>
       </c>
-      <c r="I303" t="str">
+      <c r="I303" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J303" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AC</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AC</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>334</v>
       </c>
@@ -12716,12 +13660,15 @@
       <c r="H304" t="s">
         <v>758</v>
       </c>
-      <c r="I304" t="str">
+      <c r="I304" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J304" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AD</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AD</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>334</v>
       </c>
@@ -12743,12 +13690,15 @@
       <c r="H305" t="s">
         <v>758</v>
       </c>
-      <c r="I305" t="str">
+      <c r="I305" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J305" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AE</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AE</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>334</v>
       </c>
@@ -12770,12 +13720,15 @@
       <c r="H306" t="s">
         <v>758</v>
       </c>
-      <c r="I306" t="str">
+      <c r="I306" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J306" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AA</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AA</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>334</v>
       </c>
@@ -12797,12 +13750,15 @@
       <c r="H307" t="s">
         <v>758</v>
       </c>
-      <c r="I307" t="str">
+      <c r="I307" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J307" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AJ</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AJ</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -12824,12 +13780,15 @@
       <c r="H308" t="s">
         <v>758</v>
       </c>
-      <c r="I308" t="str">
+      <c r="I308" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J308" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AK</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AK</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -12851,12 +13810,15 @@
       <c r="H309" t="s">
         <v>758</v>
       </c>
-      <c r="I309" t="str">
+      <c r="I309" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J309" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AL</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AL</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>334</v>
       </c>
@@ -12878,12 +13840,15 @@
       <c r="H310" t="s">
         <v>758</v>
       </c>
-      <c r="I310" t="str">
+      <c r="I310" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J310" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AN</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AN</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>334</v>
       </c>
@@ -12905,12 +13870,15 @@
       <c r="H311" t="s">
         <v>758</v>
       </c>
-      <c r="I311" t="str">
+      <c r="I311" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J311" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AO</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AO</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>334</v>
       </c>
@@ -12932,12 +13900,15 @@
       <c r="H312" t="s">
         <v>758</v>
       </c>
-      <c r="I312" t="str">
+      <c r="I312" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J312" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AP</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AP</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>334</v>
       </c>
@@ -12959,12 +13930,15 @@
       <c r="H313" t="s">
         <v>758</v>
       </c>
-      <c r="I313" t="str">
+      <c r="I313" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J313" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AQ</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AQ</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>334</v>
       </c>
@@ -12986,12 +13960,15 @@
       <c r="H314" t="s">
         <v>758</v>
       </c>
-      <c r="I314" t="str">
+      <c r="I314" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J314" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AR</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AR</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>334</v>
       </c>
@@ -13013,12 +13990,15 @@
       <c r="H315" t="s">
         <v>758</v>
       </c>
-      <c r="I315" t="str">
+      <c r="I315" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J315" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AS</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AS</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -13040,12 +14020,15 @@
       <c r="H316" t="s">
         <v>758</v>
       </c>
-      <c r="I316" t="str">
+      <c r="I316" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J316" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AT</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AT</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>334</v>
       </c>
@@ -13067,12 +14050,15 @@
       <c r="H317" t="s">
         <v>758</v>
       </c>
-      <c r="I317" t="str">
+      <c r="I317" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J317" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AU</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AU</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>334</v>
       </c>
@@ -13094,12 +14080,15 @@
       <c r="H318" t="s">
         <v>758</v>
       </c>
-      <c r="I318" t="str">
+      <c r="I318" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J318" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AV</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AV</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -13121,12 +14110,15 @@
       <c r="H319" t="s">
         <v>758</v>
       </c>
-      <c r="I319" t="str">
+      <c r="I319" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J319" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AW</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AW</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -13148,12 +14140,15 @@
       <c r="H320" t="s">
         <v>758</v>
       </c>
-      <c r="I320" t="str">
+      <c r="I320" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J320" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AF</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AF</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>334</v>
       </c>
@@ -13175,12 +14170,15 @@
       <c r="H321" t="s">
         <v>758</v>
       </c>
-      <c r="I321" t="str">
+      <c r="I321" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J321" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AG</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AG</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>334</v>
       </c>
@@ -13202,12 +14200,15 @@
       <c r="H322" t="s">
         <v>758</v>
       </c>
-      <c r="I322" t="str">
+      <c r="I322" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J322" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AH</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AH</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>334</v>
       </c>
@@ -13229,12 +14230,15 @@
       <c r="H323" t="s">
         <v>758</v>
       </c>
-      <c r="I323" t="str">
+      <c r="I323" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J323" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AI</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AI</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>334</v>
       </c>
@@ -13256,12 +14260,15 @@
       <c r="H324" t="s">
         <v>758</v>
       </c>
-      <c r="I324" t="str">
+      <c r="I324" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J324" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AX</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AX</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -13283,12 +14290,15 @@
       <c r="H325" t="s">
         <v>758</v>
       </c>
-      <c r="I325" t="str">
+      <c r="I325" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J325" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/AM</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="56" customFormat="1" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/AM</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="56" t="s">
         <v>334</v>
       </c>
@@ -13310,17 +14320,20 @@
       <c r="H326" s="56" t="s">
         <v>758</v>
       </c>
-      <c r="I326" s="56" t="str">
+      <c r="I326" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J326" s="56" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/HDPE</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/HDPE</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B327" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C327" s="41" t="s">
         <v>551</v>
@@ -13329,26 +14342,29 @@
         <v>683</v>
       </c>
       <c r="E327" s="55" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F327" s="39"/>
       <c r="G327" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H327" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I327" s="39" t="str">
+      <c r="I327" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J327" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GradeA</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/GradeA</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B328" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C328" s="41" t="s">
         <v>551</v>
@@ -13357,26 +14373,29 @@
         <v>683</v>
       </c>
       <c r="E328" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F328" s="39"/>
       <c r="G328" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H328" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I328" s="39" t="str">
+      <c r="I328" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J328" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/GradeB</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/GradeB</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B329" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C329" s="41" t="s">
         <v>551</v>
@@ -13385,26 +14404,29 @@
         <v>683</v>
       </c>
       <c r="E329" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F329" s="39"/>
       <c r="G329" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H329" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I329" s="39" t="str">
+      <c r="I329" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J329" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X52</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/X52</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B330" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C330" s="41" t="s">
         <v>551</v>
@@ -13413,26 +14435,29 @@
         <v>683</v>
       </c>
       <c r="E330" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F330" s="39"/>
       <c r="G330" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H330" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I330" s="39" t="str">
+      <c r="I330" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J330" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X56</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/X56</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B331" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C331" s="41" t="s">
         <v>551</v>
@@ -13441,26 +14466,29 @@
         <v>683</v>
       </c>
       <c r="E331" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F331" s="39"/>
       <c r="G331" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H331" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I331" s="39" t="str">
+      <c r="I331" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J331" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X60</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/X60</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C332" s="41" t="s">
         <v>551</v>
@@ -13469,26 +14497,29 @@
         <v>683</v>
       </c>
       <c r="E332" s="55" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F332" s="39"/>
       <c r="G332" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H332" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I332" s="39" t="str">
+      <c r="I332" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J332" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X65</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/X65</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B333" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C333" s="41" t="s">
         <v>551</v>
@@ -13497,21 +14528,24 @@
         <v>683</v>
       </c>
       <c r="E333" s="55" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F333" s="39"/>
       <c r="G333" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H333" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="I333" s="39" t="str">
+      <c r="I333" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J333" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/PipeMaterialTypeValue/X70</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/PipeMaterialTypeValue/X70</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>437</v>
       </c>
@@ -13536,12 +14570,15 @@
       <c r="H334" t="s">
         <v>691</v>
       </c>
-      <c r="I334" t="str">
+      <c r="I334" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J334" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/31</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>437</v>
       </c>
@@ -13566,12 +14603,15 @@
       <c r="H335" t="s">
         <v>691</v>
       </c>
-      <c r="I335" t="str">
+      <c r="I335" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J335" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/32</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/32</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>437</v>
       </c>
@@ -13596,12 +14636,15 @@
       <c r="H336" t="s">
         <v>691</v>
       </c>
-      <c r="I336" t="str">
+      <c r="I336" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J336" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/33</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/33</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>437</v>
       </c>
@@ -13626,12 +14669,15 @@
       <c r="H337" t="s">
         <v>691</v>
       </c>
-      <c r="I337" t="str">
+      <c r="I337" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J337" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/34</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>437</v>
       </c>
@@ -13656,12 +14702,15 @@
       <c r="H338" t="s">
         <v>691</v>
       </c>
-      <c r="I338" t="str">
+      <c r="I338" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J338" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/35</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/35</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>437</v>
       </c>
@@ -13686,12 +14735,15 @@
       <c r="H339" t="s">
         <v>691</v>
       </c>
-      <c r="I339" t="str">
+      <c r="I339" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J339" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/36</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/36</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>437</v>
       </c>
@@ -13716,17 +14768,20 @@
       <c r="H340" t="s">
         <v>691</v>
       </c>
-      <c r="I340" t="str">
+      <c r="I340" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J340" t="str">
         <f t="shared" si="4"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/BuisleidingtypeTypeValue/37</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/BuisleidingtypeTypeValue/37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B341" s="54" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>359</v>
@@ -13746,16 +14801,19 @@
       <c r="H341" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I341" s="54" t="s">
+      <c r="I341" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J341" s="54" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B342" s="54" t="s">
         <v>781</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" hidden="1">
-      <c r="A342" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B342" s="54" t="s">
-        <v>782</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>359</v>
@@ -13764,7 +14822,7 @@
         <v>709</v>
       </c>
       <c r="E342" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F342" t="s">
         <v>407</v>
@@ -13775,16 +14833,19 @@
       <c r="H342" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I342" s="54" t="s">
+      <c r="I342" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J342" s="54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B343" s="54" t="s">
         <v>782</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" hidden="1">
-      <c r="A343" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B343" s="54" t="s">
-        <v>783</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>359</v>
@@ -13804,16 +14865,19 @@
       <c r="H343" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I343" s="54" t="s">
+      <c r="I343" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J343" s="54" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B344" s="54" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" hidden="1">
-      <c r="A344" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B344" s="54" t="s">
-        <v>784</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>359</v>
@@ -13833,16 +14897,19 @@
       <c r="H344" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I344" s="54" t="s">
+      <c r="I344" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J344" s="54" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B345" s="54" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" hidden="1">
-      <c r="A345" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B345" s="54" t="s">
-        <v>785</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>359</v>
@@ -13862,11 +14929,14 @@
       <c r="H345" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I345" s="54" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" hidden="1">
+      <c r="I345" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J345" s="54" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>334</v>
       </c>
@@ -13891,12 +14961,15 @@
       <c r="H346" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I346" t="str">
-        <f t="shared" ref="I346:I349" si="5">IF(B346="inspire",INSPIRE,IMKL) &amp; H346 &amp; "/" &amp; E346</f>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/talud</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="39" customFormat="1" hidden="1">
+      <c r="I346" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J346" t="str">
+        <f t="shared" ref="J346:J349" si="5">IF(B346="inspire",INSPIRE,IMKL) &amp; H346 &amp; "/" &amp; E346</f>
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TopografischObjectTypeValue/talud</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="43" t="s">
         <v>334</v>
       </c>
@@ -13921,17 +14994,20 @@
       <c r="H347" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="I347" t="str">
+      <c r="I347" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J347" t="str">
         <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/BuildingPart</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TopografischObjectTypeValue/BuildingPart</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B348" s="54" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>359</v>
@@ -13951,11 +15027,14 @@
       <c r="H348" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I348" s="54" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" hidden="1">
+      <c r="I348" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J348" s="54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>334</v>
       </c>
@@ -13980,17 +15059,20 @@
       <c r="H349" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I349" t="str">
+      <c r="I349" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J349" t="str">
         <f t="shared" si="5"/>
-        <v>http://www.geonovum.nl/imkl2015/1.0/id/TopografischObjectTypeValue/loods</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" hidden="1">
+        <v>http://definities.geostandaarden.nl/imkl2015/id/waardelijst/TopografischObjectTypeValue/loods</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B350" s="54" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>359</v>
@@ -14010,16 +15092,19 @@
       <c r="H350" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I350" s="54" t="s">
+      <c r="I350" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J350" s="54" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B351" s="54" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" hidden="1">
-      <c r="A351" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B351" s="54" t="s">
-        <v>788</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>359</v>
@@ -14039,16 +15124,19 @@
       <c r="H351" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I351" s="54" t="s">
+      <c r="I351" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J351" s="54" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B352" s="54" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" hidden="1">
-      <c r="A352" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B352" s="54" t="s">
-        <v>789</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>359</v>
@@ -14068,16 +15156,19 @@
       <c r="H352" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I352" s="54" t="s">
+      <c r="I352" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J352" s="54" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B353" s="54" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" hidden="1">
-      <c r="A353" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B353" s="54" t="s">
-        <v>790</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>359</v>
@@ -14097,16 +15188,19 @@
       <c r="H353" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I353" s="54" t="s">
+      <c r="I353" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J353" s="54" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B354" s="54" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" hidden="1">
-      <c r="A354" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B354" s="54" t="s">
-        <v>791</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>359</v>
@@ -14126,16 +15220,19 @@
       <c r="H354" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I354" s="54" t="s">
+      <c r="I354" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J354" s="54" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B355" s="54" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" hidden="1">
-      <c r="A355" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B355" s="54" t="s">
-        <v>792</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>359</v>
@@ -14155,16 +15252,19 @@
       <c r="H355" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I355" s="54" t="s">
+      <c r="I355" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J355" s="54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B356" s="54" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" hidden="1">
-      <c r="A356" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B356" s="54" t="s">
-        <v>793</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>359</v>
@@ -14184,16 +15284,19 @@
       <c r="H356" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I356" s="54" t="s">
+      <c r="I356" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J356" s="54" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B357" s="54" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" hidden="1">
-      <c r="A357" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B357" s="54" t="s">
-        <v>794</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>359</v>
@@ -14213,16 +15316,19 @@
       <c r="H357" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I357" s="54" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" hidden="1">
+      <c r="I357" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J357" s="54" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B358" s="54" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>359</v>
@@ -14242,16 +15348,19 @@
       <c r="H358" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I358" s="54" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" hidden="1">
+      <c r="I358" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J358" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B359" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>359</v>
@@ -14271,16 +15380,19 @@
       <c r="H359" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I359" s="54" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" hidden="1">
+      <c r="I359" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J359" s="54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B360" s="54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>359</v>
@@ -14289,7 +15401,7 @@
         <v>709</v>
       </c>
       <c r="E360" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F360" t="s">
         <v>423</v>
@@ -14300,16 +15412,19 @@
       <c r="H360" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I360" s="54" t="s">
+      <c r="I360" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J360" s="54" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B361" s="54" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" hidden="1">
-      <c r="A361" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B361" s="54" t="s">
-        <v>798</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>359</v>
@@ -14329,16 +15444,19 @@
       <c r="H361" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I361" s="54" t="s">
+      <c r="I361" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J361" s="54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B362" s="54" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" hidden="1">
-      <c r="A362" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B362" s="54" t="s">
-        <v>799</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>359</v>
@@ -14358,16 +15476,19 @@
       <c r="H362" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I362" s="54" t="s">
+      <c r="I362" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J362" s="54" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B363" s="54" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" hidden="1">
-      <c r="A363" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B363" s="54" t="s">
-        <v>800</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>359</v>
@@ -14376,7 +15497,7 @@
         <v>709</v>
       </c>
       <c r="E363" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F363" t="s">
         <v>426</v>
@@ -14387,16 +15508,19 @@
       <c r="H363" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I363" s="54" t="s">
+      <c r="I363" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J363" s="54" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B364" s="54" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" hidden="1">
-      <c r="A364" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B364" s="54" t="s">
-        <v>801</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>359</v>
@@ -14416,16 +15540,19 @@
       <c r="H364" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I364" s="54" t="s">
+      <c r="I364" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J364" s="54" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B365" s="54" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" hidden="1">
-      <c r="A365" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B365" s="54" t="s">
-        <v>802</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>359</v>
@@ -14445,16 +15572,19 @@
       <c r="H365" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I365" s="54" t="s">
+      <c r="I365" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J365" s="54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B366" s="54" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" hidden="1">
-      <c r="A366" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B366" s="54" t="s">
-        <v>803</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>359</v>
@@ -14474,16 +15604,19 @@
       <c r="H366" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I366" s="54" t="s">
+      <c r="I366" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J366" s="54" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B367" s="54" t="s">
         <v>803</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" hidden="1">
-      <c r="A367" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B367" s="54" t="s">
-        <v>804</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>359</v>
@@ -14503,16 +15636,19 @@
       <c r="H367" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I367" s="54" t="s">
+      <c r="I367" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J367" s="54" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B368" s="54" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" hidden="1">
-      <c r="A368" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B368" s="54" t="s">
-        <v>805</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>359</v>
@@ -14532,16 +15668,19 @@
       <c r="H368" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I368" s="54" t="s">
+      <c r="I368" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J368" s="54" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B369" s="54" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" hidden="1">
-      <c r="A369" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B369" s="54" t="s">
-        <v>806</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>359</v>
@@ -14561,16 +15700,19 @@
       <c r="H369" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I369" s="54" t="s">
+      <c r="I369" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J369" s="54" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B370" s="54" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" hidden="1">
-      <c r="A370" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B370" s="54" t="s">
-        <v>807</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>359</v>
@@ -14590,18 +15732,14 @@
       <c r="H370" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="I370" s="54" t="s">
-        <v>807</v>
+      <c r="I370" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J370" s="54" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I370">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="ContainerLeidingElementTypeValue"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="B2:G62">
     <sortCondition ref="D2:D62"/>
     <sortCondition ref="B2:B62"/>
@@ -14635,33 +15773,33 @@
     <hyperlink ref="B369" r:id="rId26" location="TypePutPlus_inspectie_rioolput"/>
     <hyperlink ref="B370" r:id="rId27" location="TypePutPlus_kolk"/>
     <hyperlink ref="G362" r:id="rId28"/>
-    <hyperlink ref="I341" r:id="rId29" location="TypeWater_waterloop"/>
-    <hyperlink ref="I342" r:id="rId30" location="FunctieWeg_rijbaan_autosnelweg"/>
-    <hyperlink ref="I343" r:id="rId31" location="FunctieWeg_fietspad"/>
-    <hyperlink ref="I344" r:id="rId32" location="TypeWaterPlus_sloot"/>
-    <hyperlink ref="I345" r:id="rId33" location="FysiekVoorkomenOnbegroeidTerrein_erf"/>
-    <hyperlink ref="I348" r:id="rId34" location="TypeOverigBouwwerk_overkapping"/>
-    <hyperlink ref="I350" r:id="rId35" location="TypeScheiding_hek"/>
-    <hyperlink ref="I351" r:id="rId36" location="TypeScheidingPlus_draadraster"/>
-    <hyperlink ref="I352" r:id="rId37" location="TypeScheidingPlus_faunaraster"/>
-    <hyperlink ref="I353" r:id="rId38" location="TypeScheiding_muur"/>
-    <hyperlink ref="I354" r:id="rId39" location="TypeKunstwerk_hoogspanningsmast"/>
-    <hyperlink ref="I355" r:id="rId40" location="TypeKunstwerk_steiger"/>
-    <hyperlink ref="I356" r:id="rId41" location="TypeKunstwerk_stuw"/>
-    <hyperlink ref="I357" r:id="rId42" location="TypeKunstwerk_gemaal"/>
-    <hyperlink ref="I359" r:id="rId43" location="TypeOverbrugging_viaduct"/>
-    <hyperlink ref="I358" r:id="rId44" location="TypeOverbrugging_brug"/>
-    <hyperlink ref="I360" r:id="rId45" location="TypeKastPlus_CAI_kast"/>
-    <hyperlink ref="I361" r:id="rId46" location="TypeKastPlus_elektrakast"/>
-    <hyperlink ref="I362" r:id="rId47" location="TypeKastPlus_gaskast"/>
-    <hyperlink ref="I363" r:id="rId48" location="TypeKastPlus_telecom_kast"/>
-    <hyperlink ref="I364" r:id="rId49" location="TypeKastPlus_rioolkast"/>
-    <hyperlink ref="I365" r:id="rId50" location="TypeKastPlus_openbare_verlichtingkast"/>
-    <hyperlink ref="I366" r:id="rId51" location="TypePaalPlus_portaal"/>
-    <hyperlink ref="I367" r:id="rId52" location="TypePaalPlus_lichtmast"/>
-    <hyperlink ref="I368" r:id="rId53" location="TypePaalPlus_hectometerpaal"/>
-    <hyperlink ref="I369" r:id="rId54" location="TypePutPlus_inspectie_rioolput"/>
-    <hyperlink ref="I370" r:id="rId55" location="TypePutPlus_kolk"/>
+    <hyperlink ref="J341" r:id="rId29" location="TypeWater_waterloop"/>
+    <hyperlink ref="J342" r:id="rId30" location="FunctieWeg_rijbaan_autosnelweg"/>
+    <hyperlink ref="J343" r:id="rId31" location="FunctieWeg_fietspad"/>
+    <hyperlink ref="J344" r:id="rId32" location="TypeWaterPlus_sloot"/>
+    <hyperlink ref="J345" r:id="rId33" location="FysiekVoorkomenOnbegroeidTerrein_erf"/>
+    <hyperlink ref="J348" r:id="rId34" location="TypeOverigBouwwerk_overkapping"/>
+    <hyperlink ref="J350" r:id="rId35" location="TypeScheiding_hek"/>
+    <hyperlink ref="J351" r:id="rId36" location="TypeScheidingPlus_draadraster"/>
+    <hyperlink ref="J352" r:id="rId37" location="TypeScheidingPlus_faunaraster"/>
+    <hyperlink ref="J353" r:id="rId38" location="TypeScheiding_muur"/>
+    <hyperlink ref="J354" r:id="rId39" location="TypeKunstwerk_hoogspanningsmast"/>
+    <hyperlink ref="J355" r:id="rId40" location="TypeKunstwerk_steiger"/>
+    <hyperlink ref="J356" r:id="rId41" location="TypeKunstwerk_stuw"/>
+    <hyperlink ref="J357" r:id="rId42" location="TypeKunstwerk_gemaal"/>
+    <hyperlink ref="J359" r:id="rId43" location="TypeOverbrugging_viaduct"/>
+    <hyperlink ref="J358" r:id="rId44" location="TypeOverbrugging_brug"/>
+    <hyperlink ref="J360" r:id="rId45" location="TypeKastPlus_CAI_kast"/>
+    <hyperlink ref="J361" r:id="rId46" location="TypeKastPlus_elektrakast"/>
+    <hyperlink ref="J362" r:id="rId47" location="TypeKastPlus_gaskast"/>
+    <hyperlink ref="J363" r:id="rId48" location="TypeKastPlus_telecom_kast"/>
+    <hyperlink ref="J364" r:id="rId49" location="TypeKastPlus_rioolkast"/>
+    <hyperlink ref="J365" r:id="rId50" location="TypeKastPlus_openbare_verlichtingkast"/>
+    <hyperlink ref="J366" r:id="rId51" location="TypePaalPlus_portaal"/>
+    <hyperlink ref="J367" r:id="rId52" location="TypePaalPlus_lichtmast"/>
+    <hyperlink ref="J368" r:id="rId53" location="TypePaalPlus_hectometerpaal"/>
+    <hyperlink ref="J369" r:id="rId54" location="TypePutPlus_inspectie_rioolput"/>
+    <hyperlink ref="J370" r:id="rId55" location="TypePutPlus_kolk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14682,15 +15820,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -14707,7 +15845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -14718,7 +15856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -14729,7 +15867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -14740,7 +15878,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -14751,7 +15889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -14762,7 +15900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14773,7 +15911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -14784,7 +15922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -14795,7 +15933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14806,7 +15944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14817,7 +15955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -14828,7 +15966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -14839,7 +15977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14850,7 +15988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -14861,7 +15999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14872,7 +16010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -14883,7 +16021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -14894,7 +16032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14905,7 +16043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -14916,7 +16054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -14927,7 +16065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -14938,7 +16076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14949,7 +16087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14960,7 +16098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14971,7 +16109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -14982,7 +16120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -14993,12 +16131,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -15009,7 +16147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -15020,12 +16158,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/connectionBox"/>
@@ -15072,16 +16210,16 @@
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -15101,7 +16239,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>191</v>
       </c>
@@ -15118,7 +16256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>191</v>
       </c>
@@ -15135,7 +16273,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>191</v>
       </c>
@@ -15152,7 +16290,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>191</v>
       </c>
@@ -15169,7 +16307,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>191</v>
       </c>
@@ -15186,7 +16324,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>191</v>
       </c>
@@ -15203,7 +16341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>191</v>
       </c>
@@ -15220,7 +16358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>191</v>
       </c>
@@ -15237,7 +16375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>191</v>
       </c>
@@ -15254,7 +16392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>191</v>
       </c>
@@ -15271,7 +16409,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>191</v>
       </c>
@@ -15288,7 +16426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>191</v>
       </c>
@@ -15305,7 +16443,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>191</v>
       </c>
@@ -15322,7 +16460,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>191</v>
       </c>
@@ -15339,7 +16477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -15356,7 +16494,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -15367,7 +16505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -15378,7 +16516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -15389,7 +16527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -15400,7 +16538,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -15411,7 +16549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -15422,7 +16560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -15433,7 +16571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -15444,7 +16582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -15455,7 +16593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -15466,7 +16604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -15477,7 +16615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -15488,7 +16626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -15499,7 +16637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15510,7 +16648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -15521,7 +16659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -15532,7 +16670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -15543,7 +16681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -15554,7 +16692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -15565,7 +16703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -15576,7 +16714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -15587,7 +16725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -15598,7 +16736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -15609,7 +16747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -15620,7 +16758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -15631,7 +16769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -15642,7 +16780,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -15653,7 +16791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -15664,7 +16802,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -15675,7 +16813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -15686,7 +16824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -15697,7 +16835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -15708,7 +16846,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -15719,7 +16857,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -15730,7 +16868,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -15741,7 +16879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -15752,7 +16890,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -15763,7 +16901,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -15774,7 +16912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -15785,7 +16923,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -15796,7 +16934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -15807,7 +16945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -15818,7 +16956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -15829,7 +16967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -15840,7 +16978,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -15851,7 +16989,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -15862,7 +17000,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -15873,7 +17011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -15884,7 +17022,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -15895,7 +17033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -15906,7 +17044,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -15917,7 +17055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -15928,7 +17066,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -15939,7 +17077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -15950,7 +17088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -15961,7 +17099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -15972,7 +17110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -15983,7 +17121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -15994,7 +17132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -16005,7 +17143,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -16016,7 +17154,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -16027,7 +17165,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -16038,21 +17176,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
@@ -16094,15 +17232,15 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -16119,7 +17257,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -16130,7 +17268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -16141,7 +17279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -16152,7 +17290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -16163,7 +17301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -16174,7 +17312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -16185,7 +17323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -16196,7 +17334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -16207,7 +17345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -16218,7 +17356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -16229,7 +17367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -16240,7 +17378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -16251,12 +17389,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -16267,7 +17405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -16278,7 +17416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -16289,7 +17427,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -16300,7 +17438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -16311,7 +17449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -16322,7 +17460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -16333,7 +17471,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -16344,7 +17482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -16355,7 +17493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -16366,7 +17504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -16377,7 +17515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -16388,7 +17526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -16399,12 +17537,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -16415,7 +17553,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -16426,7 +17564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -16437,7 +17575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -16448,7 +17586,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -16459,7 +17597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -16470,7 +17608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -16481,7 +17619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -16492,7 +17630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -16503,7 +17641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -16514,7 +17652,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -16525,7 +17663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -16536,7 +17674,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -16547,7 +17685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -16558,7 +17696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -16569,7 +17707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -16580,7 +17718,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -16591,7 +17729,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -16602,7 +17740,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -16613,7 +17751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -16624,7 +17762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -16635,7 +17773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -16646,7 +17784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -16657,7 +17795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -16668,7 +17806,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -16679,7 +17817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -16690,7 +17828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -16701,7 +17839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -16712,7 +17850,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -16723,7 +17861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -16734,7 +17872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -16745,7 +17883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -16756,7 +17894,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -16767,7 +17905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -16778,7 +17916,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -16789,7 +17927,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -16800,7 +17938,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -16811,7 +17949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
